--- a/Simulasi/Simulasi Tax Calculation.xlsx
+++ b/Simulasi/Simulasi Tax Calculation.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint17\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="7350" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
-    <sheet name="SIMULASI TAX PERSONAL NEW" r:id="rId1" sheetId="1"/>
-    <sheet name="SIMULASI TAX COMPANY NEW" r:id="rId2" sheetId="2"/>
-    <sheet name="DB" r:id="rId3" sheetId="3"/>
+    <sheet name="SIMULASI TAX PERSONAL NEW" sheetId="1" r:id="rId1"/>
+    <sheet name="SIMULASI TAX COMPANY NEW" sheetId="2" r:id="rId2"/>
+    <sheet name="DB" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="ExternalData_1">DB!$A$2:$E$3</definedName>
-    <definedName hidden="1" localSheetId="0" name="ExternalData_1">'SIMULASI TAX PERSONAL NEW'!$B$23:$F$27</definedName>
-    <definedName hidden="1" localSheetId="2" name="ExternalData_2">DB!$A$10:$B$11</definedName>
-    <definedName hidden="1" localSheetId="2" name="ExternalData_3">DB!$A$14:$B$15</definedName>
-    <definedName hidden="1" localSheetId="2" name="ExternalData_4">DB!$A$5:$F$7</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">DB!$A$2:$E$3</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'SIMULASI TAX PERSONAL NEW'!$B$23:$F$27</definedName>
+    <definedName name="ExternalData_2" localSheetId="2" hidden="1">DB!$A$10:$B$11</definedName>
+    <definedName name="ExternalData_3" localSheetId="2" hidden="1">DB!$A$14:$B$15</definedName>
+    <definedName name="ExternalData_4" localSheetId="2" hidden="1">DB!$A$5:$F$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
   <si>
     <t>NILAI KENA PAJAK</t>
   </si>
@@ -243,10 +243,7 @@
     <t>Total Wht Amt</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>IS VAT</t>
   </si>
 </sst>
 </file>
@@ -515,180 +512,180 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="66">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="43" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="43" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="43" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="1" numFmtId="43" xfId="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="1" numFmtId="10" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="1" numFmtId="10" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="47" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="43" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="47" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="43" xfId="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="10" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="10" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="4" numFmtId="2" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="4" numFmtId="2" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="8" numFmtId="43" xfId="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="8" numFmtId="10" xfId="0">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="8" numFmtId="10" xfId="0">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="0" numFmtId="1"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -706,14 +703,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt formatCode="0.00" numFmtId="2"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -731,14 +728,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt formatCode="0.00" numFmtId="2"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -756,14 +753,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -781,14 +778,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -806,14 +803,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -837,7 +834,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -861,7 +858,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -889,10 +886,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" name="SIMULASI TAX PERSONAL NEW-style" pivot="0">
-      <tableStyleElement dxfId="24" type="headerRow"/>
-      <tableStyleElement dxfId="23" type="firstRowStripe"/>
-      <tableStyleElement dxfId="22" type="secondRowStripe"/>
+    <tableStyle name="SIMULASI TAX PERSONAL NEW-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -972,67 +969,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="20" displayName="_r3db_server_ad_ins_com\r3__TAX__4" headerRowDxfId="21" id="3" name="_r3db_server_ad_ins_com\r3__TAX__4" ref="B23:F27" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="_r3db_server_ad_ins_com\r3__TAX__4" displayName="_r3db_server_ad_ins_com\r3__TAX__4" ref="B23:F27" tableType="queryTable" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B23:F27"/>
   <tableColumns count="5">
-    <tableColumn dataDxfId="19" id="26" name="tier" queryTableFieldId="1" uniqueName="26"/>
-    <tableColumn dataDxfId="18" id="27" name="amt_from" queryTableFieldId="2" uniqueName="27"/>
-    <tableColumn dataDxfId="17" id="28" name="amt_to" queryTableFieldId="3" uniqueName="28"/>
-    <tableColumn dataDxfId="16" id="29" name="Column1" queryTableFieldId="4" uniqueName="29"/>
-    <tableColumn dataDxfId="15" id="30" name="2" queryTableFieldId="5" uniqueName="30"/>
+    <tableColumn id="26" uniqueName="26" name="tier" queryTableFieldId="1" dataDxfId="19"/>
+    <tableColumn id="27" uniqueName="27" name="amt_from" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn id="28" uniqueName="28" name="amt_to" queryTableFieldId="3" dataDxfId="17"/>
+    <tableColumn id="29" uniqueName="29" name="Column1" queryTableFieldId="4" dataDxfId="16"/>
+    <tableColumn id="30" uniqueName="30" name="2" queryTableFieldId="5" dataDxfId="15"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__TAX__2" id="1" name="_r3db_server_ad_ins_com\r3__TAX__2" ref="A2:E3" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="_r3db_server_ad_ins_com\r3__TAX__2" displayName="_r3db_server_ad_ins_com\r3__TAX__2" ref="A2:E3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:E3"/>
   <tableColumns count="5">
-    <tableColumn dataDxfId="14" id="6" name="tier" queryTableFieldId="1" uniqueName="6"/>
-    <tableColumn dataDxfId="13" id="7" name="amt_from" queryTableFieldId="2" uniqueName="7"/>
-    <tableColumn dataDxfId="12" id="8" name="amt_to" queryTableFieldId="3" uniqueName="8"/>
-    <tableColumn dataDxfId="11" id="9" name="tax_rate_prcnt" queryTableFieldId="4" uniqueName="9"/>
-    <tableColumn dataDxfId="10" id="10" name="PENALTY_RATE_PRCNT" queryTableFieldId="5" uniqueName="10"/>
+    <tableColumn id="6" uniqueName="6" name="tier" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="7" uniqueName="7" name="amt_from" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="8" uniqueName="8" name="amt_to" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="9" uniqueName="9" name="tax_rate_prcnt" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="10" uniqueName="10" name="PENALTY_RATE_PRCNT" queryTableFieldId="5" dataDxfId="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__TAX__3" id="2" name="_r3db_server_ad_ins_com\r3__TAX__3" ref="A10:B11" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="_r3db_server_ad_ins_com\r3__TAX__3" displayName="_r3db_server_ad_ins_com\r3__TAX__3" ref="A10:B11" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A10:B11"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="9" id="3" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="1" uniqueName="3"/>
-    <tableColumn dataDxfId="8" id="4" name="ROUNDING_AMT" queryTableFieldId="2" uniqueName="4"/>
+    <tableColumn id="3" uniqueName="3" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="4" uniqueName="4" name="ROUNDING_AMT" queryTableFieldId="2" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__TAX__5" id="4" name="_r3db_server_ad_ins_com\r3__TAX__5" ref="A14:B15" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="_r3db_server_ad_ins_com\r3__TAX__5" displayName="_r3db_server_ad_ins_com\r3__TAX__5" ref="A14:B15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A14:B15"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="7" id="5" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="1" uniqueName="5"/>
-    <tableColumn dataDxfId="6" id="6" name="ROUNDING_AMT" queryTableFieldId="2" uniqueName="6"/>
+    <tableColumn id="5" uniqueName="5" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="6" uniqueName="6" name="ROUNDING_AMT" queryTableFieldId="2" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__TAX__6" id="5" name="_r3db_server_ad_ins_com\r3__TAX__6" ref="A5:F7" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="_r3db_server_ad_ins_com\r3__TAX__6" displayName="_r3db_server_ad_ins_com\r3__TAX__6" ref="A5:F7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A5:F7"/>
   <tableColumns count="6">
-    <tableColumn dataDxfId="5" id="13" name="TAX_TYPE_DESCR" queryTableFieldId="1" uniqueName="13"/>
-    <tableColumn dataDxfId="4" id="14" name="TAX_RATE_PRCNT" queryTableFieldId="2" uniqueName="14"/>
-    <tableColumn dataDxfId="3" id="15" name="PENALTY_RATE_PRCNT" queryTableFieldId="3" uniqueName="15"/>
-    <tableColumn dataDxfId="2" id="16" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="4" uniqueName="16"/>
-    <tableColumn dataDxfId="1" id="17" name="amt_from" queryTableFieldId="5" uniqueName="17"/>
-    <tableColumn dataDxfId="0" id="18" name="amt_to" queryTableFieldId="6" uniqueName="18"/>
+    <tableColumn id="13" uniqueName="13" name="TAX_TYPE_DESCR" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="14" uniqueName="14" name="TAX_RATE_PRCNT" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="15" uniqueName="15" name="PENALTY_RATE_PRCNT" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="16" uniqueName="16" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="17" uniqueName="17" name="amt_from" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="18" uniqueName="18" name="amt_to" queryTableFieldId="6" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1148,21 +1145,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1179,7 +1176,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1233,72 +1230,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.75" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.75" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.75" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="27.375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="16.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="19.75" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.75" collapsed="true"/>
-    <col min="22" max="32" customWidth="true" width="7.625" collapsed="true"/>
+    <col min="1" max="1" width="7.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.75" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.75" customWidth="1" collapsed="1"/>
+    <col min="22" max="32" width="7.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="14.25" customHeight="1">
       <c r="A1" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="14.25" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>72830.46</v>
+      <c r="C2">
+        <v>72830.460000000006</v>
       </c>
       <c r="D2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="14.25" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="4" spans="1:17">
-      <c r="B4" s="2"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:17" ht="14.25" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
       <c r="G4" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="5" spans="1:17">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1">
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:17">
+    <row r="6" spans="1:17" ht="14.25" customHeight="1">
       <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
@@ -1311,7 +1312,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="14.25" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
@@ -1321,20 +1322,20 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="8" spans="1:17">
+    <row r="8" spans="1:17" ht="14.25" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="51">
         <f>$M$27+$O$27</f>
-        <v>13666</v>
+        <v>2186</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="51">
         <f>$M$52+$O$52</f>
-        <v>14088</v>
+        <v>9762.5399999999936</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -1343,7 +1344,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="37"/>
     </row>
-    <row customHeight="1" ht="14.25" r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="14.25" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="51"/>
       <c r="D9" s="6"/>
@@ -1352,109 +1353,109 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="14.25" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="51">
         <f>$C$2</f>
-        <v>455504.74</v>
+        <v>72830.460000000006</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="51">
         <f>$C$2</f>
-        <v>455504.74</v>
+        <v>72830.460000000006</v>
       </c>
       <c r="G10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="11" spans="1:17">
+    <row r="11" spans="1:17" ht="14.25" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="51">
         <f>$L$27</f>
-        <v>227753</v>
+        <v>36416</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="51">
         <f>$L$52</f>
-        <v>234797</v>
+        <v>37542</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="12" spans="1:17">
+    <row r="12" spans="1:17" ht="14.25" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="51">
         <f>$N$27</f>
-        <v>0</v>
+        <v>7284</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="51">
         <f>$N$52</f>
-        <v>0</v>
+        <v>7509</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="13" spans="1:17">
+    <row r="13" spans="1:17" ht="14.25" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="51">
         <f>$P$27</f>
-        <v>441839.37</v>
+        <v>77929.23000000001</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="51">
         <f>$P$52</f>
-        <v>455504.74</v>
+        <v>72830.460000000006</v>
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="14" spans="1:17">
+    <row r="14" spans="1:17" ht="14.25" customHeight="1">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="52">
         <f>$Q$27</f>
-        <v>455505.37</v>
+        <v>80115.23000000001</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="52">
         <f>$Q$52</f>
-        <v>469594</v>
+        <v>82593</v>
       </c>
       <c r="G14" s="17"/>
       <c r="K14" s="17"/>
       <c r="N14" s="17"/>
       <c r="Q14" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="14.25" customHeight="1">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="N15" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="16" spans="1:17">
+    <row r="16" spans="1:17" ht="14.25" customHeight="1">
       <c r="L16" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="17" spans="1:21">
+    <row r="17" spans="1:21" ht="14.25" customHeight="1">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1463,7 +1464,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
     </row>
-    <row customHeight="1" ht="14.25" r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="14.25" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>10</v>
@@ -1484,7 +1485,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="23"/>
     </row>
-    <row customHeight="1" ht="14.25" r="19" spans="1:21">
+    <row r="19" spans="1:21" ht="14.25" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1505,7 +1506,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="20" spans="1:21">
+    <row r="20" spans="1:21" ht="14.25" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="8" t="s">
         <v>12</v>
@@ -1515,8 +1516,13 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="25">
+        <f>_r3db_server_ad_ins_com\r3__TAX__2[tax_rate_prcnt]/100</f>
+        <v>0.1</v>
+      </c>
       <c r="G20" s="20"/>
       <c r="I20" s="19"/>
       <c r="J20" s="1"/>
@@ -1529,7 +1535,7 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="21" spans="1:21">
+    <row r="21" spans="1:21" ht="14.25" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
@@ -1555,7 +1561,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="14.25" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="8" t="s">
         <v>15</v>
@@ -1614,31 +1620,31 @@
       </c>
       <c r="K23" s="17">
         <f>IF((C$2&gt;(D$24/$C$20)),(D$24/$C$20),C$2)</f>
-        <v>455504.74</v>
+        <v>72830.460000000006</v>
       </c>
       <c r="L23" s="17">
         <f>CEILING(($K$23*$C$20),$C$21)</f>
-        <v>227753</v>
+        <v>36416</v>
       </c>
       <c r="M23" s="17">
         <f>CEILING(($L$23*$E$24),$C$21)</f>
-        <v>11388</v>
+        <v>1821</v>
       </c>
       <c r="N23" s="17">
         <f>IF($C$4=1,CEILING($K$23*$F$20,$C$21),0)</f>
-        <v>0</v>
+        <v>7284</v>
       </c>
       <c r="O23" s="17">
         <f>IF($C$3=1,0,CEILING(M23*F24,$C$21))</f>
-        <v>2278</v>
+        <v>365</v>
       </c>
       <c r="P23" s="17">
         <f>(L23-M23-O23+N23)+(K23*(100%-C20))</f>
-        <v>441839.37</v>
+        <v>77929.23000000001</v>
       </c>
       <c r="Q23" s="17">
         <f>P23+M23+O23</f>
-        <v>455505.37</v>
+        <v>80115.23000000001</v>
       </c>
       <c r="R23" s="20"/>
       <c r="T23" s="17"/>
@@ -1682,15 +1688,15 @@
         <v>0</v>
       </c>
       <c r="O24" s="17">
-        <f ref="O24:O26" si="0" t="shared">IF($C$3=1,0,CEILING(M24*F25,$C$21))</f>
+        <f t="shared" ref="O24:O26" si="0">IF($C$3=1,0,CEILING(M24*F25,$C$21))</f>
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <f ref="P24:P26" si="1" t="shared">(L24-M24-O24+N24)+(K24*(100%-$C$20))</f>
+        <f t="shared" ref="P24:P26" si="1">(L24-M24-O24+N24)+(K24*(100%-$C$20))</f>
         <v>0</v>
       </c>
       <c r="Q24" s="17">
-        <f ref="Q24:Q26" si="2" t="shared">P24+M24+O24</f>
+        <f t="shared" ref="Q24:Q26" si="2">P24+M24+O24</f>
         <v>0</v>
       </c>
       <c r="R24" s="20"/>
@@ -1735,20 +1741,20 @@
         <v>0</v>
       </c>
       <c r="O25" s="17">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="17">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="20"/>
     </row>
-    <row ht="15.75" r="26" spans="1:21" thickBot="1">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1">
       <c r="A26" s="19"/>
       <c r="B26" s="49">
         <v>3</v>
@@ -1787,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="O26" s="36">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P26" s="30">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26" s="30">
-        <f si="2" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26" s="20"/>
       <c r="U26" s="17"/>
     </row>
-    <row ht="15.75" r="27" spans="1:21" thickTop="1">
+    <row r="27" spans="1:21" ht="15.75" thickTop="1">
       <c r="A27" s="19"/>
       <c r="B27" s="49">
         <v>4</v>
@@ -1824,36 +1830,36 @@
         <v>31</v>
       </c>
       <c r="K27" s="16">
-        <f ref="K27:Q27" si="3" t="shared">SUM(K23:K26)</f>
-        <v>455504.74</v>
+        <f t="shared" ref="K27:Q27" si="3">SUM(K23:K26)</f>
+        <v>72830.460000000006</v>
       </c>
       <c r="L27" s="16">
-        <f si="3" t="shared"/>
-        <v>227753</v>
+        <f t="shared" si="3"/>
+        <v>36416</v>
       </c>
       <c r="M27" s="16">
-        <f si="3" t="shared"/>
-        <v>11388</v>
+        <f t="shared" si="3"/>
+        <v>1821</v>
       </c>
       <c r="N27" s="16">
-        <f si="3" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7284</v>
       </c>
       <c r="O27" s="16">
-        <f si="3" t="shared"/>
-        <v>2278</v>
+        <f t="shared" si="3"/>
+        <v>365</v>
       </c>
       <c r="P27" s="16">
-        <f si="3" t="shared"/>
-        <v>441839.37</v>
+        <f t="shared" si="3"/>
+        <v>77929.23000000001</v>
       </c>
       <c r="Q27" s="16">
-        <f si="3" t="shared"/>
-        <v>455505.37</v>
+        <f t="shared" si="3"/>
+        <v>80115.23000000001</v>
       </c>
       <c r="R27" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="28" spans="1:21" thickBot="1">
+    <row r="28" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -1873,7 +1879,7 @@
       <c r="R28" s="33"/>
       <c r="S28" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="29" spans="1:21">
+    <row r="29" spans="1:21" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1888,7 +1894,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="30" spans="1:21">
+    <row r="30" spans="1:21" ht="14.25" customHeight="1">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -1899,7 +1905,7 @@
       <c r="N30" s="17"/>
       <c r="P30" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="31" spans="1:21">
+    <row r="31" spans="1:21" ht="14.25" customHeight="1">
       <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>32</v>
@@ -1920,7 +1926,7 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="23"/>
     </row>
-    <row customHeight="1" ht="14.25" r="32" spans="1:21">
+    <row r="32" spans="1:21" ht="14.25" customHeight="1">
       <c r="A32" s="19"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1941,7 +1947,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="33" spans="1:19">
+    <row r="33" spans="1:19" ht="14.25" customHeight="1">
       <c r="A33" s="19"/>
       <c r="B33" s="8" t="s">
         <v>12</v>
@@ -1950,8 +1956,13 @@
         <v>0.5</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="25"/>
+      <c r="E33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="25">
+        <f>_r3db_server_ad_ins_com\r3__TAX__2[tax_rate_prcnt]/100</f>
+        <v>0.1</v>
+      </c>
       <c r="G33" s="20"/>
       <c r="I33" s="19"/>
       <c r="J33" s="1"/>
@@ -1964,7 +1975,7 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="34" spans="1:19">
+    <row r="34" spans="1:19" ht="14.25" customHeight="1">
       <c r="A34" s="19"/>
       <c r="B34" s="3" t="s">
         <v>14</v>
@@ -1989,7 +2000,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="35" spans="1:19">
+    <row r="35" spans="1:19" ht="14.25" customHeight="1">
       <c r="A35" s="19"/>
       <c r="B35" s="8" t="s">
         <v>15</v>
@@ -2046,31 +2057,31 @@
       </c>
       <c r="K36" s="17">
         <f>IF((C$2&gt;(D$37/$C$20)),(D$37/$C$20),C$2)</f>
-        <v>455504.74</v>
+        <v>72830.460000000006</v>
       </c>
       <c r="L36" s="17">
         <f>CEILING(($K$36*$C$33)/(100%-IF($C$3=1,$E$37,$E$37+($E$37*$F$37))),$C$34)</f>
-        <v>234797</v>
+        <v>37542</v>
       </c>
       <c r="M36" s="17">
         <f>CEILING(($L$36*$E$24),$C$34)</f>
-        <v>11740</v>
+        <v>1878</v>
       </c>
       <c r="N36" s="17">
         <f>IF($C$4=1,CEILING(($L$36*$F$20)*(100%/$C$33),$C$34),0)</f>
-        <v>0</v>
+        <v>7509</v>
       </c>
       <c r="O36" s="17">
         <f>IF($C$3=1,0,CEILING((M36*F24),$C$34))</f>
-        <v>2348</v>
+        <v>376</v>
       </c>
       <c r="P36" s="17">
         <f>(L36/$C$33)-M36-O36+N36</f>
-        <v>455506</v>
+        <v>80339</v>
       </c>
       <c r="Q36" s="17">
         <f>P36+M36+O36</f>
-        <v>469594</v>
+        <v>82593</v>
       </c>
       <c r="R36" s="34"/>
       <c r="S36" s="1"/>
@@ -2085,7 +2096,7 @@
       </c>
       <c r="D37" s="56">
         <f>($D$24-($D$24*IF($C$3=1,$E$24*$C$33,($E$24+($E$24*$F$24))*$C$33)))</f>
-        <v>48750000</v>
+        <v>48500000</v>
       </c>
       <c r="E37" s="58">
         <f>E24*$C$20</f>
@@ -2125,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="17">
-        <f ref="Q37:Q39" si="4" t="shared">P37+M37+O37</f>
+        <f t="shared" ref="Q37:Q39" si="4">P37+M37+O37</f>
         <v>0</v>
       </c>
       <c r="R37" s="20"/>
@@ -2137,12 +2148,12 @@
         <v>28</v>
       </c>
       <c r="C38" s="56">
-        <f ref="C38:C40" si="5" t="shared">D37+1</f>
-        <v>48750001</v>
+        <f t="shared" ref="C38:C40" si="5">D37+1</f>
+        <v>48500001</v>
       </c>
       <c r="D38" s="56">
         <f>(($D$25-$D$24)-(($D$25-$D$24)*IF($C$3=1,$E$25*$C$33,($E$25+($E$25*$F$25))*$C$33))+(($D$25-$D$24)*IF($C$4=1,$F$20,0%))+$D$37)</f>
-        <v>233750000</v>
+        <v>250500000</v>
       </c>
       <c r="E38" s="58">
         <f>E25*$C$20</f>
@@ -2182,23 +2193,23 @@
         <v>0</v>
       </c>
       <c r="Q38" s="17">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R38" s="20"/>
     </row>
-    <row ht="15.75" r="39" spans="1:19" thickBot="1">
+    <row r="39" spans="1:19" ht="15.75" thickBot="1">
       <c r="A39" s="19"/>
       <c r="B39" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="56">
-        <f si="5" t="shared"/>
-        <v>233750001</v>
+        <f t="shared" si="5"/>
+        <v>250500001</v>
       </c>
       <c r="D39" s="56">
         <f>(($D$26-$D$25)-(($D$26-$D$25)*IF($C$3=1,$E$26*$C$33,($E$26+($E$26*$F$26))*$C$33))+(($D$26-$D$25)*IF($C$4=1,$F$20,0%))+$D$38)</f>
-        <v>452500000</v>
+        <v>488000000</v>
       </c>
       <c r="E39" s="58">
         <f>E26*$C$20</f>
@@ -2234,23 +2245,23 @@
         <v>0</v>
       </c>
       <c r="P39" s="30">
-        <f ref="P39" si="6" t="shared">(L39-M39-O39+N39)+(K39*(100%-$C$33))</f>
+        <f t="shared" ref="P39" si="6">(L39-M39-O39+N39)+(K39*(100%-$C$33))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="30">
-        <f si="4" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R39" s="20"/>
     </row>
-    <row ht="15.75" r="40" spans="1:19" thickTop="1">
+    <row r="40" spans="1:19" ht="15.75" thickTop="1">
       <c r="A40" s="19"/>
       <c r="B40" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="56">
-        <f si="5" t="shared"/>
-        <v>452500001</v>
+        <f t="shared" si="5"/>
+        <v>488000001</v>
       </c>
       <c r="D40" s="56">
         <v>100000000000000</v>
@@ -2269,36 +2280,36 @@
         <v>31</v>
       </c>
       <c r="K40" s="16">
-        <f ref="K40:Q40" si="7" t="shared">SUM(K36:K39)</f>
-        <v>455504.74</v>
+        <f t="shared" ref="K40:Q40" si="7">SUM(K36:K39)</f>
+        <v>72830.460000000006</v>
       </c>
       <c r="L40" s="16">
-        <f si="7" t="shared"/>
-        <v>234797</v>
+        <f t="shared" si="7"/>
+        <v>37542</v>
       </c>
       <c r="M40" s="16">
-        <f si="7" t="shared"/>
-        <v>11740</v>
+        <f t="shared" si="7"/>
+        <v>1878</v>
       </c>
       <c r="N40" s="16">
-        <f si="7" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>7509</v>
       </c>
       <c r="O40" s="16">
-        <f si="7" t="shared"/>
-        <v>2348</v>
+        <f t="shared" si="7"/>
+        <v>376</v>
       </c>
       <c r="P40" s="16">
-        <f si="7" t="shared"/>
-        <v>455506</v>
+        <f t="shared" si="7"/>
+        <v>80339</v>
       </c>
       <c r="Q40" s="16">
-        <f si="7" t="shared"/>
-        <v>469594</v>
+        <f t="shared" si="7"/>
+        <v>82593</v>
       </c>
       <c r="R40" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="41" spans="1:19" thickBot="1">
+    <row r="41" spans="1:19" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -2317,14 +2328,14 @@
       <c r="Q41" s="32"/>
       <c r="R41" s="33"/>
     </row>
-    <row customHeight="1" ht="14.25" r="42" spans="1:19" thickBot="1">
+    <row r="42" spans="1:19" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="1"/>
       <c r="C42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="P42" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="43" spans="1:19">
+    <row r="43" spans="1:19" ht="14.25" customHeight="1">
       <c r="A43" s="38"/>
       <c r="B43" s="39"/>
       <c r="C43" s="40"/>
@@ -2342,7 +2353,7 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="23"/>
     </row>
-    <row customHeight="1" ht="14.25" r="44" spans="1:19">
+    <row r="44" spans="1:19" ht="14.25" customHeight="1">
       <c r="A44" s="38"/>
       <c r="B44" s="39"/>
       <c r="C44" s="41"/>
@@ -2365,7 +2376,7 @@
       <c r="R44" s="20"/>
       <c r="S44" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="45" spans="1:19">
+    <row r="45" spans="1:19" ht="14.25" customHeight="1">
       <c r="A45" s="44"/>
       <c r="B45" s="39"/>
       <c r="C45" s="41"/>
@@ -2386,7 +2397,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="46" spans="1:19">
+    <row r="46" spans="1:19" ht="14.25" customHeight="1">
       <c r="A46" s="44"/>
       <c r="B46" s="39"/>
       <c r="C46" s="41"/>
@@ -2409,7 +2420,7 @@
       <c r="R46" s="20"/>
       <c r="S46" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="47" spans="1:19">
+    <row r="47" spans="1:19" ht="14.25" customHeight="1">
       <c r="A47" s="44"/>
       <c r="B47" s="39"/>
       <c r="C47" s="41"/>
@@ -2444,7 +2455,7 @@
       <c r="R47" s="20"/>
       <c r="S47" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="48" spans="1:19">
+    <row r="48" spans="1:19" ht="14.25" customHeight="1">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -2458,36 +2469,36 @@
       </c>
       <c r="K48" s="17">
         <f>K36</f>
-        <v>455504.74</v>
+        <v>72830.460000000006</v>
       </c>
       <c r="L48" s="17">
         <f>L36</f>
-        <v>234797</v>
+        <v>37542</v>
       </c>
       <c r="M48" s="17">
         <f>M36+IF($C$3=1,(P36-K48))</f>
-        <v>11740</v>
+        <v>1878</v>
       </c>
       <c r="N48" s="17">
         <f>N36</f>
-        <v>0</v>
+        <v>7509</v>
       </c>
       <c r="O48" s="17">
         <f>O36+IF($C$3=0,(P36-K48))</f>
-        <v>2348</v>
+        <v>7884.5399999999936</v>
       </c>
       <c r="P48" s="17">
         <f>IF(P36&lt;&gt;K48,P36-(P36-K48),P36)</f>
-        <v>455504.74</v>
+        <v>72830.460000000006</v>
       </c>
       <c r="Q48" s="17">
         <f>Q36</f>
-        <v>469594</v>
+        <v>82593</v>
       </c>
       <c r="R48" s="34"/>
       <c r="S48" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="49" spans="2:19">
+    <row r="49" spans="2:19" ht="14.25" customHeight="1">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -2500,19 +2511,19 @@
         <v>28</v>
       </c>
       <c r="K49" s="17">
-        <f ref="K49:K51" si="8" t="shared">K37</f>
+        <f t="shared" ref="K49:K51" si="8">K37</f>
         <v>0</v>
       </c>
       <c r="L49" s="17">
-        <f ref="L49:Q51" si="9" t="shared">L37</f>
+        <f t="shared" ref="L49:Q51" si="9">L37</f>
         <v>0</v>
       </c>
       <c r="M49" s="17">
-        <f ref="M49" si="10" t="shared">M37+IF($C$3=1,(P37-K49))</f>
+        <f t="shared" ref="M49" si="10">M37+IF($C$3=1,(P37-K49))</f>
         <v>0</v>
       </c>
       <c r="N49" s="17">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O49" s="17">
@@ -2524,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="Q49" s="17">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R49" s="20"/>
       <c r="S49" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="50" spans="2:19">
+    <row r="50" spans="2:19" ht="14.25" customHeight="1">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -2543,11 +2554,11 @@
         <v>29</v>
       </c>
       <c r="K50" s="17">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L50" s="17">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M50" s="17">
@@ -2555,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="17">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O50" s="17">
@@ -2567,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="Q50" s="17">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R50" s="20"/>
       <c r="S50" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="51" spans="2:19" thickBot="1">
+    <row r="51" spans="2:19" ht="14.25" customHeight="1" thickBot="1">
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -2582,19 +2593,19 @@
         <v>30</v>
       </c>
       <c r="K51" s="36">
-        <f si="8" t="shared"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L51" s="36">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M51" s="36">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N51" s="36">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O51" s="36">
@@ -2606,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="Q51" s="36">
-        <f si="9" t="shared"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R51" s="20"/>
       <c r="S51" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="52" spans="2:19" thickTop="1">
+    <row r="52" spans="2:19" ht="14.25" customHeight="1" thickTop="1">
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -2621,37 +2632,37 @@
         <v>31</v>
       </c>
       <c r="K52" s="16">
-        <f ref="K52:Q52" si="11" t="shared">SUM(K48:K51)</f>
-        <v>455504.74</v>
+        <f t="shared" ref="K52:Q52" si="11">SUM(K48:K51)</f>
+        <v>72830.460000000006</v>
       </c>
       <c r="L52" s="16">
-        <f si="11" t="shared"/>
-        <v>234797</v>
+        <f t="shared" si="11"/>
+        <v>37542</v>
       </c>
       <c r="M52" s="16">
-        <f si="11" t="shared"/>
-        <v>11740</v>
+        <f t="shared" si="11"/>
+        <v>1878</v>
       </c>
       <c r="N52" s="16">
-        <f si="11" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>7509</v>
       </c>
       <c r="O52" s="16">
-        <f si="11" t="shared"/>
-        <v>2348</v>
+        <f t="shared" si="11"/>
+        <v>7884.5399999999936</v>
       </c>
       <c r="P52" s="16">
-        <f si="11" t="shared"/>
-        <v>455504.74</v>
+        <f t="shared" si="11"/>
+        <v>72830.460000000006</v>
       </c>
       <c r="Q52" s="16">
-        <f si="11" t="shared"/>
-        <v>469594</v>
+        <f t="shared" si="11"/>
+        <v>82593</v>
       </c>
       <c r="R52" s="20"/>
       <c r="S52" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="53" spans="2:19" thickBot="1">
+    <row r="53" spans="2:19" ht="14.25" customHeight="1" thickBot="1">
       <c r="D53" s="17"/>
       <c r="I53" s="31"/>
       <c r="J53" s="32"/>
@@ -2665,7 +2676,7 @@
       <c r="R53" s="33"/>
       <c r="S53" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="54" spans="2:19">
+    <row r="54" spans="2:19" ht="14.25" customHeight="1">
       <c r="G54" s="17"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
@@ -2678,7 +2689,7 @@
       <c r="R54" s="17"/>
       <c r="S54" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="55" spans="2:19">
+    <row r="55" spans="2:19" ht="14.25" customHeight="1">
       <c r="G55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
@@ -2691,7 +2702,7 @@
       <c r="R55" s="17"/>
       <c r="S55" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="56" spans="2:19">
+    <row r="56" spans="2:19" ht="14.25" customHeight="1">
       <c r="G56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
@@ -2704,7 +2715,7 @@
       <c r="R56" s="17"/>
       <c r="S56" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="57" spans="2:19">
+    <row r="57" spans="2:19" ht="14.25" customHeight="1">
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
@@ -2715,7 +2726,7 @@
       <c r="R57" s="17"/>
       <c r="S57" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="58" spans="2:19">
+    <row r="58" spans="2:19" ht="14.25" customHeight="1">
       <c r="G58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
@@ -2728,7 +2739,7 @@
       <c r="R58" s="17"/>
       <c r="S58" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="59" spans="2:19">
+    <row r="59" spans="2:19" ht="14.25" customHeight="1">
       <c r="G59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
@@ -2741,37 +2752,37 @@
       <c r="R59" s="17"/>
       <c r="S59" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="60" spans="2:19">
+    <row r="60" spans="2:19" ht="14.25" customHeight="1">
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="61" spans="2:19">
+    <row r="61" spans="2:19" ht="14.25" customHeight="1">
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="P61" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="62" spans="2:19">
+    <row r="62" spans="2:19" ht="14.25" customHeight="1">
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="N62" s="17"/>
       <c r="Q62" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="63" spans="2:19">
+    <row r="63" spans="2:19" ht="14.25" customHeight="1">
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
       <c r="P63" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="64" spans="2:19">
+    <row r="64" spans="2:19" ht="14.25" customHeight="1">
       <c r="K64" s="17"/>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="65" spans="10:32">
+    <row r="65" spans="10:32" ht="14.25" customHeight="1">
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
@@ -2780,35 +2791,35 @@
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="66" spans="10:32">
+    <row r="66" spans="10:32" ht="14.25" customHeight="1">
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="67" spans="10:32">
+    <row r="67" spans="10:32" ht="14.25" customHeight="1">
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="68" spans="10:32">
+    <row r="68" spans="10:32" ht="14.25" customHeight="1">
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
       <c r="Q68" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="69" spans="10:32">
+    <row r="69" spans="10:32" ht="14.25" customHeight="1">
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="70" spans="10:32"/>
-    <row customHeight="1" ht="14.25" r="71" spans="10:32"/>
-    <row customHeight="1" ht="14.25" r="72" spans="10:32"/>
-    <row customHeight="1" ht="14.25" r="73" spans="10:32"/>
-    <row customHeight="1" ht="14.25" r="74" spans="10:32"/>
-    <row customHeight="1" ht="14.25" r="75" spans="10:32"/>
-    <row customHeight="1" ht="14.25" r="76" spans="10:32">
+    <row r="70" spans="10:32" ht="14.25" customHeight="1"/>
+    <row r="71" spans="10:32" ht="14.25" customHeight="1"/>
+    <row r="72" spans="10:32" ht="14.25" customHeight="1"/>
+    <row r="73" spans="10:32" ht="14.25" customHeight="1"/>
+    <row r="74" spans="10:32" ht="14.25" customHeight="1"/>
+    <row r="75" spans="10:32" ht="14.25" customHeight="1"/>
+    <row r="76" spans="10:32" ht="14.25" customHeight="1">
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -2833,7 +2844,7 @@
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="77" spans="10:32">
+    <row r="77" spans="10:32" ht="14.25" customHeight="1">
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -2858,7 +2869,7 @@
       <c r="AE77" s="35"/>
       <c r="AF77" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="78" spans="10:32">
+    <row r="78" spans="10:32" ht="14.25" customHeight="1">
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -2883,7 +2894,7 @@
       <c r="AE78" s="35"/>
       <c r="AF78" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="79" spans="10:32">
+    <row r="79" spans="10:32" ht="14.25" customHeight="1">
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -2908,7 +2919,7 @@
       <c r="AE79" s="35"/>
       <c r="AF79" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="80" spans="10:32">
+    <row r="80" spans="10:32" ht="14.25" customHeight="1">
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -2933,7 +2944,7 @@
       <c r="AE80" s="35"/>
       <c r="AF80" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="81" spans="10:32">
+    <row r="81" spans="10:32" ht="14.25" customHeight="1">
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -2958,7 +2969,7 @@
       <c r="AE81" s="35"/>
       <c r="AF81" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="82" spans="10:32">
+    <row r="82" spans="10:32" ht="14.25" customHeight="1">
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -2983,7 +2994,7 @@
       <c r="AE82" s="35"/>
       <c r="AF82" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="83" spans="10:32">
+    <row r="83" spans="10:32" ht="14.25" customHeight="1">
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
@@ -2991,9 +3002,9 @@
       <c r="R83" s="17"/>
       <c r="S83" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="84" spans="10:32"/>
-    <row customHeight="1" ht="14.25" r="85" spans="10:32"/>
-    <row customHeight="1" ht="14.25" r="86" spans="10:32">
+    <row r="84" spans="10:32" ht="14.25" customHeight="1"/>
+    <row r="85" spans="10:32" ht="14.25" customHeight="1"/>
+    <row r="86" spans="10:32" ht="14.25" customHeight="1">
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -3004,7 +3015,7 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="87" spans="10:32">
+    <row r="87" spans="10:32" ht="14.25" customHeight="1">
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -3015,7 +3026,7 @@
       <c r="R87" s="35"/>
       <c r="S87" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="88" spans="10:32">
+    <row r="88" spans="10:32" ht="14.25" customHeight="1">
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -3026,7 +3037,7 @@
       <c r="R88" s="35"/>
       <c r="S88" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="89" spans="10:32">
+    <row r="89" spans="10:32" ht="14.25" customHeight="1">
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -3037,7 +3048,7 @@
       <c r="R89" s="35"/>
       <c r="S89" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="90" spans="10:32">
+    <row r="90" spans="10:32" ht="14.25" customHeight="1">
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -3048,7 +3059,7 @@
       <c r="R90" s="35"/>
       <c r="S90" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="91" spans="10:32">
+    <row r="91" spans="10:32" ht="14.25" customHeight="1">
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -3059,7 +3070,7 @@
       <c r="R91" s="35"/>
       <c r="S91" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="92" spans="10:32">
+    <row r="92" spans="10:32" ht="14.25" customHeight="1">
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -3070,7 +3081,7 @@
       <c r="R92" s="35"/>
       <c r="S92" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="93" spans="10:32">
+    <row r="93" spans="10:32" ht="14.25" customHeight="1">
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -3081,7 +3092,7 @@
       <c r="R93" s="35"/>
       <c r="S93" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="94" spans="10:32">
+    <row r="94" spans="10:32" ht="14.25" customHeight="1">
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -3092,7 +3103,7 @@
       <c r="R94" s="35"/>
       <c r="S94" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="95" spans="10:32">
+    <row r="95" spans="10:32" ht="14.25" customHeight="1">
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -3103,7 +3114,7 @@
       <c r="R95" s="35"/>
       <c r="S95" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="96" spans="10:32">
+    <row r="96" spans="10:32" ht="14.25" customHeight="1">
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -3114,7 +3125,7 @@
       <c r="R96" s="35"/>
       <c r="S96" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="97" spans="11:19">
+    <row r="97" spans="11:19" ht="14.25" customHeight="1">
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -3125,7 +3136,7 @@
       <c r="R97" s="35"/>
       <c r="S97" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="98" spans="11:19">
+    <row r="98" spans="11:19" ht="14.25" customHeight="1">
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -3136,918 +3147,918 @@
       <c r="R98" s="35"/>
       <c r="S98" s="35"/>
     </row>
-    <row customHeight="1" ht="14.25" r="99" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="100" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="101" spans="11:19">
+    <row r="99" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="100" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="101" spans="11:19" ht="14.25" customHeight="1">
       <c r="N101" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="102" spans="11:19">
+    <row r="102" spans="11:19" ht="14.25" customHeight="1">
       <c r="N102" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="103" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="104" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="105" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="106" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="107" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="108" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="109" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="110" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="111" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="112" spans="11:19"/>
-    <row customHeight="1" ht="14.25" r="113"/>
-    <row customHeight="1" ht="14.25" r="114"/>
-    <row customHeight="1" ht="14.25" r="115"/>
-    <row customHeight="1" ht="14.25" r="116"/>
-    <row customHeight="1" ht="14.25" r="117"/>
-    <row customHeight="1" ht="14.25" r="118"/>
-    <row customHeight="1" ht="14.25" r="119"/>
-    <row customHeight="1" ht="14.25" r="120"/>
-    <row customHeight="1" ht="14.25" r="121"/>
-    <row customHeight="1" ht="14.25" r="122"/>
-    <row customHeight="1" ht="14.25" r="123"/>
-    <row customHeight="1" ht="14.25" r="124"/>
-    <row customHeight="1" ht="14.25" r="125"/>
-    <row customHeight="1" ht="14.25" r="126"/>
-    <row customHeight="1" ht="14.25" r="127"/>
-    <row customHeight="1" ht="14.25" r="128"/>
-    <row customHeight="1" ht="14.25" r="129"/>
-    <row customHeight="1" ht="14.25" r="130"/>
-    <row customHeight="1" ht="14.25" r="131"/>
-    <row customHeight="1" ht="14.25" r="132"/>
-    <row customHeight="1" ht="14.25" r="133"/>
-    <row customHeight="1" ht="14.25" r="134"/>
-    <row customHeight="1" ht="14.25" r="135"/>
-    <row customHeight="1" ht="14.25" r="136"/>
-    <row customHeight="1" ht="14.25" r="137"/>
-    <row customHeight="1" ht="14.25" r="138"/>
-    <row customHeight="1" ht="14.25" r="139"/>
-    <row customHeight="1" ht="14.25" r="140"/>
-    <row customHeight="1" ht="14.25" r="141"/>
-    <row customHeight="1" ht="14.25" r="142"/>
-    <row customHeight="1" ht="14.25" r="143"/>
-    <row customHeight="1" ht="14.25" r="144"/>
-    <row customHeight="1" ht="14.25" r="145"/>
-    <row customHeight="1" ht="14.25" r="146"/>
-    <row customHeight="1" ht="14.25" r="147"/>
-    <row customHeight="1" ht="14.25" r="148"/>
-    <row customHeight="1" ht="14.25" r="149"/>
-    <row customHeight="1" ht="14.25" r="150"/>
-    <row customHeight="1" ht="14.25" r="151"/>
-    <row customHeight="1" ht="14.25" r="152"/>
-    <row customHeight="1" ht="14.25" r="153"/>
-    <row customHeight="1" ht="14.25" r="154"/>
-    <row customHeight="1" ht="14.25" r="155"/>
-    <row customHeight="1" ht="14.25" r="156"/>
-    <row customHeight="1" ht="14.25" r="157"/>
-    <row customHeight="1" ht="14.25" r="158"/>
-    <row customHeight="1" ht="14.25" r="159"/>
-    <row customHeight="1" ht="14.25" r="160"/>
-    <row customHeight="1" ht="14.25" r="161"/>
-    <row customHeight="1" ht="14.25" r="162"/>
-    <row customHeight="1" ht="14.25" r="163"/>
-    <row customHeight="1" ht="14.25" r="164"/>
-    <row customHeight="1" ht="14.25" r="165"/>
-    <row customHeight="1" ht="14.25" r="166"/>
-    <row customHeight="1" ht="14.25" r="167"/>
-    <row customHeight="1" ht="14.25" r="168"/>
-    <row customHeight="1" ht="14.25" r="169"/>
-    <row customHeight="1" ht="14.25" r="170"/>
-    <row customHeight="1" ht="14.25" r="171"/>
-    <row customHeight="1" ht="14.25" r="172"/>
-    <row customHeight="1" ht="14.25" r="173"/>
-    <row customHeight="1" ht="14.25" r="174"/>
-    <row customHeight="1" ht="14.25" r="175"/>
-    <row customHeight="1" ht="14.25" r="176"/>
-    <row customHeight="1" ht="14.25" r="177"/>
-    <row customHeight="1" ht="14.25" r="178"/>
-    <row customHeight="1" ht="14.25" r="179"/>
-    <row customHeight="1" ht="14.25" r="180"/>
-    <row customHeight="1" ht="14.25" r="181"/>
-    <row customHeight="1" ht="14.25" r="182"/>
-    <row customHeight="1" ht="14.25" r="183"/>
-    <row customHeight="1" ht="14.25" r="184"/>
-    <row customHeight="1" ht="14.25" r="185"/>
-    <row customHeight="1" ht="14.25" r="186"/>
-    <row customHeight="1" ht="14.25" r="187"/>
-    <row customHeight="1" ht="14.25" r="188"/>
-    <row customHeight="1" ht="14.25" r="189"/>
-    <row customHeight="1" ht="14.25" r="190"/>
-    <row customHeight="1" ht="14.25" r="191"/>
-    <row customHeight="1" ht="14.25" r="192"/>
-    <row customHeight="1" ht="14.25" r="193"/>
-    <row customHeight="1" ht="14.25" r="194"/>
-    <row customHeight="1" ht="14.25" r="195"/>
-    <row customHeight="1" ht="14.25" r="196"/>
-    <row customHeight="1" ht="14.25" r="197"/>
-    <row customHeight="1" ht="14.25" r="198"/>
-    <row customHeight="1" ht="14.25" r="199"/>
-    <row customHeight="1" ht="14.25" r="200"/>
-    <row customHeight="1" ht="14.25" r="201"/>
-    <row customHeight="1" ht="14.25" r="202"/>
-    <row customHeight="1" ht="14.25" r="203"/>
-    <row customHeight="1" ht="14.25" r="204"/>
-    <row customHeight="1" ht="14.25" r="205"/>
-    <row customHeight="1" ht="14.25" r="206"/>
-    <row customHeight="1" ht="14.25" r="207"/>
-    <row customHeight="1" ht="14.25" r="208"/>
-    <row customHeight="1" ht="14.25" r="209"/>
-    <row customHeight="1" ht="14.25" r="210"/>
-    <row customHeight="1" ht="14.25" r="211"/>
-    <row customHeight="1" ht="14.25" r="212"/>
-    <row customHeight="1" ht="14.25" r="213"/>
-    <row customHeight="1" ht="14.25" r="214"/>
-    <row customHeight="1" ht="14.25" r="215"/>
-    <row customHeight="1" ht="14.25" r="216"/>
-    <row customHeight="1" ht="14.25" r="217"/>
-    <row customHeight="1" ht="14.25" r="218"/>
-    <row customHeight="1" ht="14.25" r="219"/>
-    <row customHeight="1" ht="14.25" r="220"/>
-    <row customHeight="1" ht="14.25" r="221"/>
-    <row customHeight="1" ht="14.25" r="222"/>
-    <row customHeight="1" ht="14.25" r="223"/>
-    <row customHeight="1" ht="14.25" r="224"/>
-    <row customHeight="1" ht="14.25" r="225"/>
-    <row customHeight="1" ht="14.25" r="226"/>
-    <row customHeight="1" ht="14.25" r="227"/>
-    <row customHeight="1" ht="14.25" r="228"/>
-    <row customHeight="1" ht="14.25" r="229"/>
-    <row customHeight="1" ht="14.25" r="230"/>
-    <row customHeight="1" ht="14.25" r="231"/>
-    <row customHeight="1" ht="14.25" r="232"/>
-    <row customHeight="1" ht="14.25" r="233"/>
-    <row customHeight="1" ht="14.25" r="234"/>
-    <row customHeight="1" ht="14.25" r="235"/>
-    <row customHeight="1" ht="14.25" r="236"/>
-    <row customHeight="1" ht="14.25" r="237"/>
-    <row customHeight="1" ht="14.25" r="238"/>
-    <row customHeight="1" ht="14.25" r="239"/>
-    <row customHeight="1" ht="14.25" r="240"/>
-    <row customHeight="1" ht="14.25" r="241"/>
-    <row customHeight="1" ht="14.25" r="242"/>
-    <row customHeight="1" ht="14.25" r="243"/>
-    <row customHeight="1" ht="14.25" r="244"/>
-    <row customHeight="1" ht="14.25" r="245"/>
-    <row customHeight="1" ht="14.25" r="246"/>
-    <row customHeight="1" ht="14.25" r="247"/>
-    <row customHeight="1" ht="14.25" r="248"/>
-    <row customHeight="1" ht="14.25" r="249"/>
-    <row customHeight="1" ht="14.25" r="250"/>
-    <row customHeight="1" ht="14.25" r="251"/>
-    <row customHeight="1" ht="14.25" r="252"/>
-    <row customHeight="1" ht="14.25" r="253"/>
-    <row customHeight="1" ht="14.25" r="254"/>
-    <row customHeight="1" ht="14.25" r="255"/>
-    <row customHeight="1" ht="14.25" r="256"/>
-    <row customHeight="1" ht="14.25" r="257"/>
-    <row customHeight="1" ht="14.25" r="258"/>
-    <row customHeight="1" ht="14.25" r="259"/>
-    <row customHeight="1" ht="14.25" r="260"/>
-    <row customHeight="1" ht="14.25" r="261"/>
-    <row customHeight="1" ht="14.25" r="262"/>
-    <row customHeight="1" ht="14.25" r="263"/>
-    <row customHeight="1" ht="14.25" r="264"/>
-    <row customHeight="1" ht="14.25" r="265"/>
-    <row customHeight="1" ht="14.25" r="266"/>
-    <row customHeight="1" ht="14.25" r="267"/>
-    <row customHeight="1" ht="14.25" r="268"/>
-    <row customHeight="1" ht="14.25" r="269"/>
-    <row customHeight="1" ht="14.25" r="270"/>
-    <row customHeight="1" ht="14.25" r="271"/>
-    <row customHeight="1" ht="14.25" r="272"/>
-    <row customHeight="1" ht="14.25" r="273"/>
-    <row customHeight="1" ht="14.25" r="274"/>
-    <row customHeight="1" ht="14.25" r="275"/>
-    <row customHeight="1" ht="14.25" r="276"/>
-    <row customHeight="1" ht="14.25" r="277"/>
-    <row customHeight="1" ht="14.25" r="278"/>
-    <row customHeight="1" ht="14.25" r="279"/>
-    <row customHeight="1" ht="14.25" r="280"/>
-    <row customHeight="1" ht="14.25" r="281"/>
-    <row customHeight="1" ht="14.25" r="282"/>
-    <row customHeight="1" ht="14.25" r="283"/>
-    <row customHeight="1" ht="14.25" r="284"/>
-    <row customHeight="1" ht="14.25" r="285"/>
-    <row customHeight="1" ht="14.25" r="286"/>
-    <row customHeight="1" ht="14.25" r="287"/>
-    <row customHeight="1" ht="14.25" r="288"/>
-    <row customHeight="1" ht="14.25" r="289"/>
-    <row customHeight="1" ht="14.25" r="290"/>
-    <row customHeight="1" ht="14.25" r="291"/>
-    <row customHeight="1" ht="14.25" r="292"/>
-    <row customHeight="1" ht="14.25" r="293"/>
-    <row customHeight="1" ht="14.25" r="294"/>
-    <row customHeight="1" ht="14.25" r="295"/>
-    <row customHeight="1" ht="14.25" r="296"/>
-    <row customHeight="1" ht="14.25" r="297"/>
-    <row customHeight="1" ht="14.25" r="298"/>
-    <row customHeight="1" ht="14.25" r="299"/>
-    <row customHeight="1" ht="14.25" r="300"/>
-    <row customHeight="1" ht="14.25" r="301"/>
-    <row customHeight="1" ht="14.25" r="302"/>
-    <row customHeight="1" ht="14.25" r="303"/>
-    <row customHeight="1" ht="14.25" r="304"/>
-    <row customHeight="1" ht="14.25" r="305"/>
-    <row customHeight="1" ht="14.25" r="306"/>
-    <row customHeight="1" ht="14.25" r="307"/>
-    <row customHeight="1" ht="14.25" r="308"/>
-    <row customHeight="1" ht="14.25" r="309"/>
-    <row customHeight="1" ht="14.25" r="310"/>
-    <row customHeight="1" ht="14.25" r="311"/>
-    <row customHeight="1" ht="14.25" r="312"/>
-    <row customHeight="1" ht="14.25" r="313"/>
-    <row customHeight="1" ht="14.25" r="314"/>
-    <row customHeight="1" ht="14.25" r="315"/>
-    <row customHeight="1" ht="14.25" r="316"/>
-    <row customHeight="1" ht="14.25" r="317"/>
-    <row customHeight="1" ht="14.25" r="318"/>
-    <row customHeight="1" ht="14.25" r="319"/>
-    <row customHeight="1" ht="14.25" r="320"/>
-    <row customHeight="1" ht="14.25" r="321"/>
-    <row customHeight="1" ht="14.25" r="322"/>
-    <row customHeight="1" ht="14.25" r="323"/>
-    <row customHeight="1" ht="14.25" r="324"/>
-    <row customHeight="1" ht="14.25" r="325"/>
-    <row customHeight="1" ht="14.25" r="326"/>
-    <row customHeight="1" ht="14.25" r="327"/>
-    <row customHeight="1" ht="14.25" r="328"/>
-    <row customHeight="1" ht="14.25" r="329"/>
-    <row customHeight="1" ht="14.25" r="330"/>
-    <row customHeight="1" ht="14.25" r="331"/>
-    <row customHeight="1" ht="14.25" r="332"/>
-    <row customHeight="1" ht="14.25" r="333"/>
-    <row customHeight="1" ht="14.25" r="334"/>
-    <row customHeight="1" ht="14.25" r="335"/>
-    <row customHeight="1" ht="14.25" r="336"/>
-    <row customHeight="1" ht="14.25" r="337"/>
-    <row customHeight="1" ht="14.25" r="338"/>
-    <row customHeight="1" ht="14.25" r="339"/>
-    <row customHeight="1" ht="14.25" r="340"/>
-    <row customHeight="1" ht="14.25" r="341"/>
-    <row customHeight="1" ht="14.25" r="342"/>
-    <row customHeight="1" ht="14.25" r="343"/>
-    <row customHeight="1" ht="14.25" r="344"/>
-    <row customHeight="1" ht="14.25" r="345"/>
-    <row customHeight="1" ht="14.25" r="346"/>
-    <row customHeight="1" ht="14.25" r="347"/>
-    <row customHeight="1" ht="14.25" r="348"/>
-    <row customHeight="1" ht="14.25" r="349"/>
-    <row customHeight="1" ht="14.25" r="350"/>
-    <row customHeight="1" ht="14.25" r="351"/>
-    <row customHeight="1" ht="14.25" r="352"/>
-    <row customHeight="1" ht="14.25" r="353"/>
-    <row customHeight="1" ht="14.25" r="354"/>
-    <row customHeight="1" ht="14.25" r="355"/>
-    <row customHeight="1" ht="14.25" r="356"/>
-    <row customHeight="1" ht="14.25" r="357"/>
-    <row customHeight="1" ht="14.25" r="358"/>
-    <row customHeight="1" ht="14.25" r="359"/>
-    <row customHeight="1" ht="14.25" r="360"/>
-    <row customHeight="1" ht="14.25" r="361"/>
-    <row customHeight="1" ht="14.25" r="362"/>
-    <row customHeight="1" ht="14.25" r="363"/>
-    <row customHeight="1" ht="14.25" r="364"/>
-    <row customHeight="1" ht="14.25" r="365"/>
-    <row customHeight="1" ht="14.25" r="366"/>
-    <row customHeight="1" ht="14.25" r="367"/>
-    <row customHeight="1" ht="14.25" r="368"/>
-    <row customHeight="1" ht="14.25" r="369"/>
-    <row customHeight="1" ht="14.25" r="370"/>
-    <row customHeight="1" ht="14.25" r="371"/>
-    <row customHeight="1" ht="14.25" r="372"/>
-    <row customHeight="1" ht="14.25" r="373"/>
-    <row customHeight="1" ht="14.25" r="374"/>
-    <row customHeight="1" ht="14.25" r="375"/>
-    <row customHeight="1" ht="14.25" r="376"/>
-    <row customHeight="1" ht="14.25" r="377"/>
-    <row customHeight="1" ht="14.25" r="378"/>
-    <row customHeight="1" ht="14.25" r="379"/>
-    <row customHeight="1" ht="14.25" r="380"/>
-    <row customHeight="1" ht="14.25" r="381"/>
-    <row customHeight="1" ht="14.25" r="382"/>
-    <row customHeight="1" ht="14.25" r="383"/>
-    <row customHeight="1" ht="14.25" r="384"/>
-    <row customHeight="1" ht="14.25" r="385"/>
-    <row customHeight="1" ht="14.25" r="386"/>
-    <row customHeight="1" ht="14.25" r="387"/>
-    <row customHeight="1" ht="14.25" r="388"/>
-    <row customHeight="1" ht="14.25" r="389"/>
-    <row customHeight="1" ht="14.25" r="390"/>
-    <row customHeight="1" ht="14.25" r="391"/>
-    <row customHeight="1" ht="14.25" r="392"/>
-    <row customHeight="1" ht="14.25" r="393"/>
-    <row customHeight="1" ht="14.25" r="394"/>
-    <row customHeight="1" ht="14.25" r="395"/>
-    <row customHeight="1" ht="14.25" r="396"/>
-    <row customHeight="1" ht="14.25" r="397"/>
-    <row customHeight="1" ht="14.25" r="398"/>
-    <row customHeight="1" ht="14.25" r="399"/>
-    <row customHeight="1" ht="14.25" r="400"/>
-    <row customHeight="1" ht="14.25" r="401"/>
-    <row customHeight="1" ht="14.25" r="402"/>
-    <row customHeight="1" ht="14.25" r="403"/>
-    <row customHeight="1" ht="14.25" r="404"/>
-    <row customHeight="1" ht="14.25" r="405"/>
-    <row customHeight="1" ht="14.25" r="406"/>
-    <row customHeight="1" ht="14.25" r="407"/>
-    <row customHeight="1" ht="14.25" r="408"/>
-    <row customHeight="1" ht="14.25" r="409"/>
-    <row customHeight="1" ht="14.25" r="410"/>
-    <row customHeight="1" ht="14.25" r="411"/>
-    <row customHeight="1" ht="14.25" r="412"/>
-    <row customHeight="1" ht="14.25" r="413"/>
-    <row customHeight="1" ht="14.25" r="414"/>
-    <row customHeight="1" ht="14.25" r="415"/>
-    <row customHeight="1" ht="14.25" r="416"/>
-    <row customHeight="1" ht="14.25" r="417"/>
-    <row customHeight="1" ht="14.25" r="418"/>
-    <row customHeight="1" ht="14.25" r="419"/>
-    <row customHeight="1" ht="14.25" r="420"/>
-    <row customHeight="1" ht="14.25" r="421"/>
-    <row customHeight="1" ht="14.25" r="422"/>
-    <row customHeight="1" ht="14.25" r="423"/>
-    <row customHeight="1" ht="14.25" r="424"/>
-    <row customHeight="1" ht="14.25" r="425"/>
-    <row customHeight="1" ht="14.25" r="426"/>
-    <row customHeight="1" ht="14.25" r="427"/>
-    <row customHeight="1" ht="14.25" r="428"/>
-    <row customHeight="1" ht="14.25" r="429"/>
-    <row customHeight="1" ht="14.25" r="430"/>
-    <row customHeight="1" ht="14.25" r="431"/>
-    <row customHeight="1" ht="14.25" r="432"/>
-    <row customHeight="1" ht="14.25" r="433"/>
-    <row customHeight="1" ht="14.25" r="434"/>
-    <row customHeight="1" ht="14.25" r="435"/>
-    <row customHeight="1" ht="14.25" r="436"/>
-    <row customHeight="1" ht="14.25" r="437"/>
-    <row customHeight="1" ht="14.25" r="438"/>
-    <row customHeight="1" ht="14.25" r="439"/>
-    <row customHeight="1" ht="14.25" r="440"/>
-    <row customHeight="1" ht="14.25" r="441"/>
-    <row customHeight="1" ht="14.25" r="442"/>
-    <row customHeight="1" ht="14.25" r="443"/>
-    <row customHeight="1" ht="14.25" r="444"/>
-    <row customHeight="1" ht="14.25" r="445"/>
-    <row customHeight="1" ht="14.25" r="446"/>
-    <row customHeight="1" ht="14.25" r="447"/>
-    <row customHeight="1" ht="14.25" r="448"/>
-    <row customHeight="1" ht="14.25" r="449"/>
-    <row customHeight="1" ht="14.25" r="450"/>
-    <row customHeight="1" ht="14.25" r="451"/>
-    <row customHeight="1" ht="14.25" r="452"/>
-    <row customHeight="1" ht="14.25" r="453"/>
-    <row customHeight="1" ht="14.25" r="454"/>
-    <row customHeight="1" ht="14.25" r="455"/>
-    <row customHeight="1" ht="14.25" r="456"/>
-    <row customHeight="1" ht="14.25" r="457"/>
-    <row customHeight="1" ht="14.25" r="458"/>
-    <row customHeight="1" ht="14.25" r="459"/>
-    <row customHeight="1" ht="14.25" r="460"/>
-    <row customHeight="1" ht="14.25" r="461"/>
-    <row customHeight="1" ht="14.25" r="462"/>
-    <row customHeight="1" ht="14.25" r="463"/>
-    <row customHeight="1" ht="14.25" r="464"/>
-    <row customHeight="1" ht="14.25" r="465"/>
-    <row customHeight="1" ht="14.25" r="466"/>
-    <row customHeight="1" ht="14.25" r="467"/>
-    <row customHeight="1" ht="14.25" r="468"/>
-    <row customHeight="1" ht="14.25" r="469"/>
-    <row customHeight="1" ht="14.25" r="470"/>
-    <row customHeight="1" ht="14.25" r="471"/>
-    <row customHeight="1" ht="14.25" r="472"/>
-    <row customHeight="1" ht="14.25" r="473"/>
-    <row customHeight="1" ht="14.25" r="474"/>
-    <row customHeight="1" ht="14.25" r="475"/>
-    <row customHeight="1" ht="14.25" r="476"/>
-    <row customHeight="1" ht="14.25" r="477"/>
-    <row customHeight="1" ht="14.25" r="478"/>
-    <row customHeight="1" ht="14.25" r="479"/>
-    <row customHeight="1" ht="14.25" r="480"/>
-    <row customHeight="1" ht="14.25" r="481"/>
-    <row customHeight="1" ht="14.25" r="482"/>
-    <row customHeight="1" ht="14.25" r="483"/>
-    <row customHeight="1" ht="14.25" r="484"/>
-    <row customHeight="1" ht="14.25" r="485"/>
-    <row customHeight="1" ht="14.25" r="486"/>
-    <row customHeight="1" ht="14.25" r="487"/>
-    <row customHeight="1" ht="14.25" r="488"/>
-    <row customHeight="1" ht="14.25" r="489"/>
-    <row customHeight="1" ht="14.25" r="490"/>
-    <row customHeight="1" ht="14.25" r="491"/>
-    <row customHeight="1" ht="14.25" r="492"/>
-    <row customHeight="1" ht="14.25" r="493"/>
-    <row customHeight="1" ht="14.25" r="494"/>
-    <row customHeight="1" ht="14.25" r="495"/>
-    <row customHeight="1" ht="14.25" r="496"/>
-    <row customHeight="1" ht="14.25" r="497"/>
-    <row customHeight="1" ht="14.25" r="498"/>
-    <row customHeight="1" ht="14.25" r="499"/>
-    <row customHeight="1" ht="14.25" r="500"/>
-    <row customHeight="1" ht="14.25" r="501"/>
-    <row customHeight="1" ht="14.25" r="502"/>
-    <row customHeight="1" ht="14.25" r="503"/>
-    <row customHeight="1" ht="14.25" r="504"/>
-    <row customHeight="1" ht="14.25" r="505"/>
-    <row customHeight="1" ht="14.25" r="506"/>
-    <row customHeight="1" ht="14.25" r="507"/>
-    <row customHeight="1" ht="14.25" r="508"/>
-    <row customHeight="1" ht="14.25" r="509"/>
-    <row customHeight="1" ht="14.25" r="510"/>
-    <row customHeight="1" ht="14.25" r="511"/>
-    <row customHeight="1" ht="14.25" r="512"/>
-    <row customHeight="1" ht="14.25" r="513"/>
-    <row customHeight="1" ht="14.25" r="514"/>
-    <row customHeight="1" ht="14.25" r="515"/>
-    <row customHeight="1" ht="14.25" r="516"/>
-    <row customHeight="1" ht="14.25" r="517"/>
-    <row customHeight="1" ht="14.25" r="518"/>
-    <row customHeight="1" ht="14.25" r="519"/>
-    <row customHeight="1" ht="14.25" r="520"/>
-    <row customHeight="1" ht="14.25" r="521"/>
-    <row customHeight="1" ht="14.25" r="522"/>
-    <row customHeight="1" ht="14.25" r="523"/>
-    <row customHeight="1" ht="14.25" r="524"/>
-    <row customHeight="1" ht="14.25" r="525"/>
-    <row customHeight="1" ht="14.25" r="526"/>
-    <row customHeight="1" ht="14.25" r="527"/>
-    <row customHeight="1" ht="14.25" r="528"/>
-    <row customHeight="1" ht="14.25" r="529"/>
-    <row customHeight="1" ht="14.25" r="530"/>
-    <row customHeight="1" ht="14.25" r="531"/>
-    <row customHeight="1" ht="14.25" r="532"/>
-    <row customHeight="1" ht="14.25" r="533"/>
-    <row customHeight="1" ht="14.25" r="534"/>
-    <row customHeight="1" ht="14.25" r="535"/>
-    <row customHeight="1" ht="14.25" r="536"/>
-    <row customHeight="1" ht="14.25" r="537"/>
-    <row customHeight="1" ht="14.25" r="538"/>
-    <row customHeight="1" ht="14.25" r="539"/>
-    <row customHeight="1" ht="14.25" r="540"/>
-    <row customHeight="1" ht="14.25" r="541"/>
-    <row customHeight="1" ht="14.25" r="542"/>
-    <row customHeight="1" ht="14.25" r="543"/>
-    <row customHeight="1" ht="14.25" r="544"/>
-    <row customHeight="1" ht="14.25" r="545"/>
-    <row customHeight="1" ht="14.25" r="546"/>
-    <row customHeight="1" ht="14.25" r="547"/>
-    <row customHeight="1" ht="14.25" r="548"/>
-    <row customHeight="1" ht="14.25" r="549"/>
-    <row customHeight="1" ht="14.25" r="550"/>
-    <row customHeight="1" ht="14.25" r="551"/>
-    <row customHeight="1" ht="14.25" r="552"/>
-    <row customHeight="1" ht="14.25" r="553"/>
-    <row customHeight="1" ht="14.25" r="554"/>
-    <row customHeight="1" ht="14.25" r="555"/>
-    <row customHeight="1" ht="14.25" r="556"/>
-    <row customHeight="1" ht="14.25" r="557"/>
-    <row customHeight="1" ht="14.25" r="558"/>
-    <row customHeight="1" ht="14.25" r="559"/>
-    <row customHeight="1" ht="14.25" r="560"/>
-    <row customHeight="1" ht="14.25" r="561"/>
-    <row customHeight="1" ht="14.25" r="562"/>
-    <row customHeight="1" ht="14.25" r="563"/>
-    <row customHeight="1" ht="14.25" r="564"/>
-    <row customHeight="1" ht="14.25" r="565"/>
-    <row customHeight="1" ht="14.25" r="566"/>
-    <row customHeight="1" ht="14.25" r="567"/>
-    <row customHeight="1" ht="14.25" r="568"/>
-    <row customHeight="1" ht="14.25" r="569"/>
-    <row customHeight="1" ht="14.25" r="570"/>
-    <row customHeight="1" ht="14.25" r="571"/>
-    <row customHeight="1" ht="14.25" r="572"/>
-    <row customHeight="1" ht="14.25" r="573"/>
-    <row customHeight="1" ht="14.25" r="574"/>
-    <row customHeight="1" ht="14.25" r="575"/>
-    <row customHeight="1" ht="14.25" r="576"/>
-    <row customHeight="1" ht="14.25" r="577"/>
-    <row customHeight="1" ht="14.25" r="578"/>
-    <row customHeight="1" ht="14.25" r="579"/>
-    <row customHeight="1" ht="14.25" r="580"/>
-    <row customHeight="1" ht="14.25" r="581"/>
-    <row customHeight="1" ht="14.25" r="582"/>
-    <row customHeight="1" ht="14.25" r="583"/>
-    <row customHeight="1" ht="14.25" r="584"/>
-    <row customHeight="1" ht="14.25" r="585"/>
-    <row customHeight="1" ht="14.25" r="586"/>
-    <row customHeight="1" ht="14.25" r="587"/>
-    <row customHeight="1" ht="14.25" r="588"/>
-    <row customHeight="1" ht="14.25" r="589"/>
-    <row customHeight="1" ht="14.25" r="590"/>
-    <row customHeight="1" ht="14.25" r="591"/>
-    <row customHeight="1" ht="14.25" r="592"/>
-    <row customHeight="1" ht="14.25" r="593"/>
-    <row customHeight="1" ht="14.25" r="594"/>
-    <row customHeight="1" ht="14.25" r="595"/>
-    <row customHeight="1" ht="14.25" r="596"/>
-    <row customHeight="1" ht="14.25" r="597"/>
-    <row customHeight="1" ht="14.25" r="598"/>
-    <row customHeight="1" ht="14.25" r="599"/>
-    <row customHeight="1" ht="14.25" r="600"/>
-    <row customHeight="1" ht="14.25" r="601"/>
-    <row customHeight="1" ht="14.25" r="602"/>
-    <row customHeight="1" ht="14.25" r="603"/>
-    <row customHeight="1" ht="14.25" r="604"/>
-    <row customHeight="1" ht="14.25" r="605"/>
-    <row customHeight="1" ht="14.25" r="606"/>
-    <row customHeight="1" ht="14.25" r="607"/>
-    <row customHeight="1" ht="14.25" r="608"/>
-    <row customHeight="1" ht="14.25" r="609"/>
-    <row customHeight="1" ht="14.25" r="610"/>
-    <row customHeight="1" ht="14.25" r="611"/>
-    <row customHeight="1" ht="14.25" r="612"/>
-    <row customHeight="1" ht="14.25" r="613"/>
-    <row customHeight="1" ht="14.25" r="614"/>
-    <row customHeight="1" ht="14.25" r="615"/>
-    <row customHeight="1" ht="14.25" r="616"/>
-    <row customHeight="1" ht="14.25" r="617"/>
-    <row customHeight="1" ht="14.25" r="618"/>
-    <row customHeight="1" ht="14.25" r="619"/>
-    <row customHeight="1" ht="14.25" r="620"/>
-    <row customHeight="1" ht="14.25" r="621"/>
-    <row customHeight="1" ht="14.25" r="622"/>
-    <row customHeight="1" ht="14.25" r="623"/>
-    <row customHeight="1" ht="14.25" r="624"/>
-    <row customHeight="1" ht="14.25" r="625"/>
-    <row customHeight="1" ht="14.25" r="626"/>
-    <row customHeight="1" ht="14.25" r="627"/>
-    <row customHeight="1" ht="14.25" r="628"/>
-    <row customHeight="1" ht="14.25" r="629"/>
-    <row customHeight="1" ht="14.25" r="630"/>
-    <row customHeight="1" ht="14.25" r="631"/>
-    <row customHeight="1" ht="14.25" r="632"/>
-    <row customHeight="1" ht="14.25" r="633"/>
-    <row customHeight="1" ht="14.25" r="634"/>
-    <row customHeight="1" ht="14.25" r="635"/>
-    <row customHeight="1" ht="14.25" r="636"/>
-    <row customHeight="1" ht="14.25" r="637"/>
-    <row customHeight="1" ht="14.25" r="638"/>
-    <row customHeight="1" ht="14.25" r="639"/>
-    <row customHeight="1" ht="14.25" r="640"/>
-    <row customHeight="1" ht="14.25" r="641"/>
-    <row customHeight="1" ht="14.25" r="642"/>
-    <row customHeight="1" ht="14.25" r="643"/>
-    <row customHeight="1" ht="14.25" r="644"/>
-    <row customHeight="1" ht="14.25" r="645"/>
-    <row customHeight="1" ht="14.25" r="646"/>
-    <row customHeight="1" ht="14.25" r="647"/>
-    <row customHeight="1" ht="14.25" r="648"/>
-    <row customHeight="1" ht="14.25" r="649"/>
-    <row customHeight="1" ht="14.25" r="650"/>
-    <row customHeight="1" ht="14.25" r="651"/>
-    <row customHeight="1" ht="14.25" r="652"/>
-    <row customHeight="1" ht="14.25" r="653"/>
-    <row customHeight="1" ht="14.25" r="654"/>
-    <row customHeight="1" ht="14.25" r="655"/>
-    <row customHeight="1" ht="14.25" r="656"/>
-    <row customHeight="1" ht="14.25" r="657"/>
-    <row customHeight="1" ht="14.25" r="658"/>
-    <row customHeight="1" ht="14.25" r="659"/>
-    <row customHeight="1" ht="14.25" r="660"/>
-    <row customHeight="1" ht="14.25" r="661"/>
-    <row customHeight="1" ht="14.25" r="662"/>
-    <row customHeight="1" ht="14.25" r="663"/>
-    <row customHeight="1" ht="14.25" r="664"/>
-    <row customHeight="1" ht="14.25" r="665"/>
-    <row customHeight="1" ht="14.25" r="666"/>
-    <row customHeight="1" ht="14.25" r="667"/>
-    <row customHeight="1" ht="14.25" r="668"/>
-    <row customHeight="1" ht="14.25" r="669"/>
-    <row customHeight="1" ht="14.25" r="670"/>
-    <row customHeight="1" ht="14.25" r="671"/>
-    <row customHeight="1" ht="14.25" r="672"/>
-    <row customHeight="1" ht="14.25" r="673"/>
-    <row customHeight="1" ht="14.25" r="674"/>
-    <row customHeight="1" ht="14.25" r="675"/>
-    <row customHeight="1" ht="14.25" r="676"/>
-    <row customHeight="1" ht="14.25" r="677"/>
-    <row customHeight="1" ht="14.25" r="678"/>
-    <row customHeight="1" ht="14.25" r="679"/>
-    <row customHeight="1" ht="14.25" r="680"/>
-    <row customHeight="1" ht="14.25" r="681"/>
-    <row customHeight="1" ht="14.25" r="682"/>
-    <row customHeight="1" ht="14.25" r="683"/>
-    <row customHeight="1" ht="14.25" r="684"/>
-    <row customHeight="1" ht="14.25" r="685"/>
-    <row customHeight="1" ht="14.25" r="686"/>
-    <row customHeight="1" ht="14.25" r="687"/>
-    <row customHeight="1" ht="14.25" r="688"/>
-    <row customHeight="1" ht="14.25" r="689"/>
-    <row customHeight="1" ht="14.25" r="690"/>
-    <row customHeight="1" ht="14.25" r="691"/>
-    <row customHeight="1" ht="14.25" r="692"/>
-    <row customHeight="1" ht="14.25" r="693"/>
-    <row customHeight="1" ht="14.25" r="694"/>
-    <row customHeight="1" ht="14.25" r="695"/>
-    <row customHeight="1" ht="14.25" r="696"/>
-    <row customHeight="1" ht="14.25" r="697"/>
-    <row customHeight="1" ht="14.25" r="698"/>
-    <row customHeight="1" ht="14.25" r="699"/>
-    <row customHeight="1" ht="14.25" r="700"/>
-    <row customHeight="1" ht="14.25" r="701"/>
-    <row customHeight="1" ht="14.25" r="702"/>
-    <row customHeight="1" ht="14.25" r="703"/>
-    <row customHeight="1" ht="14.25" r="704"/>
-    <row customHeight="1" ht="14.25" r="705"/>
-    <row customHeight="1" ht="14.25" r="706"/>
-    <row customHeight="1" ht="14.25" r="707"/>
-    <row customHeight="1" ht="14.25" r="708"/>
-    <row customHeight="1" ht="14.25" r="709"/>
-    <row customHeight="1" ht="14.25" r="710"/>
-    <row customHeight="1" ht="14.25" r="711"/>
-    <row customHeight="1" ht="14.25" r="712"/>
-    <row customHeight="1" ht="14.25" r="713"/>
-    <row customHeight="1" ht="14.25" r="714"/>
-    <row customHeight="1" ht="14.25" r="715"/>
-    <row customHeight="1" ht="14.25" r="716"/>
-    <row customHeight="1" ht="14.25" r="717"/>
-    <row customHeight="1" ht="14.25" r="718"/>
-    <row customHeight="1" ht="14.25" r="719"/>
-    <row customHeight="1" ht="14.25" r="720"/>
-    <row customHeight="1" ht="14.25" r="721"/>
-    <row customHeight="1" ht="14.25" r="722"/>
-    <row customHeight="1" ht="14.25" r="723"/>
-    <row customHeight="1" ht="14.25" r="724"/>
-    <row customHeight="1" ht="14.25" r="725"/>
-    <row customHeight="1" ht="14.25" r="726"/>
-    <row customHeight="1" ht="14.25" r="727"/>
-    <row customHeight="1" ht="14.25" r="728"/>
-    <row customHeight="1" ht="14.25" r="729"/>
-    <row customHeight="1" ht="14.25" r="730"/>
-    <row customHeight="1" ht="14.25" r="731"/>
-    <row customHeight="1" ht="14.25" r="732"/>
-    <row customHeight="1" ht="14.25" r="733"/>
-    <row customHeight="1" ht="14.25" r="734"/>
-    <row customHeight="1" ht="14.25" r="735"/>
-    <row customHeight="1" ht="14.25" r="736"/>
-    <row customHeight="1" ht="14.25" r="737"/>
-    <row customHeight="1" ht="14.25" r="738"/>
-    <row customHeight="1" ht="14.25" r="739"/>
-    <row customHeight="1" ht="14.25" r="740"/>
-    <row customHeight="1" ht="14.25" r="741"/>
-    <row customHeight="1" ht="14.25" r="742"/>
-    <row customHeight="1" ht="14.25" r="743"/>
-    <row customHeight="1" ht="14.25" r="744"/>
-    <row customHeight="1" ht="14.25" r="745"/>
-    <row customHeight="1" ht="14.25" r="746"/>
-    <row customHeight="1" ht="14.25" r="747"/>
-    <row customHeight="1" ht="14.25" r="748"/>
-    <row customHeight="1" ht="14.25" r="749"/>
-    <row customHeight="1" ht="14.25" r="750"/>
-    <row customHeight="1" ht="14.25" r="751"/>
-    <row customHeight="1" ht="14.25" r="752"/>
-    <row customHeight="1" ht="14.25" r="753"/>
-    <row customHeight="1" ht="14.25" r="754"/>
-    <row customHeight="1" ht="14.25" r="755"/>
-    <row customHeight="1" ht="14.25" r="756"/>
-    <row customHeight="1" ht="14.25" r="757"/>
-    <row customHeight="1" ht="14.25" r="758"/>
-    <row customHeight="1" ht="14.25" r="759"/>
-    <row customHeight="1" ht="14.25" r="760"/>
-    <row customHeight="1" ht="14.25" r="761"/>
-    <row customHeight="1" ht="14.25" r="762"/>
-    <row customHeight="1" ht="14.25" r="763"/>
-    <row customHeight="1" ht="14.25" r="764"/>
-    <row customHeight="1" ht="14.25" r="765"/>
-    <row customHeight="1" ht="14.25" r="766"/>
-    <row customHeight="1" ht="14.25" r="767"/>
-    <row customHeight="1" ht="14.25" r="768"/>
-    <row customHeight="1" ht="14.25" r="769"/>
-    <row customHeight="1" ht="14.25" r="770"/>
-    <row customHeight="1" ht="14.25" r="771"/>
-    <row customHeight="1" ht="14.25" r="772"/>
-    <row customHeight="1" ht="14.25" r="773"/>
-    <row customHeight="1" ht="14.25" r="774"/>
-    <row customHeight="1" ht="14.25" r="775"/>
-    <row customHeight="1" ht="14.25" r="776"/>
-    <row customHeight="1" ht="14.25" r="777"/>
-    <row customHeight="1" ht="14.25" r="778"/>
-    <row customHeight="1" ht="14.25" r="779"/>
-    <row customHeight="1" ht="14.25" r="780"/>
-    <row customHeight="1" ht="14.25" r="781"/>
-    <row customHeight="1" ht="14.25" r="782"/>
-    <row customHeight="1" ht="14.25" r="783"/>
-    <row customHeight="1" ht="14.25" r="784"/>
-    <row customHeight="1" ht="14.25" r="785"/>
-    <row customHeight="1" ht="14.25" r="786"/>
-    <row customHeight="1" ht="14.25" r="787"/>
-    <row customHeight="1" ht="14.25" r="788"/>
-    <row customHeight="1" ht="14.25" r="789"/>
-    <row customHeight="1" ht="14.25" r="790"/>
-    <row customHeight="1" ht="14.25" r="791"/>
-    <row customHeight="1" ht="14.25" r="792"/>
-    <row customHeight="1" ht="14.25" r="793"/>
-    <row customHeight="1" ht="14.25" r="794"/>
-    <row customHeight="1" ht="14.25" r="795"/>
-    <row customHeight="1" ht="14.25" r="796"/>
-    <row customHeight="1" ht="14.25" r="797"/>
-    <row customHeight="1" ht="14.25" r="798"/>
-    <row customHeight="1" ht="14.25" r="799"/>
-    <row customHeight="1" ht="14.25" r="800"/>
-    <row customHeight="1" ht="14.25" r="801"/>
-    <row customHeight="1" ht="14.25" r="802"/>
-    <row customHeight="1" ht="14.25" r="803"/>
-    <row customHeight="1" ht="14.25" r="804"/>
-    <row customHeight="1" ht="14.25" r="805"/>
-    <row customHeight="1" ht="14.25" r="806"/>
-    <row customHeight="1" ht="14.25" r="807"/>
-    <row customHeight="1" ht="14.25" r="808"/>
-    <row customHeight="1" ht="14.25" r="809"/>
-    <row customHeight="1" ht="14.25" r="810"/>
-    <row customHeight="1" ht="14.25" r="811"/>
-    <row customHeight="1" ht="14.25" r="812"/>
-    <row customHeight="1" ht="14.25" r="813"/>
-    <row customHeight="1" ht="14.25" r="814"/>
-    <row customHeight="1" ht="14.25" r="815"/>
-    <row customHeight="1" ht="14.25" r="816"/>
-    <row customHeight="1" ht="14.25" r="817"/>
-    <row customHeight="1" ht="14.25" r="818"/>
-    <row customHeight="1" ht="14.25" r="819"/>
-    <row customHeight="1" ht="14.25" r="820"/>
-    <row customHeight="1" ht="14.25" r="821"/>
-    <row customHeight="1" ht="14.25" r="822"/>
-    <row customHeight="1" ht="14.25" r="823"/>
-    <row customHeight="1" ht="14.25" r="824"/>
-    <row customHeight="1" ht="14.25" r="825"/>
-    <row customHeight="1" ht="14.25" r="826"/>
-    <row customHeight="1" ht="14.25" r="827"/>
-    <row customHeight="1" ht="14.25" r="828"/>
-    <row customHeight="1" ht="14.25" r="829"/>
-    <row customHeight="1" ht="14.25" r="830"/>
-    <row customHeight="1" ht="14.25" r="831"/>
-    <row customHeight="1" ht="14.25" r="832"/>
-    <row customHeight="1" ht="14.25" r="833"/>
-    <row customHeight="1" ht="14.25" r="834"/>
-    <row customHeight="1" ht="14.25" r="835"/>
-    <row customHeight="1" ht="14.25" r="836"/>
-    <row customHeight="1" ht="14.25" r="837"/>
-    <row customHeight="1" ht="14.25" r="838"/>
-    <row customHeight="1" ht="14.25" r="839"/>
-    <row customHeight="1" ht="14.25" r="840"/>
-    <row customHeight="1" ht="14.25" r="841"/>
-    <row customHeight="1" ht="14.25" r="842"/>
-    <row customHeight="1" ht="14.25" r="843"/>
-    <row customHeight="1" ht="14.25" r="844"/>
-    <row customHeight="1" ht="14.25" r="845"/>
-    <row customHeight="1" ht="14.25" r="846"/>
-    <row customHeight="1" ht="14.25" r="847"/>
-    <row customHeight="1" ht="14.25" r="848"/>
-    <row customHeight="1" ht="14.25" r="849"/>
-    <row customHeight="1" ht="14.25" r="850"/>
-    <row customHeight="1" ht="14.25" r="851"/>
-    <row customHeight="1" ht="14.25" r="852"/>
-    <row customHeight="1" ht="14.25" r="853"/>
-    <row customHeight="1" ht="14.25" r="854"/>
-    <row customHeight="1" ht="14.25" r="855"/>
-    <row customHeight="1" ht="14.25" r="856"/>
-    <row customHeight="1" ht="14.25" r="857"/>
-    <row customHeight="1" ht="14.25" r="858"/>
-    <row customHeight="1" ht="14.25" r="859"/>
-    <row customHeight="1" ht="14.25" r="860"/>
-    <row customHeight="1" ht="14.25" r="861"/>
-    <row customHeight="1" ht="14.25" r="862"/>
-    <row customHeight="1" ht="14.25" r="863"/>
-    <row customHeight="1" ht="14.25" r="864"/>
-    <row customHeight="1" ht="14.25" r="865"/>
-    <row customHeight="1" ht="14.25" r="866"/>
-    <row customHeight="1" ht="14.25" r="867"/>
-    <row customHeight="1" ht="14.25" r="868"/>
-    <row customHeight="1" ht="14.25" r="869"/>
-    <row customHeight="1" ht="14.25" r="870"/>
-    <row customHeight="1" ht="14.25" r="871"/>
-    <row customHeight="1" ht="14.25" r="872"/>
-    <row customHeight="1" ht="14.25" r="873"/>
-    <row customHeight="1" ht="14.25" r="874"/>
-    <row customHeight="1" ht="14.25" r="875"/>
-    <row customHeight="1" ht="14.25" r="876"/>
-    <row customHeight="1" ht="14.25" r="877"/>
-    <row customHeight="1" ht="14.25" r="878"/>
-    <row customHeight="1" ht="14.25" r="879"/>
-    <row customHeight="1" ht="14.25" r="880"/>
-    <row customHeight="1" ht="14.25" r="881"/>
-    <row customHeight="1" ht="14.25" r="882"/>
-    <row customHeight="1" ht="14.25" r="883"/>
-    <row customHeight="1" ht="14.25" r="884"/>
-    <row customHeight="1" ht="14.25" r="885"/>
-    <row customHeight="1" ht="14.25" r="886"/>
-    <row customHeight="1" ht="14.25" r="887"/>
-    <row customHeight="1" ht="14.25" r="888"/>
-    <row customHeight="1" ht="14.25" r="889"/>
-    <row customHeight="1" ht="14.25" r="890"/>
-    <row customHeight="1" ht="14.25" r="891"/>
-    <row customHeight="1" ht="14.25" r="892"/>
-    <row customHeight="1" ht="14.25" r="893"/>
-    <row customHeight="1" ht="14.25" r="894"/>
-    <row customHeight="1" ht="14.25" r="895"/>
-    <row customHeight="1" ht="14.25" r="896"/>
-    <row customHeight="1" ht="14.25" r="897"/>
-    <row customHeight="1" ht="14.25" r="898"/>
-    <row customHeight="1" ht="14.25" r="899"/>
-    <row customHeight="1" ht="14.25" r="900"/>
-    <row customHeight="1" ht="14.25" r="901"/>
-    <row customHeight="1" ht="14.25" r="902"/>
-    <row customHeight="1" ht="14.25" r="903"/>
-    <row customHeight="1" ht="14.25" r="904"/>
-    <row customHeight="1" ht="14.25" r="905"/>
-    <row customHeight="1" ht="14.25" r="906"/>
-    <row customHeight="1" ht="14.25" r="907"/>
-    <row customHeight="1" ht="14.25" r="908"/>
-    <row customHeight="1" ht="14.25" r="909"/>
-    <row customHeight="1" ht="14.25" r="910"/>
-    <row customHeight="1" ht="14.25" r="911"/>
-    <row customHeight="1" ht="14.25" r="912"/>
-    <row customHeight="1" ht="14.25" r="913"/>
-    <row customHeight="1" ht="14.25" r="914"/>
-    <row customHeight="1" ht="14.25" r="915"/>
-    <row customHeight="1" ht="14.25" r="916"/>
-    <row customHeight="1" ht="14.25" r="917"/>
-    <row customHeight="1" ht="14.25" r="918"/>
-    <row customHeight="1" ht="14.25" r="919"/>
-    <row customHeight="1" ht="14.25" r="920"/>
-    <row customHeight="1" ht="14.25" r="921"/>
-    <row customHeight="1" ht="14.25" r="922"/>
-    <row customHeight="1" ht="14.25" r="923"/>
-    <row customHeight="1" ht="14.25" r="924"/>
-    <row customHeight="1" ht="14.25" r="925"/>
-    <row customHeight="1" ht="14.25" r="926"/>
-    <row customHeight="1" ht="14.25" r="927"/>
-    <row customHeight="1" ht="14.25" r="928"/>
-    <row customHeight="1" ht="14.25" r="929"/>
-    <row customHeight="1" ht="14.25" r="930"/>
-    <row customHeight="1" ht="14.25" r="931"/>
-    <row customHeight="1" ht="14.25" r="932"/>
-    <row customHeight="1" ht="14.25" r="933"/>
-    <row customHeight="1" ht="14.25" r="934"/>
-    <row customHeight="1" ht="14.25" r="935"/>
-    <row customHeight="1" ht="14.25" r="936"/>
-    <row customHeight="1" ht="14.25" r="937"/>
-    <row customHeight="1" ht="14.25" r="938"/>
-    <row customHeight="1" ht="14.25" r="939"/>
-    <row customHeight="1" ht="14.25" r="940"/>
-    <row customHeight="1" ht="14.25" r="941"/>
-    <row customHeight="1" ht="14.25" r="942"/>
-    <row customHeight="1" ht="14.25" r="943"/>
-    <row customHeight="1" ht="14.25" r="944"/>
-    <row customHeight="1" ht="14.25" r="945"/>
-    <row customHeight="1" ht="14.25" r="946"/>
-    <row customHeight="1" ht="14.25" r="947"/>
-    <row customHeight="1" ht="14.25" r="948"/>
-    <row customHeight="1" ht="14.25" r="949"/>
-    <row customHeight="1" ht="14.25" r="950"/>
-    <row customHeight="1" ht="14.25" r="951"/>
-    <row customHeight="1" ht="14.25" r="952"/>
-    <row customHeight="1" ht="14.25" r="953"/>
-    <row customHeight="1" ht="14.25" r="954"/>
-    <row customHeight="1" ht="14.25" r="955"/>
-    <row customHeight="1" ht="14.25" r="956"/>
-    <row customHeight="1" ht="14.25" r="957"/>
-    <row customHeight="1" ht="14.25" r="958"/>
-    <row customHeight="1" ht="14.25" r="959"/>
-    <row customHeight="1" ht="14.25" r="960"/>
-    <row customHeight="1" ht="14.25" r="961"/>
-    <row customHeight="1" ht="14.25" r="962"/>
-    <row customHeight="1" ht="14.25" r="963"/>
-    <row customHeight="1" ht="14.25" r="964"/>
-    <row customHeight="1" ht="14.25" r="965"/>
-    <row customHeight="1" ht="14.25" r="966"/>
-    <row customHeight="1" ht="14.25" r="967"/>
-    <row customHeight="1" ht="14.25" r="968"/>
-    <row customHeight="1" ht="14.25" r="969"/>
-    <row customHeight="1" ht="14.25" r="970"/>
-    <row customHeight="1" ht="14.25" r="971"/>
-    <row customHeight="1" ht="14.25" r="972"/>
-    <row customHeight="1" ht="14.25" r="973"/>
-    <row customHeight="1" ht="14.25" r="974"/>
-    <row customHeight="1" ht="14.25" r="975"/>
-    <row customHeight="1" ht="14.25" r="976"/>
-    <row customHeight="1" ht="14.25" r="977"/>
-    <row customHeight="1" ht="14.25" r="978"/>
-    <row customHeight="1" ht="14.25" r="979"/>
-    <row customHeight="1" ht="14.25" r="980"/>
-    <row customHeight="1" ht="14.25" r="981"/>
-    <row customHeight="1" ht="14.25" r="982"/>
-    <row customHeight="1" ht="14.25" r="983"/>
-    <row customHeight="1" ht="14.25" r="984"/>
-    <row customHeight="1" ht="14.25" r="985"/>
-    <row customHeight="1" ht="14.25" r="986"/>
-    <row customHeight="1" ht="14.25" r="987"/>
-    <row customHeight="1" ht="14.25" r="988"/>
-    <row customHeight="1" ht="14.25" r="989"/>
-    <row customHeight="1" ht="14.25" r="990"/>
-    <row customHeight="1" ht="14.25" r="991"/>
-    <row customHeight="1" ht="14.25" r="992"/>
-    <row customHeight="1" ht="14.25" r="993"/>
-    <row customHeight="1" ht="14.25" r="994"/>
-    <row customHeight="1" ht="14.25" r="995"/>
-    <row customHeight="1" ht="14.25" r="996"/>
-    <row customHeight="1" ht="14.25" r="997"/>
-    <row customHeight="1" ht="14.25" r="998"/>
-    <row customHeight="1" ht="14.25" r="999"/>
-    <row customHeight="1" ht="14.25" r="1000"/>
+    <row r="103" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="104" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="105" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="106" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="107" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="108" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="109" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="110" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="111" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="112" spans="11:19" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4056,58 +4067,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.75" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.75" collapsed="true"/>
-    <col min="8" max="10" customWidth="true" width="7.625" collapsed="true"/>
-    <col min="11" max="13" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.75" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.25" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="18" max="26" customWidth="true" width="7.625" collapsed="true"/>
+    <col min="1" max="1" width="7.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1" collapsed="1"/>
+    <col min="8" max="10" width="7.625" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="12.5" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="26" width="7.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" spans="1:18"/>
-    <row customHeight="1" ht="14.25" r="2" spans="1:18">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:18" ht="14.25" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>54666.37</v>
+      <c r="C2" s="59">
+        <v>16356.44</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="14.25" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="14.25" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" s="17"/>
       <c r="G4" s="63"/>
@@ -4115,7 +4126,7 @@
       <c r="I4" s="65"/>
       <c r="J4" s="64"/>
     </row>
-    <row customHeight="1" ht="14.25" r="5" spans="1:18">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="D5" s="17">
         <v>0</v>
       </c>
@@ -4124,7 +4135,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row customHeight="1" ht="14.25" r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1">
       <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4149,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row customHeight="1" ht="14.25" r="7" spans="1:18">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
@@ -4148,20 +4159,20 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row customHeight="1" ht="14.25" r="8" spans="1:18">
+    <row r="8" spans="1:18" ht="14.25" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="51">
         <f>M22+$O$22</f>
-        <v>631.68960000000004</v>
+        <v>327.12880000000001</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="51">
         <f>$M$31+$O$31</f>
-        <v>660</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -4171,7 +4182,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
     </row>
-    <row customHeight="1" ht="14.25" r="9" spans="1:18">
+    <row r="9" spans="1:18" ht="14.25" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="51"/>
       <c r="D9" s="6"/>
@@ -4181,47 +4192,47 @@
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row customHeight="1" ht="14.25" r="10" spans="1:18">
+    <row r="10" spans="1:18" ht="14.25" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="51">
         <f>$C$2</f>
-        <v>15792.24</v>
+        <v>16356.44</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="51">
         <f>$C$2</f>
-        <v>15792.24</v>
+        <v>16356.44</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
     </row>
-    <row customHeight="1" ht="14.25" r="11" spans="1:18">
+    <row r="11" spans="1:18" ht="14.25" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="51">
         <f>$L$22</f>
-        <v>15792.24</v>
+        <v>16356.44</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="51">
         <f>$L$31</f>
-        <v>16451</v>
+        <v>16691</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
-    <row customHeight="1" ht="14.25" r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="14.25" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -4244,20 +4255,20 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row customHeight="1" ht="14.25" r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="14.25" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="51">
         <f>$P$22</f>
-        <v>15160.550399999998</v>
+        <v>16029.3112</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="51">
         <f>$P$31</f>
-        <v>15791</v>
+        <v>16357</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
@@ -4267,20 +4278,20 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row customHeight="1" ht="14.25" r="14" spans="1:18">
+    <row r="14" spans="1:18" ht="14.25" customHeight="1">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="52">
         <f>$Q$22</f>
-        <v>15792.24</v>
+        <v>16356.44</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="52">
         <f>$Q$31</f>
-        <v>16451</v>
+        <v>16691</v>
       </c>
       <c r="F14" t="s">
         <v>57</v>
@@ -4290,8 +4301,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row customHeight="1" ht="14.25" r="15" spans="1:18"/>
-    <row customHeight="1" ht="14.25" r="16" spans="1:18">
+    <row r="15" spans="1:18" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:18" ht="14.25" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -4310,7 +4321,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="23"/>
     </row>
-    <row customHeight="1" ht="14.25" r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="14.25" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>35</v>
@@ -4333,7 +4344,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="14.25" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4352,7 +4363,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="14.25" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="8" t="s">
         <v>12</v>
@@ -4383,7 +4394,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="14.25" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -4421,7 +4432,7 @@
       </c>
       <c r="R20" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="14.25" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="12" t="s">
         <v>36</v>
@@ -4437,15 +4448,15 @@
       </c>
       <c r="K21" s="30">
         <f>IF((C$2*$C$18&gt;D$22),D$22,C$2)</f>
-        <v>15792.24</v>
+        <v>16356.44</v>
       </c>
       <c r="L21" s="30">
         <f>K21</f>
-        <v>15792.24</v>
+        <v>16356.44</v>
       </c>
       <c r="M21" s="30">
         <f>$L$21*$E$23</f>
-        <v>315.84480000000002</v>
+        <v>327.12880000000001</v>
       </c>
       <c r="N21" s="30">
         <f>IF($C$4=1,$L$21*$F$19,0)</f>
@@ -4453,19 +4464,19 @@
       </c>
       <c r="O21" s="30">
         <f>IF($C$3=1,0,M21*$F$23)</f>
-        <v>315.84480000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" s="30">
         <f>L21-M21-O21+N21</f>
-        <v>15160.550399999998</v>
+        <v>16029.3112</v>
       </c>
       <c r="Q21" s="30">
         <f>P21+M21+O21</f>
-        <v>15792.24</v>
+        <v>16356.44</v>
       </c>
       <c r="R21" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="22" spans="1:18">
+    <row r="22" spans="1:18" ht="14.25" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="11"/>
       <c r="C22" s="13" t="s">
@@ -4486,36 +4497,36 @@
         <v>31</v>
       </c>
       <c r="K22" s="16">
-        <f ref="K22:Q22" si="0" t="shared">SUM(K21)</f>
-        <v>15792.24</v>
+        <f t="shared" ref="K22:Q22" si="0">SUM(K21)</f>
+        <v>16356.44</v>
       </c>
       <c r="L22" s="16">
-        <f si="0" t="shared"/>
-        <v>15792.24</v>
+        <f t="shared" si="0"/>
+        <v>16356.44</v>
       </c>
       <c r="M22" s="16">
-        <f si="0" t="shared"/>
-        <v>315.84480000000002</v>
+        <f t="shared" si="0"/>
+        <v>327.12880000000001</v>
       </c>
       <c r="N22" s="16">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O22" s="16">
-        <f si="0" t="shared"/>
-        <v>315.84480000000002</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f si="0" t="shared"/>
-        <v>15160.550399999998</v>
+        <f t="shared" si="0"/>
+        <v>16029.3112</v>
       </c>
       <c r="Q22" s="16">
-        <f si="0" t="shared"/>
-        <v>15792.24</v>
+        <f t="shared" si="0"/>
+        <v>16356.44</v>
       </c>
       <c r="R22" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="14.25" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="15" t="s">
         <v>27</v>
@@ -4548,7 +4559,7 @@
       <c r="Q23" s="32"/>
       <c r="R23" s="33"/>
     </row>
-    <row customHeight="1" ht="14.25" r="24" spans="1:18">
+    <row r="24" spans="1:18" ht="14.25" customHeight="1">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4557,7 +4568,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
     </row>
-    <row customHeight="1" ht="14.25" r="25" spans="1:18">
+    <row r="25" spans="1:18" ht="14.25" customHeight="1">
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
@@ -4569,7 +4580,7 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="23"/>
     </row>
-    <row customHeight="1" ht="14.25" r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="14.25" customHeight="1">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -4590,7 +4601,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="27" spans="1:18">
+    <row r="27" spans="1:18" ht="14.25" customHeight="1">
       <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>37</v>
@@ -4611,7 +4622,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="28" spans="1:18">
+    <row r="28" spans="1:18" ht="14.25" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4632,7 +4643,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="29" spans="1:18">
+    <row r="29" spans="1:18" ht="14.25" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="12" t="s">
         <v>36</v>
@@ -4667,7 +4678,7 @@
       </c>
       <c r="R29" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="30" spans="1:18">
+    <row r="30" spans="1:18" ht="14.25" customHeight="1">
       <c r="A30" s="19"/>
       <c r="B30" s="11"/>
       <c r="C30" s="13" t="s">
@@ -4689,15 +4700,15 @@
       </c>
       <c r="K30" s="30">
         <f>IF((C$2*$C$19&gt;D$23),$L$30*(100%+(IF($C$4=1,$F$19,0%))-IF($C$3=1,$E$23,$F$23)),$C$2*$C$19)</f>
-        <v>15792.24</v>
+        <v>16356.44</v>
       </c>
       <c r="L30" s="30">
         <f>CEILING(IF(((C$2*$C$19)&gt;D$23),D$23,IF($C$3=1,($K$30*100%)/(100%-$E$23),($K$30*100%)/(100%-($E$23*(100%+$F$23))))),$C$20)</f>
-        <v>16451</v>
+        <v>16691</v>
       </c>
       <c r="M30" s="30">
         <f>CEILING($L$30*$E$23,$C$20)</f>
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N30" s="30">
         <f>CEILING(IF($C$4=1,$L$30*$F$19,0),$C$20)</f>
@@ -4705,19 +4716,19 @@
       </c>
       <c r="O30" s="30">
         <f>CEILING(IF($C$3=1,0,M30*$F$23),$C$20)</f>
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="P30" s="30">
         <f>L30-M30-O30+N30</f>
-        <v>15791</v>
+        <v>16357</v>
       </c>
       <c r="Q30" s="30">
         <f>P30+M30+O30</f>
-        <v>16451</v>
+        <v>16691</v>
       </c>
       <c r="R30" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="14.25" customHeight="1">
       <c r="A31" s="19"/>
       <c r="B31" s="15" t="s">
         <v>27</v>
@@ -4744,36 +4755,36 @@
         <v>31</v>
       </c>
       <c r="K31" s="16">
-        <f ref="K31:Q31" si="1" t="shared">SUM(K30)</f>
-        <v>15792.24</v>
+        <f t="shared" ref="K31:Q31" si="1">SUM(K30)</f>
+        <v>16356.44</v>
       </c>
       <c r="L31" s="16">
-        <f si="1" t="shared"/>
-        <v>16451</v>
+        <f t="shared" si="1"/>
+        <v>16691</v>
       </c>
       <c r="M31" s="16">
-        <f si="1" t="shared"/>
-        <v>330</v>
+        <f t="shared" si="1"/>
+        <v>334</v>
       </c>
       <c r="N31" s="16">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O31" s="16">
-        <f si="1" t="shared"/>
-        <v>330</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P31" s="16">
-        <f si="1" t="shared"/>
-        <v>15791</v>
+        <f t="shared" si="1"/>
+        <v>16357</v>
       </c>
       <c r="Q31" s="16">
-        <f si="1" t="shared"/>
-        <v>16451</v>
+        <f t="shared" si="1"/>
+        <v>16691</v>
       </c>
       <c r="R31" s="20"/>
     </row>
-    <row customHeight="1" ht="14.25" r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="14.25" customHeight="1">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4792,977 +4803,977 @@
       <c r="Q32" s="32"/>
       <c r="R32" s="33"/>
     </row>
-    <row customHeight="1" ht="14.25" r="33" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="34" spans="11:12">
+    <row r="33" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="34" spans="11:12" ht="14.25" customHeight="1">
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row customHeight="1" ht="14.25" r="35" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="36" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="37" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="38" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="39" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="40" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="41" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="42" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="43" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="44" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="45" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="46" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="47" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="48" spans="11:12"/>
-    <row customHeight="1" ht="14.25" r="49"/>
-    <row customHeight="1" ht="14.25" r="50"/>
-    <row customHeight="1" ht="14.25" r="51"/>
-    <row customHeight="1" ht="14.25" r="52"/>
-    <row customHeight="1" ht="14.25" r="53"/>
-    <row customHeight="1" ht="14.25" r="54"/>
-    <row customHeight="1" ht="14.25" r="55"/>
-    <row customHeight="1" ht="14.25" r="56"/>
-    <row customHeight="1" ht="14.25" r="57"/>
-    <row customHeight="1" ht="14.25" r="58"/>
-    <row customHeight="1" ht="14.25" r="59"/>
-    <row customHeight="1" ht="14.25" r="60"/>
-    <row customHeight="1" ht="14.25" r="61"/>
-    <row customHeight="1" ht="14.25" r="62"/>
-    <row customHeight="1" ht="14.25" r="63"/>
-    <row customHeight="1" ht="14.25" r="64"/>
-    <row customHeight="1" ht="14.25" r="65"/>
-    <row customHeight="1" ht="14.25" r="66"/>
-    <row customHeight="1" ht="14.25" r="67"/>
-    <row customHeight="1" ht="14.25" r="68"/>
-    <row customHeight="1" ht="14.25" r="69"/>
-    <row customHeight="1" ht="14.25" r="70"/>
-    <row customHeight="1" ht="14.25" r="71"/>
-    <row customHeight="1" ht="14.25" r="72"/>
-    <row customHeight="1" ht="14.25" r="73"/>
-    <row customHeight="1" ht="14.25" r="74"/>
-    <row customHeight="1" ht="14.25" r="75"/>
-    <row customHeight="1" ht="14.25" r="76"/>
-    <row customHeight="1" ht="14.25" r="77"/>
-    <row customHeight="1" ht="14.25" r="78"/>
-    <row customHeight="1" ht="14.25" r="79"/>
-    <row customHeight="1" ht="14.25" r="80"/>
-    <row customHeight="1" ht="14.25" r="81"/>
-    <row customHeight="1" ht="14.25" r="82"/>
-    <row customHeight="1" ht="14.25" r="83"/>
-    <row customHeight="1" ht="14.25" r="84"/>
-    <row customHeight="1" ht="14.25" r="85"/>
-    <row customHeight="1" ht="14.25" r="86"/>
-    <row customHeight="1" ht="14.25" r="87"/>
-    <row customHeight="1" ht="14.25" r="88"/>
-    <row customHeight="1" ht="14.25" r="89"/>
-    <row customHeight="1" ht="14.25" r="90"/>
-    <row customHeight="1" ht="14.25" r="91"/>
-    <row customHeight="1" ht="14.25" r="92"/>
-    <row customHeight="1" ht="14.25" r="93"/>
-    <row customHeight="1" ht="14.25" r="94"/>
-    <row customHeight="1" ht="14.25" r="95"/>
-    <row customHeight="1" ht="14.25" r="96"/>
-    <row customHeight="1" ht="14.25" r="97"/>
-    <row customHeight="1" ht="14.25" r="98"/>
-    <row customHeight="1" ht="14.25" r="99"/>
-    <row customHeight="1" ht="14.25" r="100"/>
-    <row customHeight="1" ht="14.25" r="101"/>
-    <row customHeight="1" ht="14.25" r="102"/>
-    <row customHeight="1" ht="14.25" r="103"/>
-    <row customHeight="1" ht="14.25" r="104"/>
-    <row customHeight="1" ht="14.25" r="105"/>
-    <row customHeight="1" ht="14.25" r="106"/>
-    <row customHeight="1" ht="14.25" r="107"/>
-    <row customHeight="1" ht="14.25" r="108"/>
-    <row customHeight="1" ht="14.25" r="109"/>
-    <row customHeight="1" ht="14.25" r="110"/>
-    <row customHeight="1" ht="14.25" r="111"/>
-    <row customHeight="1" ht="14.25" r="112"/>
-    <row customHeight="1" ht="14.25" r="113"/>
-    <row customHeight="1" ht="14.25" r="114"/>
-    <row customHeight="1" ht="14.25" r="115"/>
-    <row customHeight="1" ht="14.25" r="116"/>
-    <row customHeight="1" ht="14.25" r="117"/>
-    <row customHeight="1" ht="14.25" r="118"/>
-    <row customHeight="1" ht="14.25" r="119"/>
-    <row customHeight="1" ht="14.25" r="120"/>
-    <row customHeight="1" ht="14.25" r="121"/>
-    <row customHeight="1" ht="14.25" r="122"/>
-    <row customHeight="1" ht="14.25" r="123"/>
-    <row customHeight="1" ht="14.25" r="124"/>
-    <row customHeight="1" ht="14.25" r="125"/>
-    <row customHeight="1" ht="14.25" r="126"/>
-    <row customHeight="1" ht="14.25" r="127"/>
-    <row customHeight="1" ht="14.25" r="128"/>
-    <row customHeight="1" ht="14.25" r="129"/>
-    <row customHeight="1" ht="14.25" r="130"/>
-    <row customHeight="1" ht="14.25" r="131"/>
-    <row customHeight="1" ht="14.25" r="132"/>
-    <row customHeight="1" ht="14.25" r="133"/>
-    <row customHeight="1" ht="14.25" r="134"/>
-    <row customHeight="1" ht="14.25" r="135"/>
-    <row customHeight="1" ht="14.25" r="136"/>
-    <row customHeight="1" ht="14.25" r="137"/>
-    <row customHeight="1" ht="14.25" r="138"/>
-    <row customHeight="1" ht="14.25" r="139"/>
-    <row customHeight="1" ht="14.25" r="140"/>
-    <row customHeight="1" ht="14.25" r="141"/>
-    <row customHeight="1" ht="14.25" r="142"/>
-    <row customHeight="1" ht="14.25" r="143"/>
-    <row customHeight="1" ht="14.25" r="144"/>
-    <row customHeight="1" ht="14.25" r="145"/>
-    <row customHeight="1" ht="14.25" r="146"/>
-    <row customHeight="1" ht="14.25" r="147"/>
-    <row customHeight="1" ht="14.25" r="148"/>
-    <row customHeight="1" ht="14.25" r="149"/>
-    <row customHeight="1" ht="14.25" r="150"/>
-    <row customHeight="1" ht="14.25" r="151"/>
-    <row customHeight="1" ht="14.25" r="152"/>
-    <row customHeight="1" ht="14.25" r="153"/>
-    <row customHeight="1" ht="14.25" r="154"/>
-    <row customHeight="1" ht="14.25" r="155"/>
-    <row customHeight="1" ht="14.25" r="156"/>
-    <row customHeight="1" ht="14.25" r="157"/>
-    <row customHeight="1" ht="14.25" r="158"/>
-    <row customHeight="1" ht="14.25" r="159"/>
-    <row customHeight="1" ht="14.25" r="160"/>
-    <row customHeight="1" ht="14.25" r="161"/>
-    <row customHeight="1" ht="14.25" r="162"/>
-    <row customHeight="1" ht="14.25" r="163"/>
-    <row customHeight="1" ht="14.25" r="164"/>
-    <row customHeight="1" ht="14.25" r="165"/>
-    <row customHeight="1" ht="14.25" r="166"/>
-    <row customHeight="1" ht="14.25" r="167"/>
-    <row customHeight="1" ht="14.25" r="168"/>
-    <row customHeight="1" ht="14.25" r="169"/>
-    <row customHeight="1" ht="14.25" r="170"/>
-    <row customHeight="1" ht="14.25" r="171"/>
-    <row customHeight="1" ht="14.25" r="172"/>
-    <row customHeight="1" ht="14.25" r="173"/>
-    <row customHeight="1" ht="14.25" r="174"/>
-    <row customHeight="1" ht="14.25" r="175"/>
-    <row customHeight="1" ht="14.25" r="176"/>
-    <row customHeight="1" ht="14.25" r="177"/>
-    <row customHeight="1" ht="14.25" r="178"/>
-    <row customHeight="1" ht="14.25" r="179"/>
-    <row customHeight="1" ht="14.25" r="180"/>
-    <row customHeight="1" ht="14.25" r="181"/>
-    <row customHeight="1" ht="14.25" r="182"/>
-    <row customHeight="1" ht="14.25" r="183"/>
-    <row customHeight="1" ht="14.25" r="184"/>
-    <row customHeight="1" ht="14.25" r="185"/>
-    <row customHeight="1" ht="14.25" r="186"/>
-    <row customHeight="1" ht="14.25" r="187"/>
-    <row customHeight="1" ht="14.25" r="188"/>
-    <row customHeight="1" ht="14.25" r="189"/>
-    <row customHeight="1" ht="14.25" r="190"/>
-    <row customHeight="1" ht="14.25" r="191"/>
-    <row customHeight="1" ht="14.25" r="192"/>
-    <row customHeight="1" ht="14.25" r="193"/>
-    <row customHeight="1" ht="14.25" r="194"/>
-    <row customHeight="1" ht="14.25" r="195"/>
-    <row customHeight="1" ht="14.25" r="196"/>
-    <row customHeight="1" ht="14.25" r="197"/>
-    <row customHeight="1" ht="14.25" r="198"/>
-    <row customHeight="1" ht="14.25" r="199"/>
-    <row customHeight="1" ht="14.25" r="200"/>
-    <row customHeight="1" ht="14.25" r="201"/>
-    <row customHeight="1" ht="14.25" r="202"/>
-    <row customHeight="1" ht="14.25" r="203"/>
-    <row customHeight="1" ht="14.25" r="204"/>
-    <row customHeight="1" ht="14.25" r="205"/>
-    <row customHeight="1" ht="14.25" r="206"/>
-    <row customHeight="1" ht="14.25" r="207"/>
-    <row customHeight="1" ht="14.25" r="208"/>
-    <row customHeight="1" ht="14.25" r="209"/>
-    <row customHeight="1" ht="14.25" r="210"/>
-    <row customHeight="1" ht="14.25" r="211"/>
-    <row customHeight="1" ht="14.25" r="212"/>
-    <row customHeight="1" ht="14.25" r="213"/>
-    <row customHeight="1" ht="14.25" r="214"/>
-    <row customHeight="1" ht="14.25" r="215"/>
-    <row customHeight="1" ht="14.25" r="216"/>
-    <row customHeight="1" ht="14.25" r="217"/>
-    <row customHeight="1" ht="14.25" r="218"/>
-    <row customHeight="1" ht="14.25" r="219"/>
-    <row customHeight="1" ht="14.25" r="220"/>
-    <row customHeight="1" ht="14.25" r="221"/>
-    <row customHeight="1" ht="14.25" r="222"/>
-    <row customHeight="1" ht="14.25" r="223"/>
-    <row customHeight="1" ht="14.25" r="224"/>
-    <row customHeight="1" ht="14.25" r="225"/>
-    <row customHeight="1" ht="14.25" r="226"/>
-    <row customHeight="1" ht="14.25" r="227"/>
-    <row customHeight="1" ht="14.25" r="228"/>
-    <row customHeight="1" ht="14.25" r="229"/>
-    <row customHeight="1" ht="14.25" r="230"/>
-    <row customHeight="1" ht="14.25" r="231"/>
-    <row customHeight="1" ht="14.25" r="232"/>
-    <row customHeight="1" ht="14.25" r="233"/>
-    <row customHeight="1" ht="14.25" r="234"/>
-    <row customHeight="1" ht="14.25" r="235"/>
-    <row customHeight="1" ht="14.25" r="236"/>
-    <row customHeight="1" ht="14.25" r="237"/>
-    <row customHeight="1" ht="14.25" r="238"/>
-    <row customHeight="1" ht="14.25" r="239"/>
-    <row customHeight="1" ht="14.25" r="240"/>
-    <row customHeight="1" ht="14.25" r="241"/>
-    <row customHeight="1" ht="14.25" r="242"/>
-    <row customHeight="1" ht="14.25" r="243"/>
-    <row customHeight="1" ht="14.25" r="244"/>
-    <row customHeight="1" ht="14.25" r="245"/>
-    <row customHeight="1" ht="14.25" r="246"/>
-    <row customHeight="1" ht="14.25" r="247"/>
-    <row customHeight="1" ht="14.25" r="248"/>
-    <row customHeight="1" ht="14.25" r="249"/>
-    <row customHeight="1" ht="14.25" r="250"/>
-    <row customHeight="1" ht="14.25" r="251"/>
-    <row customHeight="1" ht="14.25" r="252"/>
-    <row customHeight="1" ht="14.25" r="253"/>
-    <row customHeight="1" ht="14.25" r="254"/>
-    <row customHeight="1" ht="14.25" r="255"/>
-    <row customHeight="1" ht="14.25" r="256"/>
-    <row customHeight="1" ht="14.25" r="257"/>
-    <row customHeight="1" ht="14.25" r="258"/>
-    <row customHeight="1" ht="14.25" r="259"/>
-    <row customHeight="1" ht="14.25" r="260"/>
-    <row customHeight="1" ht="14.25" r="261"/>
-    <row customHeight="1" ht="14.25" r="262"/>
-    <row customHeight="1" ht="14.25" r="263"/>
-    <row customHeight="1" ht="14.25" r="264"/>
-    <row customHeight="1" ht="14.25" r="265"/>
-    <row customHeight="1" ht="14.25" r="266"/>
-    <row customHeight="1" ht="14.25" r="267"/>
-    <row customHeight="1" ht="14.25" r="268"/>
-    <row customHeight="1" ht="14.25" r="269"/>
-    <row customHeight="1" ht="14.25" r="270"/>
-    <row customHeight="1" ht="14.25" r="271"/>
-    <row customHeight="1" ht="14.25" r="272"/>
-    <row customHeight="1" ht="14.25" r="273"/>
-    <row customHeight="1" ht="14.25" r="274"/>
-    <row customHeight="1" ht="14.25" r="275"/>
-    <row customHeight="1" ht="14.25" r="276"/>
-    <row customHeight="1" ht="14.25" r="277"/>
-    <row customHeight="1" ht="14.25" r="278"/>
-    <row customHeight="1" ht="14.25" r="279"/>
-    <row customHeight="1" ht="14.25" r="280"/>
-    <row customHeight="1" ht="14.25" r="281"/>
-    <row customHeight="1" ht="14.25" r="282"/>
-    <row customHeight="1" ht="14.25" r="283"/>
-    <row customHeight="1" ht="14.25" r="284"/>
-    <row customHeight="1" ht="14.25" r="285"/>
-    <row customHeight="1" ht="14.25" r="286"/>
-    <row customHeight="1" ht="14.25" r="287"/>
-    <row customHeight="1" ht="14.25" r="288"/>
-    <row customHeight="1" ht="14.25" r="289"/>
-    <row customHeight="1" ht="14.25" r="290"/>
-    <row customHeight="1" ht="14.25" r="291"/>
-    <row customHeight="1" ht="14.25" r="292"/>
-    <row customHeight="1" ht="14.25" r="293"/>
-    <row customHeight="1" ht="14.25" r="294"/>
-    <row customHeight="1" ht="14.25" r="295"/>
-    <row customHeight="1" ht="14.25" r="296"/>
-    <row customHeight="1" ht="14.25" r="297"/>
-    <row customHeight="1" ht="14.25" r="298"/>
-    <row customHeight="1" ht="14.25" r="299"/>
-    <row customHeight="1" ht="14.25" r="300"/>
-    <row customHeight="1" ht="14.25" r="301"/>
-    <row customHeight="1" ht="14.25" r="302"/>
-    <row customHeight="1" ht="14.25" r="303"/>
-    <row customHeight="1" ht="14.25" r="304"/>
-    <row customHeight="1" ht="14.25" r="305"/>
-    <row customHeight="1" ht="14.25" r="306"/>
-    <row customHeight="1" ht="14.25" r="307"/>
-    <row customHeight="1" ht="14.25" r="308"/>
-    <row customHeight="1" ht="14.25" r="309"/>
-    <row customHeight="1" ht="14.25" r="310"/>
-    <row customHeight="1" ht="14.25" r="311"/>
-    <row customHeight="1" ht="14.25" r="312"/>
-    <row customHeight="1" ht="14.25" r="313"/>
-    <row customHeight="1" ht="14.25" r="314"/>
-    <row customHeight="1" ht="14.25" r="315"/>
-    <row customHeight="1" ht="14.25" r="316"/>
-    <row customHeight="1" ht="14.25" r="317"/>
-    <row customHeight="1" ht="14.25" r="318"/>
-    <row customHeight="1" ht="14.25" r="319"/>
-    <row customHeight="1" ht="14.25" r="320"/>
-    <row customHeight="1" ht="14.25" r="321"/>
-    <row customHeight="1" ht="14.25" r="322"/>
-    <row customHeight="1" ht="14.25" r="323"/>
-    <row customHeight="1" ht="14.25" r="324"/>
-    <row customHeight="1" ht="14.25" r="325"/>
-    <row customHeight="1" ht="14.25" r="326"/>
-    <row customHeight="1" ht="14.25" r="327"/>
-    <row customHeight="1" ht="14.25" r="328"/>
-    <row customHeight="1" ht="14.25" r="329"/>
-    <row customHeight="1" ht="14.25" r="330"/>
-    <row customHeight="1" ht="14.25" r="331"/>
-    <row customHeight="1" ht="14.25" r="332"/>
-    <row customHeight="1" ht="14.25" r="333"/>
-    <row customHeight="1" ht="14.25" r="334"/>
-    <row customHeight="1" ht="14.25" r="335"/>
-    <row customHeight="1" ht="14.25" r="336"/>
-    <row customHeight="1" ht="14.25" r="337"/>
-    <row customHeight="1" ht="14.25" r="338"/>
-    <row customHeight="1" ht="14.25" r="339"/>
-    <row customHeight="1" ht="14.25" r="340"/>
-    <row customHeight="1" ht="14.25" r="341"/>
-    <row customHeight="1" ht="14.25" r="342"/>
-    <row customHeight="1" ht="14.25" r="343"/>
-    <row customHeight="1" ht="14.25" r="344"/>
-    <row customHeight="1" ht="14.25" r="345"/>
-    <row customHeight="1" ht="14.25" r="346"/>
-    <row customHeight="1" ht="14.25" r="347"/>
-    <row customHeight="1" ht="14.25" r="348"/>
-    <row customHeight="1" ht="14.25" r="349"/>
-    <row customHeight="1" ht="14.25" r="350"/>
-    <row customHeight="1" ht="14.25" r="351"/>
-    <row customHeight="1" ht="14.25" r="352"/>
-    <row customHeight="1" ht="14.25" r="353"/>
-    <row customHeight="1" ht="14.25" r="354"/>
-    <row customHeight="1" ht="14.25" r="355"/>
-    <row customHeight="1" ht="14.25" r="356"/>
-    <row customHeight="1" ht="14.25" r="357"/>
-    <row customHeight="1" ht="14.25" r="358"/>
-    <row customHeight="1" ht="14.25" r="359"/>
-    <row customHeight="1" ht="14.25" r="360"/>
-    <row customHeight="1" ht="14.25" r="361"/>
-    <row customHeight="1" ht="14.25" r="362"/>
-    <row customHeight="1" ht="14.25" r="363"/>
-    <row customHeight="1" ht="14.25" r="364"/>
-    <row customHeight="1" ht="14.25" r="365"/>
-    <row customHeight="1" ht="14.25" r="366"/>
-    <row customHeight="1" ht="14.25" r="367"/>
-    <row customHeight="1" ht="14.25" r="368"/>
-    <row customHeight="1" ht="14.25" r="369"/>
-    <row customHeight="1" ht="14.25" r="370"/>
-    <row customHeight="1" ht="14.25" r="371"/>
-    <row customHeight="1" ht="14.25" r="372"/>
-    <row customHeight="1" ht="14.25" r="373"/>
-    <row customHeight="1" ht="14.25" r="374"/>
-    <row customHeight="1" ht="14.25" r="375"/>
-    <row customHeight="1" ht="14.25" r="376"/>
-    <row customHeight="1" ht="14.25" r="377"/>
-    <row customHeight="1" ht="14.25" r="378"/>
-    <row customHeight="1" ht="14.25" r="379"/>
-    <row customHeight="1" ht="14.25" r="380"/>
-    <row customHeight="1" ht="14.25" r="381"/>
-    <row customHeight="1" ht="14.25" r="382"/>
-    <row customHeight="1" ht="14.25" r="383"/>
-    <row customHeight="1" ht="14.25" r="384"/>
-    <row customHeight="1" ht="14.25" r="385"/>
-    <row customHeight="1" ht="14.25" r="386"/>
-    <row customHeight="1" ht="14.25" r="387"/>
-    <row customHeight="1" ht="14.25" r="388"/>
-    <row customHeight="1" ht="14.25" r="389"/>
-    <row customHeight="1" ht="14.25" r="390"/>
-    <row customHeight="1" ht="14.25" r="391"/>
-    <row customHeight="1" ht="14.25" r="392"/>
-    <row customHeight="1" ht="14.25" r="393"/>
-    <row customHeight="1" ht="14.25" r="394"/>
-    <row customHeight="1" ht="14.25" r="395"/>
-    <row customHeight="1" ht="14.25" r="396"/>
-    <row customHeight="1" ht="14.25" r="397"/>
-    <row customHeight="1" ht="14.25" r="398"/>
-    <row customHeight="1" ht="14.25" r="399"/>
-    <row customHeight="1" ht="14.25" r="400"/>
-    <row customHeight="1" ht="14.25" r="401"/>
-    <row customHeight="1" ht="14.25" r="402"/>
-    <row customHeight="1" ht="14.25" r="403"/>
-    <row customHeight="1" ht="14.25" r="404"/>
-    <row customHeight="1" ht="14.25" r="405"/>
-    <row customHeight="1" ht="14.25" r="406"/>
-    <row customHeight="1" ht="14.25" r="407"/>
-    <row customHeight="1" ht="14.25" r="408"/>
-    <row customHeight="1" ht="14.25" r="409"/>
-    <row customHeight="1" ht="14.25" r="410"/>
-    <row customHeight="1" ht="14.25" r="411"/>
-    <row customHeight="1" ht="14.25" r="412"/>
-    <row customHeight="1" ht="14.25" r="413"/>
-    <row customHeight="1" ht="14.25" r="414"/>
-    <row customHeight="1" ht="14.25" r="415"/>
-    <row customHeight="1" ht="14.25" r="416"/>
-    <row customHeight="1" ht="14.25" r="417"/>
-    <row customHeight="1" ht="14.25" r="418"/>
-    <row customHeight="1" ht="14.25" r="419"/>
-    <row customHeight="1" ht="14.25" r="420"/>
-    <row customHeight="1" ht="14.25" r="421"/>
-    <row customHeight="1" ht="14.25" r="422"/>
-    <row customHeight="1" ht="14.25" r="423"/>
-    <row customHeight="1" ht="14.25" r="424"/>
-    <row customHeight="1" ht="14.25" r="425"/>
-    <row customHeight="1" ht="14.25" r="426"/>
-    <row customHeight="1" ht="14.25" r="427"/>
-    <row customHeight="1" ht="14.25" r="428"/>
-    <row customHeight="1" ht="14.25" r="429"/>
-    <row customHeight="1" ht="14.25" r="430"/>
-    <row customHeight="1" ht="14.25" r="431"/>
-    <row customHeight="1" ht="14.25" r="432"/>
-    <row customHeight="1" ht="14.25" r="433"/>
-    <row customHeight="1" ht="14.25" r="434"/>
-    <row customHeight="1" ht="14.25" r="435"/>
-    <row customHeight="1" ht="14.25" r="436"/>
-    <row customHeight="1" ht="14.25" r="437"/>
-    <row customHeight="1" ht="14.25" r="438"/>
-    <row customHeight="1" ht="14.25" r="439"/>
-    <row customHeight="1" ht="14.25" r="440"/>
-    <row customHeight="1" ht="14.25" r="441"/>
-    <row customHeight="1" ht="14.25" r="442"/>
-    <row customHeight="1" ht="14.25" r="443"/>
-    <row customHeight="1" ht="14.25" r="444"/>
-    <row customHeight="1" ht="14.25" r="445"/>
-    <row customHeight="1" ht="14.25" r="446"/>
-    <row customHeight="1" ht="14.25" r="447"/>
-    <row customHeight="1" ht="14.25" r="448"/>
-    <row customHeight="1" ht="14.25" r="449"/>
-    <row customHeight="1" ht="14.25" r="450"/>
-    <row customHeight="1" ht="14.25" r="451"/>
-    <row customHeight="1" ht="14.25" r="452"/>
-    <row customHeight="1" ht="14.25" r="453"/>
-    <row customHeight="1" ht="14.25" r="454"/>
-    <row customHeight="1" ht="14.25" r="455"/>
-    <row customHeight="1" ht="14.25" r="456"/>
-    <row customHeight="1" ht="14.25" r="457"/>
-    <row customHeight="1" ht="14.25" r="458"/>
-    <row customHeight="1" ht="14.25" r="459"/>
-    <row customHeight="1" ht="14.25" r="460"/>
-    <row customHeight="1" ht="14.25" r="461"/>
-    <row customHeight="1" ht="14.25" r="462"/>
-    <row customHeight="1" ht="14.25" r="463"/>
-    <row customHeight="1" ht="14.25" r="464"/>
-    <row customHeight="1" ht="14.25" r="465"/>
-    <row customHeight="1" ht="14.25" r="466"/>
-    <row customHeight="1" ht="14.25" r="467"/>
-    <row customHeight="1" ht="14.25" r="468"/>
-    <row customHeight="1" ht="14.25" r="469"/>
-    <row customHeight="1" ht="14.25" r="470"/>
-    <row customHeight="1" ht="14.25" r="471"/>
-    <row customHeight="1" ht="14.25" r="472"/>
-    <row customHeight="1" ht="14.25" r="473"/>
-    <row customHeight="1" ht="14.25" r="474"/>
-    <row customHeight="1" ht="14.25" r="475"/>
-    <row customHeight="1" ht="14.25" r="476"/>
-    <row customHeight="1" ht="14.25" r="477"/>
-    <row customHeight="1" ht="14.25" r="478"/>
-    <row customHeight="1" ht="14.25" r="479"/>
-    <row customHeight="1" ht="14.25" r="480"/>
-    <row customHeight="1" ht="14.25" r="481"/>
-    <row customHeight="1" ht="14.25" r="482"/>
-    <row customHeight="1" ht="14.25" r="483"/>
-    <row customHeight="1" ht="14.25" r="484"/>
-    <row customHeight="1" ht="14.25" r="485"/>
-    <row customHeight="1" ht="14.25" r="486"/>
-    <row customHeight="1" ht="14.25" r="487"/>
-    <row customHeight="1" ht="14.25" r="488"/>
-    <row customHeight="1" ht="14.25" r="489"/>
-    <row customHeight="1" ht="14.25" r="490"/>
-    <row customHeight="1" ht="14.25" r="491"/>
-    <row customHeight="1" ht="14.25" r="492"/>
-    <row customHeight="1" ht="14.25" r="493"/>
-    <row customHeight="1" ht="14.25" r="494"/>
-    <row customHeight="1" ht="14.25" r="495"/>
-    <row customHeight="1" ht="14.25" r="496"/>
-    <row customHeight="1" ht="14.25" r="497"/>
-    <row customHeight="1" ht="14.25" r="498"/>
-    <row customHeight="1" ht="14.25" r="499"/>
-    <row customHeight="1" ht="14.25" r="500"/>
-    <row customHeight="1" ht="14.25" r="501"/>
-    <row customHeight="1" ht="14.25" r="502"/>
-    <row customHeight="1" ht="14.25" r="503"/>
-    <row customHeight="1" ht="14.25" r="504"/>
-    <row customHeight="1" ht="14.25" r="505"/>
-    <row customHeight="1" ht="14.25" r="506"/>
-    <row customHeight="1" ht="14.25" r="507"/>
-    <row customHeight="1" ht="14.25" r="508"/>
-    <row customHeight="1" ht="14.25" r="509"/>
-    <row customHeight="1" ht="14.25" r="510"/>
-    <row customHeight="1" ht="14.25" r="511"/>
-    <row customHeight="1" ht="14.25" r="512"/>
-    <row customHeight="1" ht="14.25" r="513"/>
-    <row customHeight="1" ht="14.25" r="514"/>
-    <row customHeight="1" ht="14.25" r="515"/>
-    <row customHeight="1" ht="14.25" r="516"/>
-    <row customHeight="1" ht="14.25" r="517"/>
-    <row customHeight="1" ht="14.25" r="518"/>
-    <row customHeight="1" ht="14.25" r="519"/>
-    <row customHeight="1" ht="14.25" r="520"/>
-    <row customHeight="1" ht="14.25" r="521"/>
-    <row customHeight="1" ht="14.25" r="522"/>
-    <row customHeight="1" ht="14.25" r="523"/>
-    <row customHeight="1" ht="14.25" r="524"/>
-    <row customHeight="1" ht="14.25" r="525"/>
-    <row customHeight="1" ht="14.25" r="526"/>
-    <row customHeight="1" ht="14.25" r="527"/>
-    <row customHeight="1" ht="14.25" r="528"/>
-    <row customHeight="1" ht="14.25" r="529"/>
-    <row customHeight="1" ht="14.25" r="530"/>
-    <row customHeight="1" ht="14.25" r="531"/>
-    <row customHeight="1" ht="14.25" r="532"/>
-    <row customHeight="1" ht="14.25" r="533"/>
-    <row customHeight="1" ht="14.25" r="534"/>
-    <row customHeight="1" ht="14.25" r="535"/>
-    <row customHeight="1" ht="14.25" r="536"/>
-    <row customHeight="1" ht="14.25" r="537"/>
-    <row customHeight="1" ht="14.25" r="538"/>
-    <row customHeight="1" ht="14.25" r="539"/>
-    <row customHeight="1" ht="14.25" r="540"/>
-    <row customHeight="1" ht="14.25" r="541"/>
-    <row customHeight="1" ht="14.25" r="542"/>
-    <row customHeight="1" ht="14.25" r="543"/>
-    <row customHeight="1" ht="14.25" r="544"/>
-    <row customHeight="1" ht="14.25" r="545"/>
-    <row customHeight="1" ht="14.25" r="546"/>
-    <row customHeight="1" ht="14.25" r="547"/>
-    <row customHeight="1" ht="14.25" r="548"/>
-    <row customHeight="1" ht="14.25" r="549"/>
-    <row customHeight="1" ht="14.25" r="550"/>
-    <row customHeight="1" ht="14.25" r="551"/>
-    <row customHeight="1" ht="14.25" r="552"/>
-    <row customHeight="1" ht="14.25" r="553"/>
-    <row customHeight="1" ht="14.25" r="554"/>
-    <row customHeight="1" ht="14.25" r="555"/>
-    <row customHeight="1" ht="14.25" r="556"/>
-    <row customHeight="1" ht="14.25" r="557"/>
-    <row customHeight="1" ht="14.25" r="558"/>
-    <row customHeight="1" ht="14.25" r="559"/>
-    <row customHeight="1" ht="14.25" r="560"/>
-    <row customHeight="1" ht="14.25" r="561"/>
-    <row customHeight="1" ht="14.25" r="562"/>
-    <row customHeight="1" ht="14.25" r="563"/>
-    <row customHeight="1" ht="14.25" r="564"/>
-    <row customHeight="1" ht="14.25" r="565"/>
-    <row customHeight="1" ht="14.25" r="566"/>
-    <row customHeight="1" ht="14.25" r="567"/>
-    <row customHeight="1" ht="14.25" r="568"/>
-    <row customHeight="1" ht="14.25" r="569"/>
-    <row customHeight="1" ht="14.25" r="570"/>
-    <row customHeight="1" ht="14.25" r="571"/>
-    <row customHeight="1" ht="14.25" r="572"/>
-    <row customHeight="1" ht="14.25" r="573"/>
-    <row customHeight="1" ht="14.25" r="574"/>
-    <row customHeight="1" ht="14.25" r="575"/>
-    <row customHeight="1" ht="14.25" r="576"/>
-    <row customHeight="1" ht="14.25" r="577"/>
-    <row customHeight="1" ht="14.25" r="578"/>
-    <row customHeight="1" ht="14.25" r="579"/>
-    <row customHeight="1" ht="14.25" r="580"/>
-    <row customHeight="1" ht="14.25" r="581"/>
-    <row customHeight="1" ht="14.25" r="582"/>
-    <row customHeight="1" ht="14.25" r="583"/>
-    <row customHeight="1" ht="14.25" r="584"/>
-    <row customHeight="1" ht="14.25" r="585"/>
-    <row customHeight="1" ht="14.25" r="586"/>
-    <row customHeight="1" ht="14.25" r="587"/>
-    <row customHeight="1" ht="14.25" r="588"/>
-    <row customHeight="1" ht="14.25" r="589"/>
-    <row customHeight="1" ht="14.25" r="590"/>
-    <row customHeight="1" ht="14.25" r="591"/>
-    <row customHeight="1" ht="14.25" r="592"/>
-    <row customHeight="1" ht="14.25" r="593"/>
-    <row customHeight="1" ht="14.25" r="594"/>
-    <row customHeight="1" ht="14.25" r="595"/>
-    <row customHeight="1" ht="14.25" r="596"/>
-    <row customHeight="1" ht="14.25" r="597"/>
-    <row customHeight="1" ht="14.25" r="598"/>
-    <row customHeight="1" ht="14.25" r="599"/>
-    <row customHeight="1" ht="14.25" r="600"/>
-    <row customHeight="1" ht="14.25" r="601"/>
-    <row customHeight="1" ht="14.25" r="602"/>
-    <row customHeight="1" ht="14.25" r="603"/>
-    <row customHeight="1" ht="14.25" r="604"/>
-    <row customHeight="1" ht="14.25" r="605"/>
-    <row customHeight="1" ht="14.25" r="606"/>
-    <row customHeight="1" ht="14.25" r="607"/>
-    <row customHeight="1" ht="14.25" r="608"/>
-    <row customHeight="1" ht="14.25" r="609"/>
-    <row customHeight="1" ht="14.25" r="610"/>
-    <row customHeight="1" ht="14.25" r="611"/>
-    <row customHeight="1" ht="14.25" r="612"/>
-    <row customHeight="1" ht="14.25" r="613"/>
-    <row customHeight="1" ht="14.25" r="614"/>
-    <row customHeight="1" ht="14.25" r="615"/>
-    <row customHeight="1" ht="14.25" r="616"/>
-    <row customHeight="1" ht="14.25" r="617"/>
-    <row customHeight="1" ht="14.25" r="618"/>
-    <row customHeight="1" ht="14.25" r="619"/>
-    <row customHeight="1" ht="14.25" r="620"/>
-    <row customHeight="1" ht="14.25" r="621"/>
-    <row customHeight="1" ht="14.25" r="622"/>
-    <row customHeight="1" ht="14.25" r="623"/>
-    <row customHeight="1" ht="14.25" r="624"/>
-    <row customHeight="1" ht="14.25" r="625"/>
-    <row customHeight="1" ht="14.25" r="626"/>
-    <row customHeight="1" ht="14.25" r="627"/>
-    <row customHeight="1" ht="14.25" r="628"/>
-    <row customHeight="1" ht="14.25" r="629"/>
-    <row customHeight="1" ht="14.25" r="630"/>
-    <row customHeight="1" ht="14.25" r="631"/>
-    <row customHeight="1" ht="14.25" r="632"/>
-    <row customHeight="1" ht="14.25" r="633"/>
-    <row customHeight="1" ht="14.25" r="634"/>
-    <row customHeight="1" ht="14.25" r="635"/>
-    <row customHeight="1" ht="14.25" r="636"/>
-    <row customHeight="1" ht="14.25" r="637"/>
-    <row customHeight="1" ht="14.25" r="638"/>
-    <row customHeight="1" ht="14.25" r="639"/>
-    <row customHeight="1" ht="14.25" r="640"/>
-    <row customHeight="1" ht="14.25" r="641"/>
-    <row customHeight="1" ht="14.25" r="642"/>
-    <row customHeight="1" ht="14.25" r="643"/>
-    <row customHeight="1" ht="14.25" r="644"/>
-    <row customHeight="1" ht="14.25" r="645"/>
-    <row customHeight="1" ht="14.25" r="646"/>
-    <row customHeight="1" ht="14.25" r="647"/>
-    <row customHeight="1" ht="14.25" r="648"/>
-    <row customHeight="1" ht="14.25" r="649"/>
-    <row customHeight="1" ht="14.25" r="650"/>
-    <row customHeight="1" ht="14.25" r="651"/>
-    <row customHeight="1" ht="14.25" r="652"/>
-    <row customHeight="1" ht="14.25" r="653"/>
-    <row customHeight="1" ht="14.25" r="654"/>
-    <row customHeight="1" ht="14.25" r="655"/>
-    <row customHeight="1" ht="14.25" r="656"/>
-    <row customHeight="1" ht="14.25" r="657"/>
-    <row customHeight="1" ht="14.25" r="658"/>
-    <row customHeight="1" ht="14.25" r="659"/>
-    <row customHeight="1" ht="14.25" r="660"/>
-    <row customHeight="1" ht="14.25" r="661"/>
-    <row customHeight="1" ht="14.25" r="662"/>
-    <row customHeight="1" ht="14.25" r="663"/>
-    <row customHeight="1" ht="14.25" r="664"/>
-    <row customHeight="1" ht="14.25" r="665"/>
-    <row customHeight="1" ht="14.25" r="666"/>
-    <row customHeight="1" ht="14.25" r="667"/>
-    <row customHeight="1" ht="14.25" r="668"/>
-    <row customHeight="1" ht="14.25" r="669"/>
-    <row customHeight="1" ht="14.25" r="670"/>
-    <row customHeight="1" ht="14.25" r="671"/>
-    <row customHeight="1" ht="14.25" r="672"/>
-    <row customHeight="1" ht="14.25" r="673"/>
-    <row customHeight="1" ht="14.25" r="674"/>
-    <row customHeight="1" ht="14.25" r="675"/>
-    <row customHeight="1" ht="14.25" r="676"/>
-    <row customHeight="1" ht="14.25" r="677"/>
-    <row customHeight="1" ht="14.25" r="678"/>
-    <row customHeight="1" ht="14.25" r="679"/>
-    <row customHeight="1" ht="14.25" r="680"/>
-    <row customHeight="1" ht="14.25" r="681"/>
-    <row customHeight="1" ht="14.25" r="682"/>
-    <row customHeight="1" ht="14.25" r="683"/>
-    <row customHeight="1" ht="14.25" r="684"/>
-    <row customHeight="1" ht="14.25" r="685"/>
-    <row customHeight="1" ht="14.25" r="686"/>
-    <row customHeight="1" ht="14.25" r="687"/>
-    <row customHeight="1" ht="14.25" r="688"/>
-    <row customHeight="1" ht="14.25" r="689"/>
-    <row customHeight="1" ht="14.25" r="690"/>
-    <row customHeight="1" ht="14.25" r="691"/>
-    <row customHeight="1" ht="14.25" r="692"/>
-    <row customHeight="1" ht="14.25" r="693"/>
-    <row customHeight="1" ht="14.25" r="694"/>
-    <row customHeight="1" ht="14.25" r="695"/>
-    <row customHeight="1" ht="14.25" r="696"/>
-    <row customHeight="1" ht="14.25" r="697"/>
-    <row customHeight="1" ht="14.25" r="698"/>
-    <row customHeight="1" ht="14.25" r="699"/>
-    <row customHeight="1" ht="14.25" r="700"/>
-    <row customHeight="1" ht="14.25" r="701"/>
-    <row customHeight="1" ht="14.25" r="702"/>
-    <row customHeight="1" ht="14.25" r="703"/>
-    <row customHeight="1" ht="14.25" r="704"/>
-    <row customHeight="1" ht="14.25" r="705"/>
-    <row customHeight="1" ht="14.25" r="706"/>
-    <row customHeight="1" ht="14.25" r="707"/>
-    <row customHeight="1" ht="14.25" r="708"/>
-    <row customHeight="1" ht="14.25" r="709"/>
-    <row customHeight="1" ht="14.25" r="710"/>
-    <row customHeight="1" ht="14.25" r="711"/>
-    <row customHeight="1" ht="14.25" r="712"/>
-    <row customHeight="1" ht="14.25" r="713"/>
-    <row customHeight="1" ht="14.25" r="714"/>
-    <row customHeight="1" ht="14.25" r="715"/>
-    <row customHeight="1" ht="14.25" r="716"/>
-    <row customHeight="1" ht="14.25" r="717"/>
-    <row customHeight="1" ht="14.25" r="718"/>
-    <row customHeight="1" ht="14.25" r="719"/>
-    <row customHeight="1" ht="14.25" r="720"/>
-    <row customHeight="1" ht="14.25" r="721"/>
-    <row customHeight="1" ht="14.25" r="722"/>
-    <row customHeight="1" ht="14.25" r="723"/>
-    <row customHeight="1" ht="14.25" r="724"/>
-    <row customHeight="1" ht="14.25" r="725"/>
-    <row customHeight="1" ht="14.25" r="726"/>
-    <row customHeight="1" ht="14.25" r="727"/>
-    <row customHeight="1" ht="14.25" r="728"/>
-    <row customHeight="1" ht="14.25" r="729"/>
-    <row customHeight="1" ht="14.25" r="730"/>
-    <row customHeight="1" ht="14.25" r="731"/>
-    <row customHeight="1" ht="14.25" r="732"/>
-    <row customHeight="1" ht="14.25" r="733"/>
-    <row customHeight="1" ht="14.25" r="734"/>
-    <row customHeight="1" ht="14.25" r="735"/>
-    <row customHeight="1" ht="14.25" r="736"/>
-    <row customHeight="1" ht="14.25" r="737"/>
-    <row customHeight="1" ht="14.25" r="738"/>
-    <row customHeight="1" ht="14.25" r="739"/>
-    <row customHeight="1" ht="14.25" r="740"/>
-    <row customHeight="1" ht="14.25" r="741"/>
-    <row customHeight="1" ht="14.25" r="742"/>
-    <row customHeight="1" ht="14.25" r="743"/>
-    <row customHeight="1" ht="14.25" r="744"/>
-    <row customHeight="1" ht="14.25" r="745"/>
-    <row customHeight="1" ht="14.25" r="746"/>
-    <row customHeight="1" ht="14.25" r="747"/>
-    <row customHeight="1" ht="14.25" r="748"/>
-    <row customHeight="1" ht="14.25" r="749"/>
-    <row customHeight="1" ht="14.25" r="750"/>
-    <row customHeight="1" ht="14.25" r="751"/>
-    <row customHeight="1" ht="14.25" r="752"/>
-    <row customHeight="1" ht="14.25" r="753"/>
-    <row customHeight="1" ht="14.25" r="754"/>
-    <row customHeight="1" ht="14.25" r="755"/>
-    <row customHeight="1" ht="14.25" r="756"/>
-    <row customHeight="1" ht="14.25" r="757"/>
-    <row customHeight="1" ht="14.25" r="758"/>
-    <row customHeight="1" ht="14.25" r="759"/>
-    <row customHeight="1" ht="14.25" r="760"/>
-    <row customHeight="1" ht="14.25" r="761"/>
-    <row customHeight="1" ht="14.25" r="762"/>
-    <row customHeight="1" ht="14.25" r="763"/>
-    <row customHeight="1" ht="14.25" r="764"/>
-    <row customHeight="1" ht="14.25" r="765"/>
-    <row customHeight="1" ht="14.25" r="766"/>
-    <row customHeight="1" ht="14.25" r="767"/>
-    <row customHeight="1" ht="14.25" r="768"/>
-    <row customHeight="1" ht="14.25" r="769"/>
-    <row customHeight="1" ht="14.25" r="770"/>
-    <row customHeight="1" ht="14.25" r="771"/>
-    <row customHeight="1" ht="14.25" r="772"/>
-    <row customHeight="1" ht="14.25" r="773"/>
-    <row customHeight="1" ht="14.25" r="774"/>
-    <row customHeight="1" ht="14.25" r="775"/>
-    <row customHeight="1" ht="14.25" r="776"/>
-    <row customHeight="1" ht="14.25" r="777"/>
-    <row customHeight="1" ht="14.25" r="778"/>
-    <row customHeight="1" ht="14.25" r="779"/>
-    <row customHeight="1" ht="14.25" r="780"/>
-    <row customHeight="1" ht="14.25" r="781"/>
-    <row customHeight="1" ht="14.25" r="782"/>
-    <row customHeight="1" ht="14.25" r="783"/>
-    <row customHeight="1" ht="14.25" r="784"/>
-    <row customHeight="1" ht="14.25" r="785"/>
-    <row customHeight="1" ht="14.25" r="786"/>
-    <row customHeight="1" ht="14.25" r="787"/>
-    <row customHeight="1" ht="14.25" r="788"/>
-    <row customHeight="1" ht="14.25" r="789"/>
-    <row customHeight="1" ht="14.25" r="790"/>
-    <row customHeight="1" ht="14.25" r="791"/>
-    <row customHeight="1" ht="14.25" r="792"/>
-    <row customHeight="1" ht="14.25" r="793"/>
-    <row customHeight="1" ht="14.25" r="794"/>
-    <row customHeight="1" ht="14.25" r="795"/>
-    <row customHeight="1" ht="14.25" r="796"/>
-    <row customHeight="1" ht="14.25" r="797"/>
-    <row customHeight="1" ht="14.25" r="798"/>
-    <row customHeight="1" ht="14.25" r="799"/>
-    <row customHeight="1" ht="14.25" r="800"/>
-    <row customHeight="1" ht="14.25" r="801"/>
-    <row customHeight="1" ht="14.25" r="802"/>
-    <row customHeight="1" ht="14.25" r="803"/>
-    <row customHeight="1" ht="14.25" r="804"/>
-    <row customHeight="1" ht="14.25" r="805"/>
-    <row customHeight="1" ht="14.25" r="806"/>
-    <row customHeight="1" ht="14.25" r="807"/>
-    <row customHeight="1" ht="14.25" r="808"/>
-    <row customHeight="1" ht="14.25" r="809"/>
-    <row customHeight="1" ht="14.25" r="810"/>
-    <row customHeight="1" ht="14.25" r="811"/>
-    <row customHeight="1" ht="14.25" r="812"/>
-    <row customHeight="1" ht="14.25" r="813"/>
-    <row customHeight="1" ht="14.25" r="814"/>
-    <row customHeight="1" ht="14.25" r="815"/>
-    <row customHeight="1" ht="14.25" r="816"/>
-    <row customHeight="1" ht="14.25" r="817"/>
-    <row customHeight="1" ht="14.25" r="818"/>
-    <row customHeight="1" ht="14.25" r="819"/>
-    <row customHeight="1" ht="14.25" r="820"/>
-    <row customHeight="1" ht="14.25" r="821"/>
-    <row customHeight="1" ht="14.25" r="822"/>
-    <row customHeight="1" ht="14.25" r="823"/>
-    <row customHeight="1" ht="14.25" r="824"/>
-    <row customHeight="1" ht="14.25" r="825"/>
-    <row customHeight="1" ht="14.25" r="826"/>
-    <row customHeight="1" ht="14.25" r="827"/>
-    <row customHeight="1" ht="14.25" r="828"/>
-    <row customHeight="1" ht="14.25" r="829"/>
-    <row customHeight="1" ht="14.25" r="830"/>
-    <row customHeight="1" ht="14.25" r="831"/>
-    <row customHeight="1" ht="14.25" r="832"/>
-    <row customHeight="1" ht="14.25" r="833"/>
-    <row customHeight="1" ht="14.25" r="834"/>
-    <row customHeight="1" ht="14.25" r="835"/>
-    <row customHeight="1" ht="14.25" r="836"/>
-    <row customHeight="1" ht="14.25" r="837"/>
-    <row customHeight="1" ht="14.25" r="838"/>
-    <row customHeight="1" ht="14.25" r="839"/>
-    <row customHeight="1" ht="14.25" r="840"/>
-    <row customHeight="1" ht="14.25" r="841"/>
-    <row customHeight="1" ht="14.25" r="842"/>
-    <row customHeight="1" ht="14.25" r="843"/>
-    <row customHeight="1" ht="14.25" r="844"/>
-    <row customHeight="1" ht="14.25" r="845"/>
-    <row customHeight="1" ht="14.25" r="846"/>
-    <row customHeight="1" ht="14.25" r="847"/>
-    <row customHeight="1" ht="14.25" r="848"/>
-    <row customHeight="1" ht="14.25" r="849"/>
-    <row customHeight="1" ht="14.25" r="850"/>
-    <row customHeight="1" ht="14.25" r="851"/>
-    <row customHeight="1" ht="14.25" r="852"/>
-    <row customHeight="1" ht="14.25" r="853"/>
-    <row customHeight="1" ht="14.25" r="854"/>
-    <row customHeight="1" ht="14.25" r="855"/>
-    <row customHeight="1" ht="14.25" r="856"/>
-    <row customHeight="1" ht="14.25" r="857"/>
-    <row customHeight="1" ht="14.25" r="858"/>
-    <row customHeight="1" ht="14.25" r="859"/>
-    <row customHeight="1" ht="14.25" r="860"/>
-    <row customHeight="1" ht="14.25" r="861"/>
-    <row customHeight="1" ht="14.25" r="862"/>
-    <row customHeight="1" ht="14.25" r="863"/>
-    <row customHeight="1" ht="14.25" r="864"/>
-    <row customHeight="1" ht="14.25" r="865"/>
-    <row customHeight="1" ht="14.25" r="866"/>
-    <row customHeight="1" ht="14.25" r="867"/>
-    <row customHeight="1" ht="14.25" r="868"/>
-    <row customHeight="1" ht="14.25" r="869"/>
-    <row customHeight="1" ht="14.25" r="870"/>
-    <row customHeight="1" ht="14.25" r="871"/>
-    <row customHeight="1" ht="14.25" r="872"/>
-    <row customHeight="1" ht="14.25" r="873"/>
-    <row customHeight="1" ht="14.25" r="874"/>
-    <row customHeight="1" ht="14.25" r="875"/>
-    <row customHeight="1" ht="14.25" r="876"/>
-    <row customHeight="1" ht="14.25" r="877"/>
-    <row customHeight="1" ht="14.25" r="878"/>
-    <row customHeight="1" ht="14.25" r="879"/>
-    <row customHeight="1" ht="14.25" r="880"/>
-    <row customHeight="1" ht="14.25" r="881"/>
-    <row customHeight="1" ht="14.25" r="882"/>
-    <row customHeight="1" ht="14.25" r="883"/>
-    <row customHeight="1" ht="14.25" r="884"/>
-    <row customHeight="1" ht="14.25" r="885"/>
-    <row customHeight="1" ht="14.25" r="886"/>
-    <row customHeight="1" ht="14.25" r="887"/>
-    <row customHeight="1" ht="14.25" r="888"/>
-    <row customHeight="1" ht="14.25" r="889"/>
-    <row customHeight="1" ht="14.25" r="890"/>
-    <row customHeight="1" ht="14.25" r="891"/>
-    <row customHeight="1" ht="14.25" r="892"/>
-    <row customHeight="1" ht="14.25" r="893"/>
-    <row customHeight="1" ht="14.25" r="894"/>
-    <row customHeight="1" ht="14.25" r="895"/>
-    <row customHeight="1" ht="14.25" r="896"/>
-    <row customHeight="1" ht="14.25" r="897"/>
-    <row customHeight="1" ht="14.25" r="898"/>
-    <row customHeight="1" ht="14.25" r="899"/>
-    <row customHeight="1" ht="14.25" r="900"/>
-    <row customHeight="1" ht="14.25" r="901"/>
-    <row customHeight="1" ht="14.25" r="902"/>
-    <row customHeight="1" ht="14.25" r="903"/>
-    <row customHeight="1" ht="14.25" r="904"/>
-    <row customHeight="1" ht="14.25" r="905"/>
-    <row customHeight="1" ht="14.25" r="906"/>
-    <row customHeight="1" ht="14.25" r="907"/>
-    <row customHeight="1" ht="14.25" r="908"/>
-    <row customHeight="1" ht="14.25" r="909"/>
-    <row customHeight="1" ht="14.25" r="910"/>
-    <row customHeight="1" ht="14.25" r="911"/>
-    <row customHeight="1" ht="14.25" r="912"/>
-    <row customHeight="1" ht="14.25" r="913"/>
-    <row customHeight="1" ht="14.25" r="914"/>
-    <row customHeight="1" ht="14.25" r="915"/>
-    <row customHeight="1" ht="14.25" r="916"/>
-    <row customHeight="1" ht="14.25" r="917"/>
-    <row customHeight="1" ht="14.25" r="918"/>
-    <row customHeight="1" ht="14.25" r="919"/>
-    <row customHeight="1" ht="14.25" r="920"/>
-    <row customHeight="1" ht="14.25" r="921"/>
-    <row customHeight="1" ht="14.25" r="922"/>
-    <row customHeight="1" ht="14.25" r="923"/>
-    <row customHeight="1" ht="14.25" r="924"/>
-    <row customHeight="1" ht="14.25" r="925"/>
-    <row customHeight="1" ht="14.25" r="926"/>
-    <row customHeight="1" ht="14.25" r="927"/>
-    <row customHeight="1" ht="14.25" r="928"/>
-    <row customHeight="1" ht="14.25" r="929"/>
-    <row customHeight="1" ht="14.25" r="930"/>
-    <row customHeight="1" ht="14.25" r="931"/>
-    <row customHeight="1" ht="14.25" r="932"/>
-    <row customHeight="1" ht="14.25" r="933"/>
-    <row customHeight="1" ht="14.25" r="934"/>
-    <row customHeight="1" ht="14.25" r="935"/>
-    <row customHeight="1" ht="14.25" r="936"/>
-    <row customHeight="1" ht="14.25" r="937"/>
-    <row customHeight="1" ht="14.25" r="938"/>
-    <row customHeight="1" ht="14.25" r="939"/>
-    <row customHeight="1" ht="14.25" r="940"/>
-    <row customHeight="1" ht="14.25" r="941"/>
-    <row customHeight="1" ht="14.25" r="942"/>
-    <row customHeight="1" ht="14.25" r="943"/>
-    <row customHeight="1" ht="14.25" r="944"/>
-    <row customHeight="1" ht="14.25" r="945"/>
-    <row customHeight="1" ht="14.25" r="946"/>
-    <row customHeight="1" ht="14.25" r="947"/>
-    <row customHeight="1" ht="14.25" r="948"/>
-    <row customHeight="1" ht="14.25" r="949"/>
-    <row customHeight="1" ht="14.25" r="950"/>
-    <row customHeight="1" ht="14.25" r="951"/>
-    <row customHeight="1" ht="14.25" r="952"/>
-    <row customHeight="1" ht="14.25" r="953"/>
-    <row customHeight="1" ht="14.25" r="954"/>
-    <row customHeight="1" ht="14.25" r="955"/>
-    <row customHeight="1" ht="14.25" r="956"/>
-    <row customHeight="1" ht="14.25" r="957"/>
-    <row customHeight="1" ht="14.25" r="958"/>
-    <row customHeight="1" ht="14.25" r="959"/>
-    <row customHeight="1" ht="14.25" r="960"/>
-    <row customHeight="1" ht="14.25" r="961"/>
-    <row customHeight="1" ht="14.25" r="962"/>
-    <row customHeight="1" ht="14.25" r="963"/>
-    <row customHeight="1" ht="14.25" r="964"/>
-    <row customHeight="1" ht="14.25" r="965"/>
-    <row customHeight="1" ht="14.25" r="966"/>
-    <row customHeight="1" ht="14.25" r="967"/>
-    <row customHeight="1" ht="14.25" r="968"/>
-    <row customHeight="1" ht="14.25" r="969"/>
-    <row customHeight="1" ht="14.25" r="970"/>
-    <row customHeight="1" ht="14.25" r="971"/>
-    <row customHeight="1" ht="14.25" r="972"/>
-    <row customHeight="1" ht="14.25" r="973"/>
-    <row customHeight="1" ht="14.25" r="974"/>
-    <row customHeight="1" ht="14.25" r="975"/>
-    <row customHeight="1" ht="14.25" r="976"/>
-    <row customHeight="1" ht="14.25" r="977"/>
-    <row customHeight="1" ht="14.25" r="978"/>
-    <row customHeight="1" ht="14.25" r="979"/>
-    <row customHeight="1" ht="14.25" r="980"/>
-    <row customHeight="1" ht="14.25" r="981"/>
-    <row customHeight="1" ht="14.25" r="982"/>
-    <row customHeight="1" ht="14.25" r="983"/>
-    <row customHeight="1" ht="14.25" r="984"/>
-    <row customHeight="1" ht="14.25" r="985"/>
-    <row customHeight="1" ht="14.25" r="986"/>
-    <row customHeight="1" ht="14.25" r="987"/>
-    <row customHeight="1" ht="14.25" r="988"/>
-    <row customHeight="1" ht="14.25" r="989"/>
-    <row customHeight="1" ht="14.25" r="990"/>
-    <row customHeight="1" ht="14.25" r="991"/>
-    <row customHeight="1" ht="14.25" r="992"/>
-    <row customHeight="1" ht="14.25" r="993"/>
-    <row customHeight="1" ht="14.25" r="994"/>
-    <row customHeight="1" ht="14.25" r="995"/>
-    <row customHeight="1" ht="14.25" r="996"/>
-    <row customHeight="1" ht="14.25" r="997"/>
-    <row customHeight="1" ht="14.25" r="998"/>
-    <row customHeight="1" ht="14.25" r="999"/>
-    <row customHeight="1" ht="14.25" r="1000"/>
+    <row r="35" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="36" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="37" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="38" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="39" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="40" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="41" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="42" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="43" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="44" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="45" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="46" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="47" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="48" spans="11:12" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G4:H4"/>
@@ -5770,14 +5781,14 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -5785,11 +5796,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.25" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="8.75" collapsed="true"/>
+    <col min="1" max="2" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5929,7 +5940,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/Simulasi/Simulasi Tax Calculation.xlsx
+++ b/Simulasi/Simulasi Tax Calculation.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint17\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView windowHeight="7350" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="SIMULASI TAX PERSONAL NEW" sheetId="1" r:id="rId1"/>
-    <sheet name="SIMULASI TAX COMPANY NEW" sheetId="2" r:id="rId2"/>
-    <sheet name="DB" sheetId="3" r:id="rId3"/>
+    <sheet name="SIMULASI TAX PERSONAL NEW" r:id="rId1" sheetId="1"/>
+    <sheet name="SIMULASI TAX COMPANY NEW" r:id="rId2" sheetId="2"/>
+    <sheet name="DB" r:id="rId3" sheetId="3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">DB!$A$2:$E$3</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'SIMULASI TAX PERSONAL NEW'!$B$23:$F$27</definedName>
-    <definedName name="ExternalData_2" localSheetId="2" hidden="1">DB!$A$10:$B$11</definedName>
-    <definedName name="ExternalData_3" localSheetId="2" hidden="1">DB!$A$14:$B$15</definedName>
-    <definedName name="ExternalData_4" localSheetId="2" hidden="1">DB!$A$5:$F$7</definedName>
+    <definedName hidden="1" localSheetId="2" name="ExternalData_1">DB!$A$2:$E$3</definedName>
+    <definedName hidden="1" localSheetId="0" name="ExternalData_1">'SIMULASI TAX PERSONAL NEW'!$B$23:$F$27</definedName>
+    <definedName hidden="1" localSheetId="2" name="ExternalData_2">DB!$A$10:$B$11</definedName>
+    <definedName hidden="1" localSheetId="2" name="ExternalData_3">DB!$A$14:$B$15</definedName>
+    <definedName hidden="1" localSheetId="2" name="ExternalData_4">DB!$A$5:$F$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -512,180 +512,180 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="43" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="43" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="43" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="1" numFmtId="43" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="1" numFmtId="10" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="1" numFmtId="10" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="47" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="47" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="16" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="43" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="43" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="10" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="10" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="1" numFmtId="43" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="6" numFmtId="2" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="4" numFmtId="2" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="4" numFmtId="2" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="8" numFmtId="43" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="8" numFmtId="10" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="8" numFmtId="10" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt formatCode="0" numFmtId="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
       <font>
@@ -703,14 +703,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt formatCode="0.00" numFmtId="2"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -728,14 +728,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt formatCode="0.00" numFmtId="2"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -753,14 +753,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -778,14 +778,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -803,14 +803,14 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -834,7 +834,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
@@ -858,7 +858,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -886,10 +886,10 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="SIMULASI TAX PERSONAL NEW-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="firstRowStripe" dxfId="23"/>
-      <tableStyleElement type="secondRowStripe" dxfId="22"/>
+    <tableStyle count="3" name="SIMULASI TAX PERSONAL NEW-style" pivot="0">
+      <tableStyleElement dxfId="24" type="headerRow"/>
+      <tableStyleElement dxfId="23" type="firstRowStripe"/>
+      <tableStyleElement dxfId="22" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -969,67 +969,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="_r3db_server_ad_ins_com\r3__TAX__4" displayName="_r3db_server_ad_ins_com\r3__TAX__4" ref="B23:F27" tableType="queryTable" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="20" displayName="_r3db_server_ad_ins_com\r3__TAX__4" headerRowDxfId="21" id="3" name="_r3db_server_ad_ins_com\r3__TAX__4" ref="B23:F27" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B23:F27"/>
   <tableColumns count="5">
-    <tableColumn id="26" uniqueName="26" name="tier" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="27" uniqueName="27" name="amt_from" queryTableFieldId="2" dataDxfId="18"/>
-    <tableColumn id="28" uniqueName="28" name="amt_to" queryTableFieldId="3" dataDxfId="17"/>
-    <tableColumn id="29" uniqueName="29" name="Column1" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="30" uniqueName="30" name="2" queryTableFieldId="5" dataDxfId="15"/>
+    <tableColumn dataDxfId="19" id="26" name="tier" queryTableFieldId="1" uniqueName="26"/>
+    <tableColumn dataDxfId="18" id="27" name="amt_from" queryTableFieldId="2" uniqueName="27"/>
+    <tableColumn dataDxfId="17" id="28" name="amt_to" queryTableFieldId="3" uniqueName="28"/>
+    <tableColumn dataDxfId="16" id="29" name="Column1" queryTableFieldId="4" uniqueName="29"/>
+    <tableColumn dataDxfId="15" id="30" name="2" queryTableFieldId="5" uniqueName="30"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="_r3db_server_ad_ins_com\r3__TAX__2" displayName="_r3db_server_ad_ins_com\r3__TAX__2" ref="A2:E3" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__TAX__2" id="1" name="_r3db_server_ad_ins_com\r3__TAX__2" ref="A2:E3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A2:E3"/>
   <tableColumns count="5">
-    <tableColumn id="6" uniqueName="6" name="tier" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="7" uniqueName="7" name="amt_from" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="8" uniqueName="8" name="amt_to" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="9" uniqueName="9" name="tax_rate_prcnt" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="10" uniqueName="10" name="PENALTY_RATE_PRCNT" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn dataDxfId="14" id="6" name="tier" queryTableFieldId="1" uniqueName="6"/>
+    <tableColumn dataDxfId="13" id="7" name="amt_from" queryTableFieldId="2" uniqueName="7"/>
+    <tableColumn dataDxfId="12" id="8" name="amt_to" queryTableFieldId="3" uniqueName="8"/>
+    <tableColumn dataDxfId="11" id="9" name="tax_rate_prcnt" queryTableFieldId="4" uniqueName="9"/>
+    <tableColumn dataDxfId="10" id="10" name="PENALTY_RATE_PRCNT" queryTableFieldId="5" uniqueName="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="_r3db_server_ad_ins_com\r3__TAX__3" displayName="_r3db_server_ad_ins_com\r3__TAX__3" ref="A10:B11" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__TAX__3" id="2" name="_r3db_server_ad_ins_com\r3__TAX__3" ref="A10:B11" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A10:B11"/>
   <tableColumns count="2">
-    <tableColumn id="3" uniqueName="3" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="4" uniqueName="4" name="ROUNDING_AMT" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn dataDxfId="9" id="3" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="1" uniqueName="3"/>
+    <tableColumn dataDxfId="8" id="4" name="ROUNDING_AMT" queryTableFieldId="2" uniqueName="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="_r3db_server_ad_ins_com\r3__TAX__5" displayName="_r3db_server_ad_ins_com\r3__TAX__5" ref="A14:B15" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__TAX__5" id="4" name="_r3db_server_ad_ins_com\r3__TAX__5" ref="A14:B15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A14:B15"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="6" uniqueName="6" name="ROUNDING_AMT" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn dataDxfId="7" id="5" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="1" uniqueName="5"/>
+    <tableColumn dataDxfId="6" id="6" name="ROUNDING_AMT" queryTableFieldId="2" uniqueName="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="_r3db_server_ad_ins_com\r3__TAX__6" displayName="_r3db_server_ad_ins_com\r3__TAX__6" ref="A5:F7" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__TAX__6" id="5" name="_r3db_server_ad_ins_com\r3__TAX__6" ref="A5:F7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A5:F7"/>
   <tableColumns count="6">
-    <tableColumn id="13" uniqueName="13" name="TAX_TYPE_DESCR" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="14" uniqueName="14" name="TAX_RATE_PRCNT" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="15" uniqueName="15" name="PENALTY_RATE_PRCNT" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="16" uniqueName="16" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="17" uniqueName="17" name="amt_from" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="18" uniqueName="18" name="amt_to" queryTableFieldId="6" dataDxfId="0"/>
+    <tableColumn dataDxfId="5" id="13" name="TAX_TYPE_DESCR" queryTableFieldId="1" uniqueName="13"/>
+    <tableColumn dataDxfId="4" id="14" name="TAX_RATE_PRCNT" queryTableFieldId="2" uniqueName="14"/>
+    <tableColumn dataDxfId="3" id="15" name="PENALTY_RATE_PRCNT" queryTableFieldId="3" uniqueName="15"/>
+    <tableColumn dataDxfId="2" id="16" name="PARTIAL_TAXABLE_PRCNT" queryTableFieldId="4" uniqueName="16"/>
+    <tableColumn dataDxfId="1" id="17" name="amt_from" queryTableFieldId="5" uniqueName="17"/>
+    <tableColumn dataDxfId="0" id="18" name="amt_to" queryTableFieldId="6" uniqueName="18"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1145,21 +1145,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1176,7 +1176,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1230,76 +1230,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.75" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.75" customWidth="1" collapsed="1"/>
-    <col min="22" max="32" width="7.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="7.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.75" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.75" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="27.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="15.875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.75" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.75" collapsed="true"/>
+    <col min="22" max="32" customWidth="true" width="7.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="1" spans="1:17">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="2" spans="1:17">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>72830.460000000006</v>
+      <c r="C2" t="n">
+        <v>14000.0</v>
       </c>
       <c r="D2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="3" spans="1:17">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>0.0</v>
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="4" spans="1:17">
       <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="18">
-        <v>1</v>
+      <c r="C4" t="n">
+        <v>0.0</v>
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="5" spans="1:17">
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:17">
       <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:17">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
@@ -1322,7 +1322,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="8" spans="1:17">
       <c r="B8" s="6" t="s">
         <v>58</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="37"/>
     </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="9" spans="1:17">
       <c r="B9" s="6"/>
       <c r="C9" s="51"/>
       <c r="D9" s="6"/>
@@ -1353,7 +1353,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="10" spans="1:17">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="G10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="11" spans="1:17">
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="H11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="12" spans="1:17">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="13" spans="1:17">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="14" spans="1:17">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1445,17 +1445,17 @@
       <c r="N14" s="17"/>
       <c r="Q14" s="17"/>
     </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="15" spans="1:17">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="16" spans="1:17">
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="17" spans="1:21">
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1464,7 +1464,7 @@
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="18" spans="1:21">
       <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>10</v>
@@ -1485,7 +1485,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="19" spans="1:21">
       <c r="A19" s="19"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1506,7 +1506,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="20" spans="1:21">
       <c r="A20" s="19"/>
       <c r="B20" s="8" t="s">
         <v>12</v>
@@ -1535,7 +1535,7 @@
       <c r="Q20" s="17"/>
       <c r="R20" s="20"/>
     </row>
-    <row r="21" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="21" spans="1:21">
       <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
         <v>14</v>
@@ -1561,7 +1561,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="20"/>
     </row>
-    <row r="22" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="22" spans="1:21">
       <c r="A22" s="19"/>
       <c r="B22" s="8" t="s">
         <v>15</v>
@@ -1688,15 +1688,15 @@
         <v>0</v>
       </c>
       <c r="O24" s="17">
-        <f t="shared" ref="O24:O26" si="0">IF($C$3=1,0,CEILING(M24*F25,$C$21))</f>
+        <f ref="O24:O26" si="0" t="shared">IF($C$3=1,0,CEILING(M24*F25,$C$21))</f>
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <f t="shared" ref="P24:P26" si="1">(L24-M24-O24+N24)+(K24*(100%-$C$20))</f>
+        <f ref="P24:P26" si="1" t="shared">(L24-M24-O24+N24)+(K24*(100%-$C$20))</f>
         <v>0</v>
       </c>
       <c r="Q24" s="17">
-        <f t="shared" ref="Q24:Q26" si="2">P24+M24+O24</f>
+        <f ref="Q24:Q26" si="2" t="shared">P24+M24+O24</f>
         <v>0</v>
       </c>
       <c r="R24" s="20"/>
@@ -1741,20 +1741,20 @@
         <v>0</v>
       </c>
       <c r="O25" s="17">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q25" s="17">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="R25" s="20"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1">
+    <row ht="15.75" r="26" spans="1:21" thickBot="1">
       <c r="A26" s="19"/>
       <c r="B26" s="49">
         <v>3</v>
@@ -1793,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="O26" s="36">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P26" s="30">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="Q26" s="30">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="R26" s="20"/>
       <c r="U26" s="17"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" thickTop="1">
+    <row ht="15.75" r="27" spans="1:21" thickTop="1">
       <c r="A27" s="19"/>
       <c r="B27" s="49">
         <v>4</v>
@@ -1830,36 +1830,36 @@
         <v>31</v>
       </c>
       <c r="K27" s="16">
-        <f t="shared" ref="K27:Q27" si="3">SUM(K23:K26)</f>
+        <f ref="K27:Q27" si="3" t="shared">SUM(K23:K26)</f>
         <v>72830.460000000006</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>36416</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>1821</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>7284</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>365</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>77929.23000000001</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>80115.23000000001</v>
       </c>
       <c r="R27" s="20"/>
     </row>
-    <row r="28" spans="1:21" ht="14.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="14.25" r="28" spans="1:21" thickBot="1">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -1879,7 +1879,7 @@
       <c r="R28" s="33"/>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="29" spans="1:21">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1894,7 +1894,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="30" spans="1:21">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -1905,7 +1905,7 @@
       <c r="N30" s="17"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="31" spans="1:21">
       <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>32</v>
@@ -1926,7 +1926,7 @@
       <c r="Q31" s="22"/>
       <c r="R31" s="23"/>
     </row>
-    <row r="32" spans="1:21" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="32" spans="1:21">
       <c r="A32" s="19"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1947,7 +1947,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="20"/>
     </row>
-    <row r="33" spans="1:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="33" spans="1:19">
       <c r="A33" s="19"/>
       <c r="B33" s="8" t="s">
         <v>12</v>
@@ -1975,7 +1975,7 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="20"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="34" spans="1:19">
       <c r="A34" s="19"/>
       <c r="B34" s="3" t="s">
         <v>14</v>
@@ -2000,7 +2000,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="20"/>
     </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="35" spans="1:19">
       <c r="A35" s="19"/>
       <c r="B35" s="8" t="s">
         <v>15</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="17">
-        <f t="shared" ref="Q37:Q39" si="4">P37+M37+O37</f>
+        <f ref="Q37:Q39" si="4" t="shared">P37+M37+O37</f>
         <v>0</v>
       </c>
       <c r="R37" s="20"/>
@@ -2148,7 +2148,7 @@
         <v>28</v>
       </c>
       <c r="C38" s="56">
-        <f t="shared" ref="C38:C40" si="5">D37+1</f>
+        <f ref="C38:C40" si="5" t="shared">D37+1</f>
         <v>48500001</v>
       </c>
       <c r="D38" s="56">
@@ -2193,18 +2193,18 @@
         <v>0</v>
       </c>
       <c r="Q38" s="17">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
       <c r="R38" s="20"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1">
+    <row ht="15.75" r="39" spans="1:19" thickBot="1">
       <c r="A39" s="19"/>
       <c r="B39" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="56">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>250500001</v>
       </c>
       <c r="D39" s="56">
@@ -2245,22 +2245,22 @@
         <v>0</v>
       </c>
       <c r="P39" s="30">
-        <f t="shared" ref="P39" si="6">(L39-M39-O39+N39)+(K39*(100%-$C$33))</f>
+        <f ref="P39" si="6" t="shared">(L39-M39-O39+N39)+(K39*(100%-$C$33))</f>
         <v>0</v>
       </c>
       <c r="Q39" s="30">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
       <c r="R39" s="20"/>
     </row>
-    <row r="40" spans="1:19" ht="15.75" thickTop="1">
+    <row ht="15.75" r="40" spans="1:19" thickTop="1">
       <c r="A40" s="19"/>
       <c r="B40" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="56">
-        <f t="shared" si="5"/>
+        <f si="5" t="shared"/>
         <v>488000001</v>
       </c>
       <c r="D40" s="56">
@@ -2280,36 +2280,36 @@
         <v>31</v>
       </c>
       <c r="K40" s="16">
-        <f t="shared" ref="K40:Q40" si="7">SUM(K36:K39)</f>
+        <f ref="K40:Q40" si="7" t="shared">SUM(K36:K39)</f>
         <v>72830.460000000006</v>
       </c>
       <c r="L40" s="16">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>37542</v>
       </c>
       <c r="M40" s="16">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>1878</v>
       </c>
       <c r="N40" s="16">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>7509</v>
       </c>
       <c r="O40" s="16">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>376</v>
       </c>
       <c r="P40" s="16">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>80339</v>
       </c>
       <c r="Q40" s="16">
-        <f t="shared" si="7"/>
+        <f si="7" t="shared"/>
         <v>82593</v>
       </c>
       <c r="R40" s="20"/>
     </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="14.25" r="41" spans="1:19" thickBot="1">
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -2328,14 +2328,14 @@
       <c r="Q41" s="32"/>
       <c r="R41" s="33"/>
     </row>
-    <row r="42" spans="1:19" ht="14.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="14.25" r="42" spans="1:19" thickBot="1">
       <c r="A42" s="1"/>
       <c r="C42" s="17"/>
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="43" spans="1:19">
       <c r="A43" s="38"/>
       <c r="B43" s="39"/>
       <c r="C43" s="40"/>
@@ -2353,7 +2353,7 @@
       <c r="Q43" s="22"/>
       <c r="R43" s="23"/>
     </row>
-    <row r="44" spans="1:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="44" spans="1:19">
       <c r="A44" s="38"/>
       <c r="B44" s="39"/>
       <c r="C44" s="41"/>
@@ -2376,7 +2376,7 @@
       <c r="R44" s="20"/>
       <c r="S44" s="17"/>
     </row>
-    <row r="45" spans="1:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="45" spans="1:19">
       <c r="A45" s="44"/>
       <c r="B45" s="39"/>
       <c r="C45" s="41"/>
@@ -2397,7 +2397,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="17"/>
     </row>
-    <row r="46" spans="1:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="46" spans="1:19">
       <c r="A46" s="44"/>
       <c r="B46" s="39"/>
       <c r="C46" s="41"/>
@@ -2420,7 +2420,7 @@
       <c r="R46" s="20"/>
       <c r="S46" s="17"/>
     </row>
-    <row r="47" spans="1:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="47" spans="1:19">
       <c r="A47" s="44"/>
       <c r="B47" s="39"/>
       <c r="C47" s="41"/>
@@ -2455,7 +2455,7 @@
       <c r="R47" s="20"/>
       <c r="S47" s="17"/>
     </row>
-    <row r="48" spans="1:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="48" spans="1:19">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -2498,7 +2498,7 @@
       <c r="R48" s="34"/>
       <c r="S48" s="17"/>
     </row>
-    <row r="49" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="49" spans="2:19">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -2511,19 +2511,19 @@
         <v>28</v>
       </c>
       <c r="K49" s="17">
-        <f t="shared" ref="K49:K51" si="8">K37</f>
+        <f ref="K49:K51" si="8" t="shared">K37</f>
         <v>0</v>
       </c>
       <c r="L49" s="17">
-        <f t="shared" ref="L49:Q51" si="9">L37</f>
+        <f ref="L49:Q51" si="9" t="shared">L37</f>
         <v>0</v>
       </c>
       <c r="M49" s="17">
-        <f t="shared" ref="M49" si="10">M37+IF($C$3=1,(P37-K49))</f>
+        <f ref="M49" si="10" t="shared">M37+IF($C$3=1,(P37-K49))</f>
         <v>0</v>
       </c>
       <c r="N49" s="17">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>0</v>
       </c>
       <c r="O49" s="17">
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="Q49" s="17">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>0</v>
       </c>
       <c r="R49" s="20"/>
       <c r="S49" s="17"/>
     </row>
-    <row r="50" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="50" spans="2:19">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -2554,11 +2554,11 @@
         <v>29</v>
       </c>
       <c r="K50" s="17">
-        <f t="shared" si="8"/>
+        <f si="8" t="shared"/>
         <v>0</v>
       </c>
       <c r="L50" s="17">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>0</v>
       </c>
       <c r="M50" s="17">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="17">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>0</v>
       </c>
       <c r="O50" s="17">
@@ -2578,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="Q50" s="17">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>0</v>
       </c>
       <c r="R50" s="20"/>
       <c r="S50" s="17"/>
     </row>
-    <row r="51" spans="2:19" ht="14.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="14.25" r="51" spans="2:19" thickBot="1">
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -2593,19 +2593,19 @@
         <v>30</v>
       </c>
       <c r="K51" s="36">
-        <f t="shared" si="8"/>
+        <f si="8" t="shared"/>
         <v>0</v>
       </c>
       <c r="L51" s="36">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>0</v>
       </c>
       <c r="M51" s="36">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>0</v>
       </c>
       <c r="N51" s="36">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>0</v>
       </c>
       <c r="O51" s="36">
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="Q51" s="36">
-        <f t="shared" si="9"/>
+        <f si="9" t="shared"/>
         <v>0</v>
       </c>
       <c r="R51" s="20"/>
       <c r="S51" s="17"/>
     </row>
-    <row r="52" spans="2:19" ht="14.25" customHeight="1" thickTop="1">
+    <row customHeight="1" ht="14.25" r="52" spans="2:19" thickTop="1">
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
@@ -2632,37 +2632,37 @@
         <v>31</v>
       </c>
       <c r="K52" s="16">
-        <f t="shared" ref="K52:Q52" si="11">SUM(K48:K51)</f>
+        <f ref="K52:Q52" si="11" t="shared">SUM(K48:K51)</f>
         <v>72830.460000000006</v>
       </c>
       <c r="L52" s="16">
-        <f t="shared" si="11"/>
+        <f si="11" t="shared"/>
         <v>37542</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="11"/>
+        <f si="11" t="shared"/>
         <v>1878</v>
       </c>
       <c r="N52" s="16">
-        <f t="shared" si="11"/>
+        <f si="11" t="shared"/>
         <v>7509</v>
       </c>
       <c r="O52" s="16">
-        <f t="shared" si="11"/>
+        <f si="11" t="shared"/>
         <v>7884.5399999999936</v>
       </c>
       <c r="P52" s="16">
-        <f t="shared" si="11"/>
+        <f si="11" t="shared"/>
         <v>72830.460000000006</v>
       </c>
       <c r="Q52" s="16">
-        <f t="shared" si="11"/>
+        <f si="11" t="shared"/>
         <v>82593</v>
       </c>
       <c r="R52" s="20"/>
       <c r="S52" s="17"/>
     </row>
-    <row r="53" spans="2:19" ht="14.25" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="14.25" r="53" spans="2:19" thickBot="1">
       <c r="D53" s="17"/>
       <c r="I53" s="31"/>
       <c r="J53" s="32"/>
@@ -2676,7 +2676,7 @@
       <c r="R53" s="33"/>
       <c r="S53" s="17"/>
     </row>
-    <row r="54" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="54" spans="2:19">
       <c r="G54" s="17"/>
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
@@ -2689,7 +2689,7 @@
       <c r="R54" s="17"/>
       <c r="S54" s="17"/>
     </row>
-    <row r="55" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="55" spans="2:19">
       <c r="G55" s="17"/>
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
@@ -2702,7 +2702,7 @@
       <c r="R55" s="17"/>
       <c r="S55" s="17"/>
     </row>
-    <row r="56" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="56" spans="2:19">
       <c r="G56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
@@ -2715,7 +2715,7 @@
       <c r="R56" s="17"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="57" spans="2:19">
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
@@ -2726,7 +2726,7 @@
       <c r="R57" s="17"/>
       <c r="S57" s="17"/>
     </row>
-    <row r="58" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="58" spans="2:19">
       <c r="G58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
@@ -2739,7 +2739,7 @@
       <c r="R58" s="17"/>
       <c r="S58" s="17"/>
     </row>
-    <row r="59" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="59" spans="2:19">
       <c r="G59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
@@ -2752,37 +2752,37 @@
       <c r="R59" s="17"/>
       <c r="S59" s="17"/>
     </row>
-    <row r="60" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="60" spans="2:19">
       <c r="N60" s="17"/>
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
     </row>
-    <row r="61" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="61" spans="2:19">
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
       <c r="P61" s="17"/>
     </row>
-    <row r="62" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="62" spans="2:19">
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="N62" s="17"/>
       <c r="Q62" s="17"/>
     </row>
-    <row r="63" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="63" spans="2:19">
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="2:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="64" spans="2:19">
       <c r="K64" s="17"/>
       <c r="L64" s="17"/>
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="65" spans="10:32">
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
@@ -2791,35 +2791,35 @@
       <c r="P65" s="17"/>
       <c r="Q65" s="17"/>
     </row>
-    <row r="66" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="66" spans="10:32">
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
     </row>
-    <row r="67" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="67" spans="10:32">
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="68" spans="10:32">
       <c r="J68" s="17"/>
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
       <c r="Q68" s="17"/>
     </row>
-    <row r="69" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="69" spans="10:32">
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="10:32" ht="14.25" customHeight="1"/>
-    <row r="71" spans="10:32" ht="14.25" customHeight="1"/>
-    <row r="72" spans="10:32" ht="14.25" customHeight="1"/>
-    <row r="73" spans="10:32" ht="14.25" customHeight="1"/>
-    <row r="74" spans="10:32" ht="14.25" customHeight="1"/>
-    <row r="75" spans="10:32" ht="14.25" customHeight="1"/>
-    <row r="76" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="70" spans="10:32"/>
+    <row customHeight="1" ht="14.25" r="71" spans="10:32"/>
+    <row customHeight="1" ht="14.25" r="72" spans="10:32"/>
+    <row customHeight="1" ht="14.25" r="73" spans="10:32"/>
+    <row customHeight="1" ht="14.25" r="74" spans="10:32"/>
+    <row customHeight="1" ht="14.25" r="75" spans="10:32"/>
+    <row customHeight="1" ht="14.25" r="76" spans="10:32">
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -2844,7 +2844,7 @@
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
     </row>
-    <row r="77" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="77" spans="10:32">
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -2869,7 +2869,7 @@
       <c r="AE77" s="35"/>
       <c r="AF77" s="35"/>
     </row>
-    <row r="78" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="78" spans="10:32">
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -2894,7 +2894,7 @@
       <c r="AE78" s="35"/>
       <c r="AF78" s="35"/>
     </row>
-    <row r="79" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="79" spans="10:32">
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -2919,7 +2919,7 @@
       <c r="AE79" s="35"/>
       <c r="AF79" s="35"/>
     </row>
-    <row r="80" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="80" spans="10:32">
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -2944,7 +2944,7 @@
       <c r="AE80" s="35"/>
       <c r="AF80" s="35"/>
     </row>
-    <row r="81" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="81" spans="10:32">
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -2969,7 +2969,7 @@
       <c r="AE81" s="35"/>
       <c r="AF81" s="35"/>
     </row>
-    <row r="82" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="82" spans="10:32">
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -2994,7 +2994,7 @@
       <c r="AE82" s="35"/>
       <c r="AF82" s="35"/>
     </row>
-    <row r="83" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="83" spans="10:32">
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
@@ -3002,9 +3002,9 @@
       <c r="R83" s="17"/>
       <c r="S83" s="17"/>
     </row>
-    <row r="84" spans="10:32" ht="14.25" customHeight="1"/>
-    <row r="85" spans="10:32" ht="14.25" customHeight="1"/>
-    <row r="86" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="84" spans="10:32"/>
+    <row customHeight="1" ht="14.25" r="85" spans="10:32"/>
+    <row customHeight="1" ht="14.25" r="86" spans="10:32">
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
@@ -3015,7 +3015,7 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="87" spans="10:32">
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -3026,7 +3026,7 @@
       <c r="R87" s="35"/>
       <c r="S87" s="35"/>
     </row>
-    <row r="88" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="88" spans="10:32">
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
@@ -3037,7 +3037,7 @@
       <c r="R88" s="35"/>
       <c r="S88" s="35"/>
     </row>
-    <row r="89" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="89" spans="10:32">
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -3048,7 +3048,7 @@
       <c r="R89" s="35"/>
       <c r="S89" s="35"/>
     </row>
-    <row r="90" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="90" spans="10:32">
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -3059,7 +3059,7 @@
       <c r="R90" s="35"/>
       <c r="S90" s="35"/>
     </row>
-    <row r="91" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="91" spans="10:32">
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
@@ -3070,7 +3070,7 @@
       <c r="R91" s="35"/>
       <c r="S91" s="35"/>
     </row>
-    <row r="92" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="92" spans="10:32">
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -3081,7 +3081,7 @@
       <c r="R92" s="35"/>
       <c r="S92" s="35"/>
     </row>
-    <row r="93" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="93" spans="10:32">
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -3092,7 +3092,7 @@
       <c r="R93" s="35"/>
       <c r="S93" s="35"/>
     </row>
-    <row r="94" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="94" spans="10:32">
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -3103,7 +3103,7 @@
       <c r="R94" s="35"/>
       <c r="S94" s="35"/>
     </row>
-    <row r="95" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="95" spans="10:32">
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -3114,7 +3114,7 @@
       <c r="R95" s="35"/>
       <c r="S95" s="35"/>
     </row>
-    <row r="96" spans="10:32" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="96" spans="10:32">
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -3125,7 +3125,7 @@
       <c r="R96" s="35"/>
       <c r="S96" s="35"/>
     </row>
-    <row r="97" spans="11:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="97" spans="11:19">
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -3136,7 +3136,7 @@
       <c r="R97" s="35"/>
       <c r="S97" s="35"/>
     </row>
-    <row r="98" spans="11:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="98" spans="11:19">
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -3147,918 +3147,918 @@
       <c r="R98" s="35"/>
       <c r="S98" s="35"/>
     </row>
-    <row r="99" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="100" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="101" spans="11:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="99" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="100" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="101" spans="11:19">
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="11:19" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="102" spans="11:19">
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="104" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="105" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="106" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="107" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="108" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="109" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="110" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="111" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="112" spans="11:19" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row customHeight="1" ht="14.25" r="103" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="104" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="105" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="106" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="107" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="108" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="109" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="110" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="111" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="112" spans="11:19"/>
+    <row customHeight="1" ht="14.25" r="113"/>
+    <row customHeight="1" ht="14.25" r="114"/>
+    <row customHeight="1" ht="14.25" r="115"/>
+    <row customHeight="1" ht="14.25" r="116"/>
+    <row customHeight="1" ht="14.25" r="117"/>
+    <row customHeight="1" ht="14.25" r="118"/>
+    <row customHeight="1" ht="14.25" r="119"/>
+    <row customHeight="1" ht="14.25" r="120"/>
+    <row customHeight="1" ht="14.25" r="121"/>
+    <row customHeight="1" ht="14.25" r="122"/>
+    <row customHeight="1" ht="14.25" r="123"/>
+    <row customHeight="1" ht="14.25" r="124"/>
+    <row customHeight="1" ht="14.25" r="125"/>
+    <row customHeight="1" ht="14.25" r="126"/>
+    <row customHeight="1" ht="14.25" r="127"/>
+    <row customHeight="1" ht="14.25" r="128"/>
+    <row customHeight="1" ht="14.25" r="129"/>
+    <row customHeight="1" ht="14.25" r="130"/>
+    <row customHeight="1" ht="14.25" r="131"/>
+    <row customHeight="1" ht="14.25" r="132"/>
+    <row customHeight="1" ht="14.25" r="133"/>
+    <row customHeight="1" ht="14.25" r="134"/>
+    <row customHeight="1" ht="14.25" r="135"/>
+    <row customHeight="1" ht="14.25" r="136"/>
+    <row customHeight="1" ht="14.25" r="137"/>
+    <row customHeight="1" ht="14.25" r="138"/>
+    <row customHeight="1" ht="14.25" r="139"/>
+    <row customHeight="1" ht="14.25" r="140"/>
+    <row customHeight="1" ht="14.25" r="141"/>
+    <row customHeight="1" ht="14.25" r="142"/>
+    <row customHeight="1" ht="14.25" r="143"/>
+    <row customHeight="1" ht="14.25" r="144"/>
+    <row customHeight="1" ht="14.25" r="145"/>
+    <row customHeight="1" ht="14.25" r="146"/>
+    <row customHeight="1" ht="14.25" r="147"/>
+    <row customHeight="1" ht="14.25" r="148"/>
+    <row customHeight="1" ht="14.25" r="149"/>
+    <row customHeight="1" ht="14.25" r="150"/>
+    <row customHeight="1" ht="14.25" r="151"/>
+    <row customHeight="1" ht="14.25" r="152"/>
+    <row customHeight="1" ht="14.25" r="153"/>
+    <row customHeight="1" ht="14.25" r="154"/>
+    <row customHeight="1" ht="14.25" r="155"/>
+    <row customHeight="1" ht="14.25" r="156"/>
+    <row customHeight="1" ht="14.25" r="157"/>
+    <row customHeight="1" ht="14.25" r="158"/>
+    <row customHeight="1" ht="14.25" r="159"/>
+    <row customHeight="1" ht="14.25" r="160"/>
+    <row customHeight="1" ht="14.25" r="161"/>
+    <row customHeight="1" ht="14.25" r="162"/>
+    <row customHeight="1" ht="14.25" r="163"/>
+    <row customHeight="1" ht="14.25" r="164"/>
+    <row customHeight="1" ht="14.25" r="165"/>
+    <row customHeight="1" ht="14.25" r="166"/>
+    <row customHeight="1" ht="14.25" r="167"/>
+    <row customHeight="1" ht="14.25" r="168"/>
+    <row customHeight="1" ht="14.25" r="169"/>
+    <row customHeight="1" ht="14.25" r="170"/>
+    <row customHeight="1" ht="14.25" r="171"/>
+    <row customHeight="1" ht="14.25" r="172"/>
+    <row customHeight="1" ht="14.25" r="173"/>
+    <row customHeight="1" ht="14.25" r="174"/>
+    <row customHeight="1" ht="14.25" r="175"/>
+    <row customHeight="1" ht="14.25" r="176"/>
+    <row customHeight="1" ht="14.25" r="177"/>
+    <row customHeight="1" ht="14.25" r="178"/>
+    <row customHeight="1" ht="14.25" r="179"/>
+    <row customHeight="1" ht="14.25" r="180"/>
+    <row customHeight="1" ht="14.25" r="181"/>
+    <row customHeight="1" ht="14.25" r="182"/>
+    <row customHeight="1" ht="14.25" r="183"/>
+    <row customHeight="1" ht="14.25" r="184"/>
+    <row customHeight="1" ht="14.25" r="185"/>
+    <row customHeight="1" ht="14.25" r="186"/>
+    <row customHeight="1" ht="14.25" r="187"/>
+    <row customHeight="1" ht="14.25" r="188"/>
+    <row customHeight="1" ht="14.25" r="189"/>
+    <row customHeight="1" ht="14.25" r="190"/>
+    <row customHeight="1" ht="14.25" r="191"/>
+    <row customHeight="1" ht="14.25" r="192"/>
+    <row customHeight="1" ht="14.25" r="193"/>
+    <row customHeight="1" ht="14.25" r="194"/>
+    <row customHeight="1" ht="14.25" r="195"/>
+    <row customHeight="1" ht="14.25" r="196"/>
+    <row customHeight="1" ht="14.25" r="197"/>
+    <row customHeight="1" ht="14.25" r="198"/>
+    <row customHeight="1" ht="14.25" r="199"/>
+    <row customHeight="1" ht="14.25" r="200"/>
+    <row customHeight="1" ht="14.25" r="201"/>
+    <row customHeight="1" ht="14.25" r="202"/>
+    <row customHeight="1" ht="14.25" r="203"/>
+    <row customHeight="1" ht="14.25" r="204"/>
+    <row customHeight="1" ht="14.25" r="205"/>
+    <row customHeight="1" ht="14.25" r="206"/>
+    <row customHeight="1" ht="14.25" r="207"/>
+    <row customHeight="1" ht="14.25" r="208"/>
+    <row customHeight="1" ht="14.25" r="209"/>
+    <row customHeight="1" ht="14.25" r="210"/>
+    <row customHeight="1" ht="14.25" r="211"/>
+    <row customHeight="1" ht="14.25" r="212"/>
+    <row customHeight="1" ht="14.25" r="213"/>
+    <row customHeight="1" ht="14.25" r="214"/>
+    <row customHeight="1" ht="14.25" r="215"/>
+    <row customHeight="1" ht="14.25" r="216"/>
+    <row customHeight="1" ht="14.25" r="217"/>
+    <row customHeight="1" ht="14.25" r="218"/>
+    <row customHeight="1" ht="14.25" r="219"/>
+    <row customHeight="1" ht="14.25" r="220"/>
+    <row customHeight="1" ht="14.25" r="221"/>
+    <row customHeight="1" ht="14.25" r="222"/>
+    <row customHeight="1" ht="14.25" r="223"/>
+    <row customHeight="1" ht="14.25" r="224"/>
+    <row customHeight="1" ht="14.25" r="225"/>
+    <row customHeight="1" ht="14.25" r="226"/>
+    <row customHeight="1" ht="14.25" r="227"/>
+    <row customHeight="1" ht="14.25" r="228"/>
+    <row customHeight="1" ht="14.25" r="229"/>
+    <row customHeight="1" ht="14.25" r="230"/>
+    <row customHeight="1" ht="14.25" r="231"/>
+    <row customHeight="1" ht="14.25" r="232"/>
+    <row customHeight="1" ht="14.25" r="233"/>
+    <row customHeight="1" ht="14.25" r="234"/>
+    <row customHeight="1" ht="14.25" r="235"/>
+    <row customHeight="1" ht="14.25" r="236"/>
+    <row customHeight="1" ht="14.25" r="237"/>
+    <row customHeight="1" ht="14.25" r="238"/>
+    <row customHeight="1" ht="14.25" r="239"/>
+    <row customHeight="1" ht="14.25" r="240"/>
+    <row customHeight="1" ht="14.25" r="241"/>
+    <row customHeight="1" ht="14.25" r="242"/>
+    <row customHeight="1" ht="14.25" r="243"/>
+    <row customHeight="1" ht="14.25" r="244"/>
+    <row customHeight="1" ht="14.25" r="245"/>
+    <row customHeight="1" ht="14.25" r="246"/>
+    <row customHeight="1" ht="14.25" r="247"/>
+    <row customHeight="1" ht="14.25" r="248"/>
+    <row customHeight="1" ht="14.25" r="249"/>
+    <row customHeight="1" ht="14.25" r="250"/>
+    <row customHeight="1" ht="14.25" r="251"/>
+    <row customHeight="1" ht="14.25" r="252"/>
+    <row customHeight="1" ht="14.25" r="253"/>
+    <row customHeight="1" ht="14.25" r="254"/>
+    <row customHeight="1" ht="14.25" r="255"/>
+    <row customHeight="1" ht="14.25" r="256"/>
+    <row customHeight="1" ht="14.25" r="257"/>
+    <row customHeight="1" ht="14.25" r="258"/>
+    <row customHeight="1" ht="14.25" r="259"/>
+    <row customHeight="1" ht="14.25" r="260"/>
+    <row customHeight="1" ht="14.25" r="261"/>
+    <row customHeight="1" ht="14.25" r="262"/>
+    <row customHeight="1" ht="14.25" r="263"/>
+    <row customHeight="1" ht="14.25" r="264"/>
+    <row customHeight="1" ht="14.25" r="265"/>
+    <row customHeight="1" ht="14.25" r="266"/>
+    <row customHeight="1" ht="14.25" r="267"/>
+    <row customHeight="1" ht="14.25" r="268"/>
+    <row customHeight="1" ht="14.25" r="269"/>
+    <row customHeight="1" ht="14.25" r="270"/>
+    <row customHeight="1" ht="14.25" r="271"/>
+    <row customHeight="1" ht="14.25" r="272"/>
+    <row customHeight="1" ht="14.25" r="273"/>
+    <row customHeight="1" ht="14.25" r="274"/>
+    <row customHeight="1" ht="14.25" r="275"/>
+    <row customHeight="1" ht="14.25" r="276"/>
+    <row customHeight="1" ht="14.25" r="277"/>
+    <row customHeight="1" ht="14.25" r="278"/>
+    <row customHeight="1" ht="14.25" r="279"/>
+    <row customHeight="1" ht="14.25" r="280"/>
+    <row customHeight="1" ht="14.25" r="281"/>
+    <row customHeight="1" ht="14.25" r="282"/>
+    <row customHeight="1" ht="14.25" r="283"/>
+    <row customHeight="1" ht="14.25" r="284"/>
+    <row customHeight="1" ht="14.25" r="285"/>
+    <row customHeight="1" ht="14.25" r="286"/>
+    <row customHeight="1" ht="14.25" r="287"/>
+    <row customHeight="1" ht="14.25" r="288"/>
+    <row customHeight="1" ht="14.25" r="289"/>
+    <row customHeight="1" ht="14.25" r="290"/>
+    <row customHeight="1" ht="14.25" r="291"/>
+    <row customHeight="1" ht="14.25" r="292"/>
+    <row customHeight="1" ht="14.25" r="293"/>
+    <row customHeight="1" ht="14.25" r="294"/>
+    <row customHeight="1" ht="14.25" r="295"/>
+    <row customHeight="1" ht="14.25" r="296"/>
+    <row customHeight="1" ht="14.25" r="297"/>
+    <row customHeight="1" ht="14.25" r="298"/>
+    <row customHeight="1" ht="14.25" r="299"/>
+    <row customHeight="1" ht="14.25" r="300"/>
+    <row customHeight="1" ht="14.25" r="301"/>
+    <row customHeight="1" ht="14.25" r="302"/>
+    <row customHeight="1" ht="14.25" r="303"/>
+    <row customHeight="1" ht="14.25" r="304"/>
+    <row customHeight="1" ht="14.25" r="305"/>
+    <row customHeight="1" ht="14.25" r="306"/>
+    <row customHeight="1" ht="14.25" r="307"/>
+    <row customHeight="1" ht="14.25" r="308"/>
+    <row customHeight="1" ht="14.25" r="309"/>
+    <row customHeight="1" ht="14.25" r="310"/>
+    <row customHeight="1" ht="14.25" r="311"/>
+    <row customHeight="1" ht="14.25" r="312"/>
+    <row customHeight="1" ht="14.25" r="313"/>
+    <row customHeight="1" ht="14.25" r="314"/>
+    <row customHeight="1" ht="14.25" r="315"/>
+    <row customHeight="1" ht="14.25" r="316"/>
+    <row customHeight="1" ht="14.25" r="317"/>
+    <row customHeight="1" ht="14.25" r="318"/>
+    <row customHeight="1" ht="14.25" r="319"/>
+    <row customHeight="1" ht="14.25" r="320"/>
+    <row customHeight="1" ht="14.25" r="321"/>
+    <row customHeight="1" ht="14.25" r="322"/>
+    <row customHeight="1" ht="14.25" r="323"/>
+    <row customHeight="1" ht="14.25" r="324"/>
+    <row customHeight="1" ht="14.25" r="325"/>
+    <row customHeight="1" ht="14.25" r="326"/>
+    <row customHeight="1" ht="14.25" r="327"/>
+    <row customHeight="1" ht="14.25" r="328"/>
+    <row customHeight="1" ht="14.25" r="329"/>
+    <row customHeight="1" ht="14.25" r="330"/>
+    <row customHeight="1" ht="14.25" r="331"/>
+    <row customHeight="1" ht="14.25" r="332"/>
+    <row customHeight="1" ht="14.25" r="333"/>
+    <row customHeight="1" ht="14.25" r="334"/>
+    <row customHeight="1" ht="14.25" r="335"/>
+    <row customHeight="1" ht="14.25" r="336"/>
+    <row customHeight="1" ht="14.25" r="337"/>
+    <row customHeight="1" ht="14.25" r="338"/>
+    <row customHeight="1" ht="14.25" r="339"/>
+    <row customHeight="1" ht="14.25" r="340"/>
+    <row customHeight="1" ht="14.25" r="341"/>
+    <row customHeight="1" ht="14.25" r="342"/>
+    <row customHeight="1" ht="14.25" r="343"/>
+    <row customHeight="1" ht="14.25" r="344"/>
+    <row customHeight="1" ht="14.25" r="345"/>
+    <row customHeight="1" ht="14.25" r="346"/>
+    <row customHeight="1" ht="14.25" r="347"/>
+    <row customHeight="1" ht="14.25" r="348"/>
+    <row customHeight="1" ht="14.25" r="349"/>
+    <row customHeight="1" ht="14.25" r="350"/>
+    <row customHeight="1" ht="14.25" r="351"/>
+    <row customHeight="1" ht="14.25" r="352"/>
+    <row customHeight="1" ht="14.25" r="353"/>
+    <row customHeight="1" ht="14.25" r="354"/>
+    <row customHeight="1" ht="14.25" r="355"/>
+    <row customHeight="1" ht="14.25" r="356"/>
+    <row customHeight="1" ht="14.25" r="357"/>
+    <row customHeight="1" ht="14.25" r="358"/>
+    <row customHeight="1" ht="14.25" r="359"/>
+    <row customHeight="1" ht="14.25" r="360"/>
+    <row customHeight="1" ht="14.25" r="361"/>
+    <row customHeight="1" ht="14.25" r="362"/>
+    <row customHeight="1" ht="14.25" r="363"/>
+    <row customHeight="1" ht="14.25" r="364"/>
+    <row customHeight="1" ht="14.25" r="365"/>
+    <row customHeight="1" ht="14.25" r="366"/>
+    <row customHeight="1" ht="14.25" r="367"/>
+    <row customHeight="1" ht="14.25" r="368"/>
+    <row customHeight="1" ht="14.25" r="369"/>
+    <row customHeight="1" ht="14.25" r="370"/>
+    <row customHeight="1" ht="14.25" r="371"/>
+    <row customHeight="1" ht="14.25" r="372"/>
+    <row customHeight="1" ht="14.25" r="373"/>
+    <row customHeight="1" ht="14.25" r="374"/>
+    <row customHeight="1" ht="14.25" r="375"/>
+    <row customHeight="1" ht="14.25" r="376"/>
+    <row customHeight="1" ht="14.25" r="377"/>
+    <row customHeight="1" ht="14.25" r="378"/>
+    <row customHeight="1" ht="14.25" r="379"/>
+    <row customHeight="1" ht="14.25" r="380"/>
+    <row customHeight="1" ht="14.25" r="381"/>
+    <row customHeight="1" ht="14.25" r="382"/>
+    <row customHeight="1" ht="14.25" r="383"/>
+    <row customHeight="1" ht="14.25" r="384"/>
+    <row customHeight="1" ht="14.25" r="385"/>
+    <row customHeight="1" ht="14.25" r="386"/>
+    <row customHeight="1" ht="14.25" r="387"/>
+    <row customHeight="1" ht="14.25" r="388"/>
+    <row customHeight="1" ht="14.25" r="389"/>
+    <row customHeight="1" ht="14.25" r="390"/>
+    <row customHeight="1" ht="14.25" r="391"/>
+    <row customHeight="1" ht="14.25" r="392"/>
+    <row customHeight="1" ht="14.25" r="393"/>
+    <row customHeight="1" ht="14.25" r="394"/>
+    <row customHeight="1" ht="14.25" r="395"/>
+    <row customHeight="1" ht="14.25" r="396"/>
+    <row customHeight="1" ht="14.25" r="397"/>
+    <row customHeight="1" ht="14.25" r="398"/>
+    <row customHeight="1" ht="14.25" r="399"/>
+    <row customHeight="1" ht="14.25" r="400"/>
+    <row customHeight="1" ht="14.25" r="401"/>
+    <row customHeight="1" ht="14.25" r="402"/>
+    <row customHeight="1" ht="14.25" r="403"/>
+    <row customHeight="1" ht="14.25" r="404"/>
+    <row customHeight="1" ht="14.25" r="405"/>
+    <row customHeight="1" ht="14.25" r="406"/>
+    <row customHeight="1" ht="14.25" r="407"/>
+    <row customHeight="1" ht="14.25" r="408"/>
+    <row customHeight="1" ht="14.25" r="409"/>
+    <row customHeight="1" ht="14.25" r="410"/>
+    <row customHeight="1" ht="14.25" r="411"/>
+    <row customHeight="1" ht="14.25" r="412"/>
+    <row customHeight="1" ht="14.25" r="413"/>
+    <row customHeight="1" ht="14.25" r="414"/>
+    <row customHeight="1" ht="14.25" r="415"/>
+    <row customHeight="1" ht="14.25" r="416"/>
+    <row customHeight="1" ht="14.25" r="417"/>
+    <row customHeight="1" ht="14.25" r="418"/>
+    <row customHeight="1" ht="14.25" r="419"/>
+    <row customHeight="1" ht="14.25" r="420"/>
+    <row customHeight="1" ht="14.25" r="421"/>
+    <row customHeight="1" ht="14.25" r="422"/>
+    <row customHeight="1" ht="14.25" r="423"/>
+    <row customHeight="1" ht="14.25" r="424"/>
+    <row customHeight="1" ht="14.25" r="425"/>
+    <row customHeight="1" ht="14.25" r="426"/>
+    <row customHeight="1" ht="14.25" r="427"/>
+    <row customHeight="1" ht="14.25" r="428"/>
+    <row customHeight="1" ht="14.25" r="429"/>
+    <row customHeight="1" ht="14.25" r="430"/>
+    <row customHeight="1" ht="14.25" r="431"/>
+    <row customHeight="1" ht="14.25" r="432"/>
+    <row customHeight="1" ht="14.25" r="433"/>
+    <row customHeight="1" ht="14.25" r="434"/>
+    <row customHeight="1" ht="14.25" r="435"/>
+    <row customHeight="1" ht="14.25" r="436"/>
+    <row customHeight="1" ht="14.25" r="437"/>
+    <row customHeight="1" ht="14.25" r="438"/>
+    <row customHeight="1" ht="14.25" r="439"/>
+    <row customHeight="1" ht="14.25" r="440"/>
+    <row customHeight="1" ht="14.25" r="441"/>
+    <row customHeight="1" ht="14.25" r="442"/>
+    <row customHeight="1" ht="14.25" r="443"/>
+    <row customHeight="1" ht="14.25" r="444"/>
+    <row customHeight="1" ht="14.25" r="445"/>
+    <row customHeight="1" ht="14.25" r="446"/>
+    <row customHeight="1" ht="14.25" r="447"/>
+    <row customHeight="1" ht="14.25" r="448"/>
+    <row customHeight="1" ht="14.25" r="449"/>
+    <row customHeight="1" ht="14.25" r="450"/>
+    <row customHeight="1" ht="14.25" r="451"/>
+    <row customHeight="1" ht="14.25" r="452"/>
+    <row customHeight="1" ht="14.25" r="453"/>
+    <row customHeight="1" ht="14.25" r="454"/>
+    <row customHeight="1" ht="14.25" r="455"/>
+    <row customHeight="1" ht="14.25" r="456"/>
+    <row customHeight="1" ht="14.25" r="457"/>
+    <row customHeight="1" ht="14.25" r="458"/>
+    <row customHeight="1" ht="14.25" r="459"/>
+    <row customHeight="1" ht="14.25" r="460"/>
+    <row customHeight="1" ht="14.25" r="461"/>
+    <row customHeight="1" ht="14.25" r="462"/>
+    <row customHeight="1" ht="14.25" r="463"/>
+    <row customHeight="1" ht="14.25" r="464"/>
+    <row customHeight="1" ht="14.25" r="465"/>
+    <row customHeight="1" ht="14.25" r="466"/>
+    <row customHeight="1" ht="14.25" r="467"/>
+    <row customHeight="1" ht="14.25" r="468"/>
+    <row customHeight="1" ht="14.25" r="469"/>
+    <row customHeight="1" ht="14.25" r="470"/>
+    <row customHeight="1" ht="14.25" r="471"/>
+    <row customHeight="1" ht="14.25" r="472"/>
+    <row customHeight="1" ht="14.25" r="473"/>
+    <row customHeight="1" ht="14.25" r="474"/>
+    <row customHeight="1" ht="14.25" r="475"/>
+    <row customHeight="1" ht="14.25" r="476"/>
+    <row customHeight="1" ht="14.25" r="477"/>
+    <row customHeight="1" ht="14.25" r="478"/>
+    <row customHeight="1" ht="14.25" r="479"/>
+    <row customHeight="1" ht="14.25" r="480"/>
+    <row customHeight="1" ht="14.25" r="481"/>
+    <row customHeight="1" ht="14.25" r="482"/>
+    <row customHeight="1" ht="14.25" r="483"/>
+    <row customHeight="1" ht="14.25" r="484"/>
+    <row customHeight="1" ht="14.25" r="485"/>
+    <row customHeight="1" ht="14.25" r="486"/>
+    <row customHeight="1" ht="14.25" r="487"/>
+    <row customHeight="1" ht="14.25" r="488"/>
+    <row customHeight="1" ht="14.25" r="489"/>
+    <row customHeight="1" ht="14.25" r="490"/>
+    <row customHeight="1" ht="14.25" r="491"/>
+    <row customHeight="1" ht="14.25" r="492"/>
+    <row customHeight="1" ht="14.25" r="493"/>
+    <row customHeight="1" ht="14.25" r="494"/>
+    <row customHeight="1" ht="14.25" r="495"/>
+    <row customHeight="1" ht="14.25" r="496"/>
+    <row customHeight="1" ht="14.25" r="497"/>
+    <row customHeight="1" ht="14.25" r="498"/>
+    <row customHeight="1" ht="14.25" r="499"/>
+    <row customHeight="1" ht="14.25" r="500"/>
+    <row customHeight="1" ht="14.25" r="501"/>
+    <row customHeight="1" ht="14.25" r="502"/>
+    <row customHeight="1" ht="14.25" r="503"/>
+    <row customHeight="1" ht="14.25" r="504"/>
+    <row customHeight="1" ht="14.25" r="505"/>
+    <row customHeight="1" ht="14.25" r="506"/>
+    <row customHeight="1" ht="14.25" r="507"/>
+    <row customHeight="1" ht="14.25" r="508"/>
+    <row customHeight="1" ht="14.25" r="509"/>
+    <row customHeight="1" ht="14.25" r="510"/>
+    <row customHeight="1" ht="14.25" r="511"/>
+    <row customHeight="1" ht="14.25" r="512"/>
+    <row customHeight="1" ht="14.25" r="513"/>
+    <row customHeight="1" ht="14.25" r="514"/>
+    <row customHeight="1" ht="14.25" r="515"/>
+    <row customHeight="1" ht="14.25" r="516"/>
+    <row customHeight="1" ht="14.25" r="517"/>
+    <row customHeight="1" ht="14.25" r="518"/>
+    <row customHeight="1" ht="14.25" r="519"/>
+    <row customHeight="1" ht="14.25" r="520"/>
+    <row customHeight="1" ht="14.25" r="521"/>
+    <row customHeight="1" ht="14.25" r="522"/>
+    <row customHeight="1" ht="14.25" r="523"/>
+    <row customHeight="1" ht="14.25" r="524"/>
+    <row customHeight="1" ht="14.25" r="525"/>
+    <row customHeight="1" ht="14.25" r="526"/>
+    <row customHeight="1" ht="14.25" r="527"/>
+    <row customHeight="1" ht="14.25" r="528"/>
+    <row customHeight="1" ht="14.25" r="529"/>
+    <row customHeight="1" ht="14.25" r="530"/>
+    <row customHeight="1" ht="14.25" r="531"/>
+    <row customHeight="1" ht="14.25" r="532"/>
+    <row customHeight="1" ht="14.25" r="533"/>
+    <row customHeight="1" ht="14.25" r="534"/>
+    <row customHeight="1" ht="14.25" r="535"/>
+    <row customHeight="1" ht="14.25" r="536"/>
+    <row customHeight="1" ht="14.25" r="537"/>
+    <row customHeight="1" ht="14.25" r="538"/>
+    <row customHeight="1" ht="14.25" r="539"/>
+    <row customHeight="1" ht="14.25" r="540"/>
+    <row customHeight="1" ht="14.25" r="541"/>
+    <row customHeight="1" ht="14.25" r="542"/>
+    <row customHeight="1" ht="14.25" r="543"/>
+    <row customHeight="1" ht="14.25" r="544"/>
+    <row customHeight="1" ht="14.25" r="545"/>
+    <row customHeight="1" ht="14.25" r="546"/>
+    <row customHeight="1" ht="14.25" r="547"/>
+    <row customHeight="1" ht="14.25" r="548"/>
+    <row customHeight="1" ht="14.25" r="549"/>
+    <row customHeight="1" ht="14.25" r="550"/>
+    <row customHeight="1" ht="14.25" r="551"/>
+    <row customHeight="1" ht="14.25" r="552"/>
+    <row customHeight="1" ht="14.25" r="553"/>
+    <row customHeight="1" ht="14.25" r="554"/>
+    <row customHeight="1" ht="14.25" r="555"/>
+    <row customHeight="1" ht="14.25" r="556"/>
+    <row customHeight="1" ht="14.25" r="557"/>
+    <row customHeight="1" ht="14.25" r="558"/>
+    <row customHeight="1" ht="14.25" r="559"/>
+    <row customHeight="1" ht="14.25" r="560"/>
+    <row customHeight="1" ht="14.25" r="561"/>
+    <row customHeight="1" ht="14.25" r="562"/>
+    <row customHeight="1" ht="14.25" r="563"/>
+    <row customHeight="1" ht="14.25" r="564"/>
+    <row customHeight="1" ht="14.25" r="565"/>
+    <row customHeight="1" ht="14.25" r="566"/>
+    <row customHeight="1" ht="14.25" r="567"/>
+    <row customHeight="1" ht="14.25" r="568"/>
+    <row customHeight="1" ht="14.25" r="569"/>
+    <row customHeight="1" ht="14.25" r="570"/>
+    <row customHeight="1" ht="14.25" r="571"/>
+    <row customHeight="1" ht="14.25" r="572"/>
+    <row customHeight="1" ht="14.25" r="573"/>
+    <row customHeight="1" ht="14.25" r="574"/>
+    <row customHeight="1" ht="14.25" r="575"/>
+    <row customHeight="1" ht="14.25" r="576"/>
+    <row customHeight="1" ht="14.25" r="577"/>
+    <row customHeight="1" ht="14.25" r="578"/>
+    <row customHeight="1" ht="14.25" r="579"/>
+    <row customHeight="1" ht="14.25" r="580"/>
+    <row customHeight="1" ht="14.25" r="581"/>
+    <row customHeight="1" ht="14.25" r="582"/>
+    <row customHeight="1" ht="14.25" r="583"/>
+    <row customHeight="1" ht="14.25" r="584"/>
+    <row customHeight="1" ht="14.25" r="585"/>
+    <row customHeight="1" ht="14.25" r="586"/>
+    <row customHeight="1" ht="14.25" r="587"/>
+    <row customHeight="1" ht="14.25" r="588"/>
+    <row customHeight="1" ht="14.25" r="589"/>
+    <row customHeight="1" ht="14.25" r="590"/>
+    <row customHeight="1" ht="14.25" r="591"/>
+    <row customHeight="1" ht="14.25" r="592"/>
+    <row customHeight="1" ht="14.25" r="593"/>
+    <row customHeight="1" ht="14.25" r="594"/>
+    <row customHeight="1" ht="14.25" r="595"/>
+    <row customHeight="1" ht="14.25" r="596"/>
+    <row customHeight="1" ht="14.25" r="597"/>
+    <row customHeight="1" ht="14.25" r="598"/>
+    <row customHeight="1" ht="14.25" r="599"/>
+    <row customHeight="1" ht="14.25" r="600"/>
+    <row customHeight="1" ht="14.25" r="601"/>
+    <row customHeight="1" ht="14.25" r="602"/>
+    <row customHeight="1" ht="14.25" r="603"/>
+    <row customHeight="1" ht="14.25" r="604"/>
+    <row customHeight="1" ht="14.25" r="605"/>
+    <row customHeight="1" ht="14.25" r="606"/>
+    <row customHeight="1" ht="14.25" r="607"/>
+    <row customHeight="1" ht="14.25" r="608"/>
+    <row customHeight="1" ht="14.25" r="609"/>
+    <row customHeight="1" ht="14.25" r="610"/>
+    <row customHeight="1" ht="14.25" r="611"/>
+    <row customHeight="1" ht="14.25" r="612"/>
+    <row customHeight="1" ht="14.25" r="613"/>
+    <row customHeight="1" ht="14.25" r="614"/>
+    <row customHeight="1" ht="14.25" r="615"/>
+    <row customHeight="1" ht="14.25" r="616"/>
+    <row customHeight="1" ht="14.25" r="617"/>
+    <row customHeight="1" ht="14.25" r="618"/>
+    <row customHeight="1" ht="14.25" r="619"/>
+    <row customHeight="1" ht="14.25" r="620"/>
+    <row customHeight="1" ht="14.25" r="621"/>
+    <row customHeight="1" ht="14.25" r="622"/>
+    <row customHeight="1" ht="14.25" r="623"/>
+    <row customHeight="1" ht="14.25" r="624"/>
+    <row customHeight="1" ht="14.25" r="625"/>
+    <row customHeight="1" ht="14.25" r="626"/>
+    <row customHeight="1" ht="14.25" r="627"/>
+    <row customHeight="1" ht="14.25" r="628"/>
+    <row customHeight="1" ht="14.25" r="629"/>
+    <row customHeight="1" ht="14.25" r="630"/>
+    <row customHeight="1" ht="14.25" r="631"/>
+    <row customHeight="1" ht="14.25" r="632"/>
+    <row customHeight="1" ht="14.25" r="633"/>
+    <row customHeight="1" ht="14.25" r="634"/>
+    <row customHeight="1" ht="14.25" r="635"/>
+    <row customHeight="1" ht="14.25" r="636"/>
+    <row customHeight="1" ht="14.25" r="637"/>
+    <row customHeight="1" ht="14.25" r="638"/>
+    <row customHeight="1" ht="14.25" r="639"/>
+    <row customHeight="1" ht="14.25" r="640"/>
+    <row customHeight="1" ht="14.25" r="641"/>
+    <row customHeight="1" ht="14.25" r="642"/>
+    <row customHeight="1" ht="14.25" r="643"/>
+    <row customHeight="1" ht="14.25" r="644"/>
+    <row customHeight="1" ht="14.25" r="645"/>
+    <row customHeight="1" ht="14.25" r="646"/>
+    <row customHeight="1" ht="14.25" r="647"/>
+    <row customHeight="1" ht="14.25" r="648"/>
+    <row customHeight="1" ht="14.25" r="649"/>
+    <row customHeight="1" ht="14.25" r="650"/>
+    <row customHeight="1" ht="14.25" r="651"/>
+    <row customHeight="1" ht="14.25" r="652"/>
+    <row customHeight="1" ht="14.25" r="653"/>
+    <row customHeight="1" ht="14.25" r="654"/>
+    <row customHeight="1" ht="14.25" r="655"/>
+    <row customHeight="1" ht="14.25" r="656"/>
+    <row customHeight="1" ht="14.25" r="657"/>
+    <row customHeight="1" ht="14.25" r="658"/>
+    <row customHeight="1" ht="14.25" r="659"/>
+    <row customHeight="1" ht="14.25" r="660"/>
+    <row customHeight="1" ht="14.25" r="661"/>
+    <row customHeight="1" ht="14.25" r="662"/>
+    <row customHeight="1" ht="14.25" r="663"/>
+    <row customHeight="1" ht="14.25" r="664"/>
+    <row customHeight="1" ht="14.25" r="665"/>
+    <row customHeight="1" ht="14.25" r="666"/>
+    <row customHeight="1" ht="14.25" r="667"/>
+    <row customHeight="1" ht="14.25" r="668"/>
+    <row customHeight="1" ht="14.25" r="669"/>
+    <row customHeight="1" ht="14.25" r="670"/>
+    <row customHeight="1" ht="14.25" r="671"/>
+    <row customHeight="1" ht="14.25" r="672"/>
+    <row customHeight="1" ht="14.25" r="673"/>
+    <row customHeight="1" ht="14.25" r="674"/>
+    <row customHeight="1" ht="14.25" r="675"/>
+    <row customHeight="1" ht="14.25" r="676"/>
+    <row customHeight="1" ht="14.25" r="677"/>
+    <row customHeight="1" ht="14.25" r="678"/>
+    <row customHeight="1" ht="14.25" r="679"/>
+    <row customHeight="1" ht="14.25" r="680"/>
+    <row customHeight="1" ht="14.25" r="681"/>
+    <row customHeight="1" ht="14.25" r="682"/>
+    <row customHeight="1" ht="14.25" r="683"/>
+    <row customHeight="1" ht="14.25" r="684"/>
+    <row customHeight="1" ht="14.25" r="685"/>
+    <row customHeight="1" ht="14.25" r="686"/>
+    <row customHeight="1" ht="14.25" r="687"/>
+    <row customHeight="1" ht="14.25" r="688"/>
+    <row customHeight="1" ht="14.25" r="689"/>
+    <row customHeight="1" ht="14.25" r="690"/>
+    <row customHeight="1" ht="14.25" r="691"/>
+    <row customHeight="1" ht="14.25" r="692"/>
+    <row customHeight="1" ht="14.25" r="693"/>
+    <row customHeight="1" ht="14.25" r="694"/>
+    <row customHeight="1" ht="14.25" r="695"/>
+    <row customHeight="1" ht="14.25" r="696"/>
+    <row customHeight="1" ht="14.25" r="697"/>
+    <row customHeight="1" ht="14.25" r="698"/>
+    <row customHeight="1" ht="14.25" r="699"/>
+    <row customHeight="1" ht="14.25" r="700"/>
+    <row customHeight="1" ht="14.25" r="701"/>
+    <row customHeight="1" ht="14.25" r="702"/>
+    <row customHeight="1" ht="14.25" r="703"/>
+    <row customHeight="1" ht="14.25" r="704"/>
+    <row customHeight="1" ht="14.25" r="705"/>
+    <row customHeight="1" ht="14.25" r="706"/>
+    <row customHeight="1" ht="14.25" r="707"/>
+    <row customHeight="1" ht="14.25" r="708"/>
+    <row customHeight="1" ht="14.25" r="709"/>
+    <row customHeight="1" ht="14.25" r="710"/>
+    <row customHeight="1" ht="14.25" r="711"/>
+    <row customHeight="1" ht="14.25" r="712"/>
+    <row customHeight="1" ht="14.25" r="713"/>
+    <row customHeight="1" ht="14.25" r="714"/>
+    <row customHeight="1" ht="14.25" r="715"/>
+    <row customHeight="1" ht="14.25" r="716"/>
+    <row customHeight="1" ht="14.25" r="717"/>
+    <row customHeight="1" ht="14.25" r="718"/>
+    <row customHeight="1" ht="14.25" r="719"/>
+    <row customHeight="1" ht="14.25" r="720"/>
+    <row customHeight="1" ht="14.25" r="721"/>
+    <row customHeight="1" ht="14.25" r="722"/>
+    <row customHeight="1" ht="14.25" r="723"/>
+    <row customHeight="1" ht="14.25" r="724"/>
+    <row customHeight="1" ht="14.25" r="725"/>
+    <row customHeight="1" ht="14.25" r="726"/>
+    <row customHeight="1" ht="14.25" r="727"/>
+    <row customHeight="1" ht="14.25" r="728"/>
+    <row customHeight="1" ht="14.25" r="729"/>
+    <row customHeight="1" ht="14.25" r="730"/>
+    <row customHeight="1" ht="14.25" r="731"/>
+    <row customHeight="1" ht="14.25" r="732"/>
+    <row customHeight="1" ht="14.25" r="733"/>
+    <row customHeight="1" ht="14.25" r="734"/>
+    <row customHeight="1" ht="14.25" r="735"/>
+    <row customHeight="1" ht="14.25" r="736"/>
+    <row customHeight="1" ht="14.25" r="737"/>
+    <row customHeight="1" ht="14.25" r="738"/>
+    <row customHeight="1" ht="14.25" r="739"/>
+    <row customHeight="1" ht="14.25" r="740"/>
+    <row customHeight="1" ht="14.25" r="741"/>
+    <row customHeight="1" ht="14.25" r="742"/>
+    <row customHeight="1" ht="14.25" r="743"/>
+    <row customHeight="1" ht="14.25" r="744"/>
+    <row customHeight="1" ht="14.25" r="745"/>
+    <row customHeight="1" ht="14.25" r="746"/>
+    <row customHeight="1" ht="14.25" r="747"/>
+    <row customHeight="1" ht="14.25" r="748"/>
+    <row customHeight="1" ht="14.25" r="749"/>
+    <row customHeight="1" ht="14.25" r="750"/>
+    <row customHeight="1" ht="14.25" r="751"/>
+    <row customHeight="1" ht="14.25" r="752"/>
+    <row customHeight="1" ht="14.25" r="753"/>
+    <row customHeight="1" ht="14.25" r="754"/>
+    <row customHeight="1" ht="14.25" r="755"/>
+    <row customHeight="1" ht="14.25" r="756"/>
+    <row customHeight="1" ht="14.25" r="757"/>
+    <row customHeight="1" ht="14.25" r="758"/>
+    <row customHeight="1" ht="14.25" r="759"/>
+    <row customHeight="1" ht="14.25" r="760"/>
+    <row customHeight="1" ht="14.25" r="761"/>
+    <row customHeight="1" ht="14.25" r="762"/>
+    <row customHeight="1" ht="14.25" r="763"/>
+    <row customHeight="1" ht="14.25" r="764"/>
+    <row customHeight="1" ht="14.25" r="765"/>
+    <row customHeight="1" ht="14.25" r="766"/>
+    <row customHeight="1" ht="14.25" r="767"/>
+    <row customHeight="1" ht="14.25" r="768"/>
+    <row customHeight="1" ht="14.25" r="769"/>
+    <row customHeight="1" ht="14.25" r="770"/>
+    <row customHeight="1" ht="14.25" r="771"/>
+    <row customHeight="1" ht="14.25" r="772"/>
+    <row customHeight="1" ht="14.25" r="773"/>
+    <row customHeight="1" ht="14.25" r="774"/>
+    <row customHeight="1" ht="14.25" r="775"/>
+    <row customHeight="1" ht="14.25" r="776"/>
+    <row customHeight="1" ht="14.25" r="777"/>
+    <row customHeight="1" ht="14.25" r="778"/>
+    <row customHeight="1" ht="14.25" r="779"/>
+    <row customHeight="1" ht="14.25" r="780"/>
+    <row customHeight="1" ht="14.25" r="781"/>
+    <row customHeight="1" ht="14.25" r="782"/>
+    <row customHeight="1" ht="14.25" r="783"/>
+    <row customHeight="1" ht="14.25" r="784"/>
+    <row customHeight="1" ht="14.25" r="785"/>
+    <row customHeight="1" ht="14.25" r="786"/>
+    <row customHeight="1" ht="14.25" r="787"/>
+    <row customHeight="1" ht="14.25" r="788"/>
+    <row customHeight="1" ht="14.25" r="789"/>
+    <row customHeight="1" ht="14.25" r="790"/>
+    <row customHeight="1" ht="14.25" r="791"/>
+    <row customHeight="1" ht="14.25" r="792"/>
+    <row customHeight="1" ht="14.25" r="793"/>
+    <row customHeight="1" ht="14.25" r="794"/>
+    <row customHeight="1" ht="14.25" r="795"/>
+    <row customHeight="1" ht="14.25" r="796"/>
+    <row customHeight="1" ht="14.25" r="797"/>
+    <row customHeight="1" ht="14.25" r="798"/>
+    <row customHeight="1" ht="14.25" r="799"/>
+    <row customHeight="1" ht="14.25" r="800"/>
+    <row customHeight="1" ht="14.25" r="801"/>
+    <row customHeight="1" ht="14.25" r="802"/>
+    <row customHeight="1" ht="14.25" r="803"/>
+    <row customHeight="1" ht="14.25" r="804"/>
+    <row customHeight="1" ht="14.25" r="805"/>
+    <row customHeight="1" ht="14.25" r="806"/>
+    <row customHeight="1" ht="14.25" r="807"/>
+    <row customHeight="1" ht="14.25" r="808"/>
+    <row customHeight="1" ht="14.25" r="809"/>
+    <row customHeight="1" ht="14.25" r="810"/>
+    <row customHeight="1" ht="14.25" r="811"/>
+    <row customHeight="1" ht="14.25" r="812"/>
+    <row customHeight="1" ht="14.25" r="813"/>
+    <row customHeight="1" ht="14.25" r="814"/>
+    <row customHeight="1" ht="14.25" r="815"/>
+    <row customHeight="1" ht="14.25" r="816"/>
+    <row customHeight="1" ht="14.25" r="817"/>
+    <row customHeight="1" ht="14.25" r="818"/>
+    <row customHeight="1" ht="14.25" r="819"/>
+    <row customHeight="1" ht="14.25" r="820"/>
+    <row customHeight="1" ht="14.25" r="821"/>
+    <row customHeight="1" ht="14.25" r="822"/>
+    <row customHeight="1" ht="14.25" r="823"/>
+    <row customHeight="1" ht="14.25" r="824"/>
+    <row customHeight="1" ht="14.25" r="825"/>
+    <row customHeight="1" ht="14.25" r="826"/>
+    <row customHeight="1" ht="14.25" r="827"/>
+    <row customHeight="1" ht="14.25" r="828"/>
+    <row customHeight="1" ht="14.25" r="829"/>
+    <row customHeight="1" ht="14.25" r="830"/>
+    <row customHeight="1" ht="14.25" r="831"/>
+    <row customHeight="1" ht="14.25" r="832"/>
+    <row customHeight="1" ht="14.25" r="833"/>
+    <row customHeight="1" ht="14.25" r="834"/>
+    <row customHeight="1" ht="14.25" r="835"/>
+    <row customHeight="1" ht="14.25" r="836"/>
+    <row customHeight="1" ht="14.25" r="837"/>
+    <row customHeight="1" ht="14.25" r="838"/>
+    <row customHeight="1" ht="14.25" r="839"/>
+    <row customHeight="1" ht="14.25" r="840"/>
+    <row customHeight="1" ht="14.25" r="841"/>
+    <row customHeight="1" ht="14.25" r="842"/>
+    <row customHeight="1" ht="14.25" r="843"/>
+    <row customHeight="1" ht="14.25" r="844"/>
+    <row customHeight="1" ht="14.25" r="845"/>
+    <row customHeight="1" ht="14.25" r="846"/>
+    <row customHeight="1" ht="14.25" r="847"/>
+    <row customHeight="1" ht="14.25" r="848"/>
+    <row customHeight="1" ht="14.25" r="849"/>
+    <row customHeight="1" ht="14.25" r="850"/>
+    <row customHeight="1" ht="14.25" r="851"/>
+    <row customHeight="1" ht="14.25" r="852"/>
+    <row customHeight="1" ht="14.25" r="853"/>
+    <row customHeight="1" ht="14.25" r="854"/>
+    <row customHeight="1" ht="14.25" r="855"/>
+    <row customHeight="1" ht="14.25" r="856"/>
+    <row customHeight="1" ht="14.25" r="857"/>
+    <row customHeight="1" ht="14.25" r="858"/>
+    <row customHeight="1" ht="14.25" r="859"/>
+    <row customHeight="1" ht="14.25" r="860"/>
+    <row customHeight="1" ht="14.25" r="861"/>
+    <row customHeight="1" ht="14.25" r="862"/>
+    <row customHeight="1" ht="14.25" r="863"/>
+    <row customHeight="1" ht="14.25" r="864"/>
+    <row customHeight="1" ht="14.25" r="865"/>
+    <row customHeight="1" ht="14.25" r="866"/>
+    <row customHeight="1" ht="14.25" r="867"/>
+    <row customHeight="1" ht="14.25" r="868"/>
+    <row customHeight="1" ht="14.25" r="869"/>
+    <row customHeight="1" ht="14.25" r="870"/>
+    <row customHeight="1" ht="14.25" r="871"/>
+    <row customHeight="1" ht="14.25" r="872"/>
+    <row customHeight="1" ht="14.25" r="873"/>
+    <row customHeight="1" ht="14.25" r="874"/>
+    <row customHeight="1" ht="14.25" r="875"/>
+    <row customHeight="1" ht="14.25" r="876"/>
+    <row customHeight="1" ht="14.25" r="877"/>
+    <row customHeight="1" ht="14.25" r="878"/>
+    <row customHeight="1" ht="14.25" r="879"/>
+    <row customHeight="1" ht="14.25" r="880"/>
+    <row customHeight="1" ht="14.25" r="881"/>
+    <row customHeight="1" ht="14.25" r="882"/>
+    <row customHeight="1" ht="14.25" r="883"/>
+    <row customHeight="1" ht="14.25" r="884"/>
+    <row customHeight="1" ht="14.25" r="885"/>
+    <row customHeight="1" ht="14.25" r="886"/>
+    <row customHeight="1" ht="14.25" r="887"/>
+    <row customHeight="1" ht="14.25" r="888"/>
+    <row customHeight="1" ht="14.25" r="889"/>
+    <row customHeight="1" ht="14.25" r="890"/>
+    <row customHeight="1" ht="14.25" r="891"/>
+    <row customHeight="1" ht="14.25" r="892"/>
+    <row customHeight="1" ht="14.25" r="893"/>
+    <row customHeight="1" ht="14.25" r="894"/>
+    <row customHeight="1" ht="14.25" r="895"/>
+    <row customHeight="1" ht="14.25" r="896"/>
+    <row customHeight="1" ht="14.25" r="897"/>
+    <row customHeight="1" ht="14.25" r="898"/>
+    <row customHeight="1" ht="14.25" r="899"/>
+    <row customHeight="1" ht="14.25" r="900"/>
+    <row customHeight="1" ht="14.25" r="901"/>
+    <row customHeight="1" ht="14.25" r="902"/>
+    <row customHeight="1" ht="14.25" r="903"/>
+    <row customHeight="1" ht="14.25" r="904"/>
+    <row customHeight="1" ht="14.25" r="905"/>
+    <row customHeight="1" ht="14.25" r="906"/>
+    <row customHeight="1" ht="14.25" r="907"/>
+    <row customHeight="1" ht="14.25" r="908"/>
+    <row customHeight="1" ht="14.25" r="909"/>
+    <row customHeight="1" ht="14.25" r="910"/>
+    <row customHeight="1" ht="14.25" r="911"/>
+    <row customHeight="1" ht="14.25" r="912"/>
+    <row customHeight="1" ht="14.25" r="913"/>
+    <row customHeight="1" ht="14.25" r="914"/>
+    <row customHeight="1" ht="14.25" r="915"/>
+    <row customHeight="1" ht="14.25" r="916"/>
+    <row customHeight="1" ht="14.25" r="917"/>
+    <row customHeight="1" ht="14.25" r="918"/>
+    <row customHeight="1" ht="14.25" r="919"/>
+    <row customHeight="1" ht="14.25" r="920"/>
+    <row customHeight="1" ht="14.25" r="921"/>
+    <row customHeight="1" ht="14.25" r="922"/>
+    <row customHeight="1" ht="14.25" r="923"/>
+    <row customHeight="1" ht="14.25" r="924"/>
+    <row customHeight="1" ht="14.25" r="925"/>
+    <row customHeight="1" ht="14.25" r="926"/>
+    <row customHeight="1" ht="14.25" r="927"/>
+    <row customHeight="1" ht="14.25" r="928"/>
+    <row customHeight="1" ht="14.25" r="929"/>
+    <row customHeight="1" ht="14.25" r="930"/>
+    <row customHeight="1" ht="14.25" r="931"/>
+    <row customHeight="1" ht="14.25" r="932"/>
+    <row customHeight="1" ht="14.25" r="933"/>
+    <row customHeight="1" ht="14.25" r="934"/>
+    <row customHeight="1" ht="14.25" r="935"/>
+    <row customHeight="1" ht="14.25" r="936"/>
+    <row customHeight="1" ht="14.25" r="937"/>
+    <row customHeight="1" ht="14.25" r="938"/>
+    <row customHeight="1" ht="14.25" r="939"/>
+    <row customHeight="1" ht="14.25" r="940"/>
+    <row customHeight="1" ht="14.25" r="941"/>
+    <row customHeight="1" ht="14.25" r="942"/>
+    <row customHeight="1" ht="14.25" r="943"/>
+    <row customHeight="1" ht="14.25" r="944"/>
+    <row customHeight="1" ht="14.25" r="945"/>
+    <row customHeight="1" ht="14.25" r="946"/>
+    <row customHeight="1" ht="14.25" r="947"/>
+    <row customHeight="1" ht="14.25" r="948"/>
+    <row customHeight="1" ht="14.25" r="949"/>
+    <row customHeight="1" ht="14.25" r="950"/>
+    <row customHeight="1" ht="14.25" r="951"/>
+    <row customHeight="1" ht="14.25" r="952"/>
+    <row customHeight="1" ht="14.25" r="953"/>
+    <row customHeight="1" ht="14.25" r="954"/>
+    <row customHeight="1" ht="14.25" r="955"/>
+    <row customHeight="1" ht="14.25" r="956"/>
+    <row customHeight="1" ht="14.25" r="957"/>
+    <row customHeight="1" ht="14.25" r="958"/>
+    <row customHeight="1" ht="14.25" r="959"/>
+    <row customHeight="1" ht="14.25" r="960"/>
+    <row customHeight="1" ht="14.25" r="961"/>
+    <row customHeight="1" ht="14.25" r="962"/>
+    <row customHeight="1" ht="14.25" r="963"/>
+    <row customHeight="1" ht="14.25" r="964"/>
+    <row customHeight="1" ht="14.25" r="965"/>
+    <row customHeight="1" ht="14.25" r="966"/>
+    <row customHeight="1" ht="14.25" r="967"/>
+    <row customHeight="1" ht="14.25" r="968"/>
+    <row customHeight="1" ht="14.25" r="969"/>
+    <row customHeight="1" ht="14.25" r="970"/>
+    <row customHeight="1" ht="14.25" r="971"/>
+    <row customHeight="1" ht="14.25" r="972"/>
+    <row customHeight="1" ht="14.25" r="973"/>
+    <row customHeight="1" ht="14.25" r="974"/>
+    <row customHeight="1" ht="14.25" r="975"/>
+    <row customHeight="1" ht="14.25" r="976"/>
+    <row customHeight="1" ht="14.25" r="977"/>
+    <row customHeight="1" ht="14.25" r="978"/>
+    <row customHeight="1" ht="14.25" r="979"/>
+    <row customHeight="1" ht="14.25" r="980"/>
+    <row customHeight="1" ht="14.25" r="981"/>
+    <row customHeight="1" ht="14.25" r="982"/>
+    <row customHeight="1" ht="14.25" r="983"/>
+    <row customHeight="1" ht="14.25" r="984"/>
+    <row customHeight="1" ht="14.25" r="985"/>
+    <row customHeight="1" ht="14.25" r="986"/>
+    <row customHeight="1" ht="14.25" r="987"/>
+    <row customHeight="1" ht="14.25" r="988"/>
+    <row customHeight="1" ht="14.25" r="989"/>
+    <row customHeight="1" ht="14.25" r="990"/>
+    <row customHeight="1" ht="14.25" r="991"/>
+    <row customHeight="1" ht="14.25" r="992"/>
+    <row customHeight="1" ht="14.25" r="993"/>
+    <row customHeight="1" ht="14.25" r="994"/>
+    <row customHeight="1" ht="14.25" r="995"/>
+    <row customHeight="1" ht="14.25" r="996"/>
+    <row customHeight="1" ht="14.25" r="997"/>
+    <row customHeight="1" ht="14.25" r="998"/>
+    <row customHeight="1" ht="14.25" r="999"/>
+    <row customHeight="1" ht="14.25" r="1000"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4067,58 +4067,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="7.625" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="12.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="26" width="7.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="7.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.75" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.75" collapsed="true"/>
+    <col min="8" max="10" customWidth="true" width="7.625" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.75" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.25" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="18" max="26" customWidth="true" width="7.625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.25" customHeight="1"/>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="1" spans="1:18"/>
+    <row customHeight="1" ht="14.25" r="2" spans="1:18">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59">
-        <v>16356.44</v>
+      <c r="C2" t="n">
+        <v>22955.0</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="3" spans="1:18">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="4" spans="1:18">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>0.0</v>
       </c>
       <c r="D4" s="17"/>
       <c r="G4" s="63"/>
@@ -4126,7 +4126,7 @@
       <c r="I4" s="65"/>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="5" spans="1:18">
       <c r="D5" s="17">
         <v>0</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="6" spans="1:18">
       <c r="B6" s="60" t="s">
         <v>3</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="7" spans="1:18">
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
@@ -4159,7 +4159,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="8" spans="1:18">
       <c r="B8" s="6" t="s">
         <v>58</v>
       </c>
@@ -4182,7 +4182,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="9" spans="1:18">
       <c r="B9" s="6"/>
       <c r="C9" s="51"/>
       <c r="D9" s="6"/>
@@ -4192,7 +4192,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="10" spans="1:18">
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
@@ -4212,7 +4212,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="11" spans="1:18">
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="12" spans="1:18">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -4255,7 +4255,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="13" spans="1:18">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
@@ -4278,7 +4278,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="14" spans="1:18">
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -4301,8 +4301,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:18" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="15" spans="1:18"/>
+    <row customHeight="1" ht="14.25" r="16" spans="1:18">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -4321,7 +4321,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="17" spans="1:18">
       <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>35</v>
@@ -4344,7 +4344,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="20"/>
     </row>
-    <row r="18" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="18" spans="1:18">
       <c r="A18" s="19"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4363,7 +4363,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="20"/>
     </row>
-    <row r="19" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="19" spans="1:18">
       <c r="A19" s="19"/>
       <c r="B19" s="8" t="s">
         <v>12</v>
@@ -4394,7 +4394,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="20"/>
     </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="20" spans="1:18">
       <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="R20" s="20"/>
     </row>
-    <row r="21" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="21" spans="1:18">
       <c r="A21" s="19"/>
       <c r="B21" s="12" t="s">
         <v>36</v>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="R21" s="20"/>
     </row>
-    <row r="22" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="22" spans="1:18">
       <c r="A22" s="19"/>
       <c r="B22" s="11"/>
       <c r="C22" s="13" t="s">
@@ -4497,36 +4497,36 @@
         <v>31</v>
       </c>
       <c r="K22" s="16">
-        <f t="shared" ref="K22:Q22" si="0">SUM(K21)</f>
+        <f ref="K22:Q22" si="0" t="shared">SUM(K21)</f>
         <v>16356.44</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>16356.44</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>327.12880000000001</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>16029.3112</v>
       </c>
       <c r="Q22" s="16">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>16356.44</v>
       </c>
       <c r="R22" s="20"/>
     </row>
-    <row r="23" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="23" spans="1:18">
       <c r="A23" s="19"/>
       <c r="B23" s="15" t="s">
         <v>27</v>
@@ -4559,7 +4559,7 @@
       <c r="Q23" s="32"/>
       <c r="R23" s="33"/>
     </row>
-    <row r="24" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="24" spans="1:18">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4568,7 +4568,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="33"/>
     </row>
-    <row r="25" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="25" spans="1:18">
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
@@ -4580,7 +4580,7 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="23"/>
     </row>
-    <row r="26" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="26" spans="1:18">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -4601,7 +4601,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="20"/>
     </row>
-    <row r="27" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="27" spans="1:18">
       <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>37</v>
@@ -4622,7 +4622,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="20"/>
     </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="28" spans="1:18">
       <c r="A28" s="19"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4643,7 +4643,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="20"/>
     </row>
-    <row r="29" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="29" spans="1:18">
       <c r="A29" s="19"/>
       <c r="B29" s="12" t="s">
         <v>36</v>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="R29" s="20"/>
     </row>
-    <row r="30" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="30" spans="1:18">
       <c r="A30" s="19"/>
       <c r="B30" s="11"/>
       <c r="C30" s="13" t="s">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="R30" s="20"/>
     </row>
-    <row r="31" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="31" spans="1:18">
       <c r="A31" s="19"/>
       <c r="B31" s="15" t="s">
         <v>27</v>
@@ -4755,36 +4755,36 @@
         <v>31</v>
       </c>
       <c r="K31" s="16">
-        <f t="shared" ref="K31:Q31" si="1">SUM(K30)</f>
+        <f ref="K31:Q31" si="1" t="shared">SUM(K30)</f>
         <v>16356.44</v>
       </c>
       <c r="L31" s="16">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>16691</v>
       </c>
       <c r="M31" s="16">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>334</v>
       </c>
       <c r="N31" s="16">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="O31" s="16">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="P31" s="16">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>16357</v>
       </c>
       <c r="Q31" s="16">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>16691</v>
       </c>
       <c r="R31" s="20"/>
     </row>
-    <row r="32" spans="1:18" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="32" spans="1:18">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -4803,977 +4803,977 @@
       <c r="Q32" s="32"/>
       <c r="R32" s="33"/>
     </row>
-    <row r="33" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="34" spans="11:12" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="33" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="34" spans="11:12">
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
     </row>
-    <row r="35" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="36" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="37" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="38" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="39" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="40" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="41" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="42" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="43" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="44" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="45" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="46" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="47" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="48" spans="11:12" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row customHeight="1" ht="14.25" r="35" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="36" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="37" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="38" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="39" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="40" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="41" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="42" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="43" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="44" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="45" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="46" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="47" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="48" spans="11:12"/>
+    <row customHeight="1" ht="14.25" r="49"/>
+    <row customHeight="1" ht="14.25" r="50"/>
+    <row customHeight="1" ht="14.25" r="51"/>
+    <row customHeight="1" ht="14.25" r="52"/>
+    <row customHeight="1" ht="14.25" r="53"/>
+    <row customHeight="1" ht="14.25" r="54"/>
+    <row customHeight="1" ht="14.25" r="55"/>
+    <row customHeight="1" ht="14.25" r="56"/>
+    <row customHeight="1" ht="14.25" r="57"/>
+    <row customHeight="1" ht="14.25" r="58"/>
+    <row customHeight="1" ht="14.25" r="59"/>
+    <row customHeight="1" ht="14.25" r="60"/>
+    <row customHeight="1" ht="14.25" r="61"/>
+    <row customHeight="1" ht="14.25" r="62"/>
+    <row customHeight="1" ht="14.25" r="63"/>
+    <row customHeight="1" ht="14.25" r="64"/>
+    <row customHeight="1" ht="14.25" r="65"/>
+    <row customHeight="1" ht="14.25" r="66"/>
+    <row customHeight="1" ht="14.25" r="67"/>
+    <row customHeight="1" ht="14.25" r="68"/>
+    <row customHeight="1" ht="14.25" r="69"/>
+    <row customHeight="1" ht="14.25" r="70"/>
+    <row customHeight="1" ht="14.25" r="71"/>
+    <row customHeight="1" ht="14.25" r="72"/>
+    <row customHeight="1" ht="14.25" r="73"/>
+    <row customHeight="1" ht="14.25" r="74"/>
+    <row customHeight="1" ht="14.25" r="75"/>
+    <row customHeight="1" ht="14.25" r="76"/>
+    <row customHeight="1" ht="14.25" r="77"/>
+    <row customHeight="1" ht="14.25" r="78"/>
+    <row customHeight="1" ht="14.25" r="79"/>
+    <row customHeight="1" ht="14.25" r="80"/>
+    <row customHeight="1" ht="14.25" r="81"/>
+    <row customHeight="1" ht="14.25" r="82"/>
+    <row customHeight="1" ht="14.25" r="83"/>
+    <row customHeight="1" ht="14.25" r="84"/>
+    <row customHeight="1" ht="14.25" r="85"/>
+    <row customHeight="1" ht="14.25" r="86"/>
+    <row customHeight="1" ht="14.25" r="87"/>
+    <row customHeight="1" ht="14.25" r="88"/>
+    <row customHeight="1" ht="14.25" r="89"/>
+    <row customHeight="1" ht="14.25" r="90"/>
+    <row customHeight="1" ht="14.25" r="91"/>
+    <row customHeight="1" ht="14.25" r="92"/>
+    <row customHeight="1" ht="14.25" r="93"/>
+    <row customHeight="1" ht="14.25" r="94"/>
+    <row customHeight="1" ht="14.25" r="95"/>
+    <row customHeight="1" ht="14.25" r="96"/>
+    <row customHeight="1" ht="14.25" r="97"/>
+    <row customHeight="1" ht="14.25" r="98"/>
+    <row customHeight="1" ht="14.25" r="99"/>
+    <row customHeight="1" ht="14.25" r="100"/>
+    <row customHeight="1" ht="14.25" r="101"/>
+    <row customHeight="1" ht="14.25" r="102"/>
+    <row customHeight="1" ht="14.25" r="103"/>
+    <row customHeight="1" ht="14.25" r="104"/>
+    <row customHeight="1" ht="14.25" r="105"/>
+    <row customHeight="1" ht="14.25" r="106"/>
+    <row customHeight="1" ht="14.25" r="107"/>
+    <row customHeight="1" ht="14.25" r="108"/>
+    <row customHeight="1" ht="14.25" r="109"/>
+    <row customHeight="1" ht="14.25" r="110"/>
+    <row customHeight="1" ht="14.25" r="111"/>
+    <row customHeight="1" ht="14.25" r="112"/>
+    <row customHeight="1" ht="14.25" r="113"/>
+    <row customHeight="1" ht="14.25" r="114"/>
+    <row customHeight="1" ht="14.25" r="115"/>
+    <row customHeight="1" ht="14.25" r="116"/>
+    <row customHeight="1" ht="14.25" r="117"/>
+    <row customHeight="1" ht="14.25" r="118"/>
+    <row customHeight="1" ht="14.25" r="119"/>
+    <row customHeight="1" ht="14.25" r="120"/>
+    <row customHeight="1" ht="14.25" r="121"/>
+    <row customHeight="1" ht="14.25" r="122"/>
+    <row customHeight="1" ht="14.25" r="123"/>
+    <row customHeight="1" ht="14.25" r="124"/>
+    <row customHeight="1" ht="14.25" r="125"/>
+    <row customHeight="1" ht="14.25" r="126"/>
+    <row customHeight="1" ht="14.25" r="127"/>
+    <row customHeight="1" ht="14.25" r="128"/>
+    <row customHeight="1" ht="14.25" r="129"/>
+    <row customHeight="1" ht="14.25" r="130"/>
+    <row customHeight="1" ht="14.25" r="131"/>
+    <row customHeight="1" ht="14.25" r="132"/>
+    <row customHeight="1" ht="14.25" r="133"/>
+    <row customHeight="1" ht="14.25" r="134"/>
+    <row customHeight="1" ht="14.25" r="135"/>
+    <row customHeight="1" ht="14.25" r="136"/>
+    <row customHeight="1" ht="14.25" r="137"/>
+    <row customHeight="1" ht="14.25" r="138"/>
+    <row customHeight="1" ht="14.25" r="139"/>
+    <row customHeight="1" ht="14.25" r="140"/>
+    <row customHeight="1" ht="14.25" r="141"/>
+    <row customHeight="1" ht="14.25" r="142"/>
+    <row customHeight="1" ht="14.25" r="143"/>
+    <row customHeight="1" ht="14.25" r="144"/>
+    <row customHeight="1" ht="14.25" r="145"/>
+    <row customHeight="1" ht="14.25" r="146"/>
+    <row customHeight="1" ht="14.25" r="147"/>
+    <row customHeight="1" ht="14.25" r="148"/>
+    <row customHeight="1" ht="14.25" r="149"/>
+    <row customHeight="1" ht="14.25" r="150"/>
+    <row customHeight="1" ht="14.25" r="151"/>
+    <row customHeight="1" ht="14.25" r="152"/>
+    <row customHeight="1" ht="14.25" r="153"/>
+    <row customHeight="1" ht="14.25" r="154"/>
+    <row customHeight="1" ht="14.25" r="155"/>
+    <row customHeight="1" ht="14.25" r="156"/>
+    <row customHeight="1" ht="14.25" r="157"/>
+    <row customHeight="1" ht="14.25" r="158"/>
+    <row customHeight="1" ht="14.25" r="159"/>
+    <row customHeight="1" ht="14.25" r="160"/>
+    <row customHeight="1" ht="14.25" r="161"/>
+    <row customHeight="1" ht="14.25" r="162"/>
+    <row customHeight="1" ht="14.25" r="163"/>
+    <row customHeight="1" ht="14.25" r="164"/>
+    <row customHeight="1" ht="14.25" r="165"/>
+    <row customHeight="1" ht="14.25" r="166"/>
+    <row customHeight="1" ht="14.25" r="167"/>
+    <row customHeight="1" ht="14.25" r="168"/>
+    <row customHeight="1" ht="14.25" r="169"/>
+    <row customHeight="1" ht="14.25" r="170"/>
+    <row customHeight="1" ht="14.25" r="171"/>
+    <row customHeight="1" ht="14.25" r="172"/>
+    <row customHeight="1" ht="14.25" r="173"/>
+    <row customHeight="1" ht="14.25" r="174"/>
+    <row customHeight="1" ht="14.25" r="175"/>
+    <row customHeight="1" ht="14.25" r="176"/>
+    <row customHeight="1" ht="14.25" r="177"/>
+    <row customHeight="1" ht="14.25" r="178"/>
+    <row customHeight="1" ht="14.25" r="179"/>
+    <row customHeight="1" ht="14.25" r="180"/>
+    <row customHeight="1" ht="14.25" r="181"/>
+    <row customHeight="1" ht="14.25" r="182"/>
+    <row customHeight="1" ht="14.25" r="183"/>
+    <row customHeight="1" ht="14.25" r="184"/>
+    <row customHeight="1" ht="14.25" r="185"/>
+    <row customHeight="1" ht="14.25" r="186"/>
+    <row customHeight="1" ht="14.25" r="187"/>
+    <row customHeight="1" ht="14.25" r="188"/>
+    <row customHeight="1" ht="14.25" r="189"/>
+    <row customHeight="1" ht="14.25" r="190"/>
+    <row customHeight="1" ht="14.25" r="191"/>
+    <row customHeight="1" ht="14.25" r="192"/>
+    <row customHeight="1" ht="14.25" r="193"/>
+    <row customHeight="1" ht="14.25" r="194"/>
+    <row customHeight="1" ht="14.25" r="195"/>
+    <row customHeight="1" ht="14.25" r="196"/>
+    <row customHeight="1" ht="14.25" r="197"/>
+    <row customHeight="1" ht="14.25" r="198"/>
+    <row customHeight="1" ht="14.25" r="199"/>
+    <row customHeight="1" ht="14.25" r="200"/>
+    <row customHeight="1" ht="14.25" r="201"/>
+    <row customHeight="1" ht="14.25" r="202"/>
+    <row customHeight="1" ht="14.25" r="203"/>
+    <row customHeight="1" ht="14.25" r="204"/>
+    <row customHeight="1" ht="14.25" r="205"/>
+    <row customHeight="1" ht="14.25" r="206"/>
+    <row customHeight="1" ht="14.25" r="207"/>
+    <row customHeight="1" ht="14.25" r="208"/>
+    <row customHeight="1" ht="14.25" r="209"/>
+    <row customHeight="1" ht="14.25" r="210"/>
+    <row customHeight="1" ht="14.25" r="211"/>
+    <row customHeight="1" ht="14.25" r="212"/>
+    <row customHeight="1" ht="14.25" r="213"/>
+    <row customHeight="1" ht="14.25" r="214"/>
+    <row customHeight="1" ht="14.25" r="215"/>
+    <row customHeight="1" ht="14.25" r="216"/>
+    <row customHeight="1" ht="14.25" r="217"/>
+    <row customHeight="1" ht="14.25" r="218"/>
+    <row customHeight="1" ht="14.25" r="219"/>
+    <row customHeight="1" ht="14.25" r="220"/>
+    <row customHeight="1" ht="14.25" r="221"/>
+    <row customHeight="1" ht="14.25" r="222"/>
+    <row customHeight="1" ht="14.25" r="223"/>
+    <row customHeight="1" ht="14.25" r="224"/>
+    <row customHeight="1" ht="14.25" r="225"/>
+    <row customHeight="1" ht="14.25" r="226"/>
+    <row customHeight="1" ht="14.25" r="227"/>
+    <row customHeight="1" ht="14.25" r="228"/>
+    <row customHeight="1" ht="14.25" r="229"/>
+    <row customHeight="1" ht="14.25" r="230"/>
+    <row customHeight="1" ht="14.25" r="231"/>
+    <row customHeight="1" ht="14.25" r="232"/>
+    <row customHeight="1" ht="14.25" r="233"/>
+    <row customHeight="1" ht="14.25" r="234"/>
+    <row customHeight="1" ht="14.25" r="235"/>
+    <row customHeight="1" ht="14.25" r="236"/>
+    <row customHeight="1" ht="14.25" r="237"/>
+    <row customHeight="1" ht="14.25" r="238"/>
+    <row customHeight="1" ht="14.25" r="239"/>
+    <row customHeight="1" ht="14.25" r="240"/>
+    <row customHeight="1" ht="14.25" r="241"/>
+    <row customHeight="1" ht="14.25" r="242"/>
+    <row customHeight="1" ht="14.25" r="243"/>
+    <row customHeight="1" ht="14.25" r="244"/>
+    <row customHeight="1" ht="14.25" r="245"/>
+    <row customHeight="1" ht="14.25" r="246"/>
+    <row customHeight="1" ht="14.25" r="247"/>
+    <row customHeight="1" ht="14.25" r="248"/>
+    <row customHeight="1" ht="14.25" r="249"/>
+    <row customHeight="1" ht="14.25" r="250"/>
+    <row customHeight="1" ht="14.25" r="251"/>
+    <row customHeight="1" ht="14.25" r="252"/>
+    <row customHeight="1" ht="14.25" r="253"/>
+    <row customHeight="1" ht="14.25" r="254"/>
+    <row customHeight="1" ht="14.25" r="255"/>
+    <row customHeight="1" ht="14.25" r="256"/>
+    <row customHeight="1" ht="14.25" r="257"/>
+    <row customHeight="1" ht="14.25" r="258"/>
+    <row customHeight="1" ht="14.25" r="259"/>
+    <row customHeight="1" ht="14.25" r="260"/>
+    <row customHeight="1" ht="14.25" r="261"/>
+    <row customHeight="1" ht="14.25" r="262"/>
+    <row customHeight="1" ht="14.25" r="263"/>
+    <row customHeight="1" ht="14.25" r="264"/>
+    <row customHeight="1" ht="14.25" r="265"/>
+    <row customHeight="1" ht="14.25" r="266"/>
+    <row customHeight="1" ht="14.25" r="267"/>
+    <row customHeight="1" ht="14.25" r="268"/>
+    <row customHeight="1" ht="14.25" r="269"/>
+    <row customHeight="1" ht="14.25" r="270"/>
+    <row customHeight="1" ht="14.25" r="271"/>
+    <row customHeight="1" ht="14.25" r="272"/>
+    <row customHeight="1" ht="14.25" r="273"/>
+    <row customHeight="1" ht="14.25" r="274"/>
+    <row customHeight="1" ht="14.25" r="275"/>
+    <row customHeight="1" ht="14.25" r="276"/>
+    <row customHeight="1" ht="14.25" r="277"/>
+    <row customHeight="1" ht="14.25" r="278"/>
+    <row customHeight="1" ht="14.25" r="279"/>
+    <row customHeight="1" ht="14.25" r="280"/>
+    <row customHeight="1" ht="14.25" r="281"/>
+    <row customHeight="1" ht="14.25" r="282"/>
+    <row customHeight="1" ht="14.25" r="283"/>
+    <row customHeight="1" ht="14.25" r="284"/>
+    <row customHeight="1" ht="14.25" r="285"/>
+    <row customHeight="1" ht="14.25" r="286"/>
+    <row customHeight="1" ht="14.25" r="287"/>
+    <row customHeight="1" ht="14.25" r="288"/>
+    <row customHeight="1" ht="14.25" r="289"/>
+    <row customHeight="1" ht="14.25" r="290"/>
+    <row customHeight="1" ht="14.25" r="291"/>
+    <row customHeight="1" ht="14.25" r="292"/>
+    <row customHeight="1" ht="14.25" r="293"/>
+    <row customHeight="1" ht="14.25" r="294"/>
+    <row customHeight="1" ht="14.25" r="295"/>
+    <row customHeight="1" ht="14.25" r="296"/>
+    <row customHeight="1" ht="14.25" r="297"/>
+    <row customHeight="1" ht="14.25" r="298"/>
+    <row customHeight="1" ht="14.25" r="299"/>
+    <row customHeight="1" ht="14.25" r="300"/>
+    <row customHeight="1" ht="14.25" r="301"/>
+    <row customHeight="1" ht="14.25" r="302"/>
+    <row customHeight="1" ht="14.25" r="303"/>
+    <row customHeight="1" ht="14.25" r="304"/>
+    <row customHeight="1" ht="14.25" r="305"/>
+    <row customHeight="1" ht="14.25" r="306"/>
+    <row customHeight="1" ht="14.25" r="307"/>
+    <row customHeight="1" ht="14.25" r="308"/>
+    <row customHeight="1" ht="14.25" r="309"/>
+    <row customHeight="1" ht="14.25" r="310"/>
+    <row customHeight="1" ht="14.25" r="311"/>
+    <row customHeight="1" ht="14.25" r="312"/>
+    <row customHeight="1" ht="14.25" r="313"/>
+    <row customHeight="1" ht="14.25" r="314"/>
+    <row customHeight="1" ht="14.25" r="315"/>
+    <row customHeight="1" ht="14.25" r="316"/>
+    <row customHeight="1" ht="14.25" r="317"/>
+    <row customHeight="1" ht="14.25" r="318"/>
+    <row customHeight="1" ht="14.25" r="319"/>
+    <row customHeight="1" ht="14.25" r="320"/>
+    <row customHeight="1" ht="14.25" r="321"/>
+    <row customHeight="1" ht="14.25" r="322"/>
+    <row customHeight="1" ht="14.25" r="323"/>
+    <row customHeight="1" ht="14.25" r="324"/>
+    <row customHeight="1" ht="14.25" r="325"/>
+    <row customHeight="1" ht="14.25" r="326"/>
+    <row customHeight="1" ht="14.25" r="327"/>
+    <row customHeight="1" ht="14.25" r="328"/>
+    <row customHeight="1" ht="14.25" r="329"/>
+    <row customHeight="1" ht="14.25" r="330"/>
+    <row customHeight="1" ht="14.25" r="331"/>
+    <row customHeight="1" ht="14.25" r="332"/>
+    <row customHeight="1" ht="14.25" r="333"/>
+    <row customHeight="1" ht="14.25" r="334"/>
+    <row customHeight="1" ht="14.25" r="335"/>
+    <row customHeight="1" ht="14.25" r="336"/>
+    <row customHeight="1" ht="14.25" r="337"/>
+    <row customHeight="1" ht="14.25" r="338"/>
+    <row customHeight="1" ht="14.25" r="339"/>
+    <row customHeight="1" ht="14.25" r="340"/>
+    <row customHeight="1" ht="14.25" r="341"/>
+    <row customHeight="1" ht="14.25" r="342"/>
+    <row customHeight="1" ht="14.25" r="343"/>
+    <row customHeight="1" ht="14.25" r="344"/>
+    <row customHeight="1" ht="14.25" r="345"/>
+    <row customHeight="1" ht="14.25" r="346"/>
+    <row customHeight="1" ht="14.25" r="347"/>
+    <row customHeight="1" ht="14.25" r="348"/>
+    <row customHeight="1" ht="14.25" r="349"/>
+    <row customHeight="1" ht="14.25" r="350"/>
+    <row customHeight="1" ht="14.25" r="351"/>
+    <row customHeight="1" ht="14.25" r="352"/>
+    <row customHeight="1" ht="14.25" r="353"/>
+    <row customHeight="1" ht="14.25" r="354"/>
+    <row customHeight="1" ht="14.25" r="355"/>
+    <row customHeight="1" ht="14.25" r="356"/>
+    <row customHeight="1" ht="14.25" r="357"/>
+    <row customHeight="1" ht="14.25" r="358"/>
+    <row customHeight="1" ht="14.25" r="359"/>
+    <row customHeight="1" ht="14.25" r="360"/>
+    <row customHeight="1" ht="14.25" r="361"/>
+    <row customHeight="1" ht="14.25" r="362"/>
+    <row customHeight="1" ht="14.25" r="363"/>
+    <row customHeight="1" ht="14.25" r="364"/>
+    <row customHeight="1" ht="14.25" r="365"/>
+    <row customHeight="1" ht="14.25" r="366"/>
+    <row customHeight="1" ht="14.25" r="367"/>
+    <row customHeight="1" ht="14.25" r="368"/>
+    <row customHeight="1" ht="14.25" r="369"/>
+    <row customHeight="1" ht="14.25" r="370"/>
+    <row customHeight="1" ht="14.25" r="371"/>
+    <row customHeight="1" ht="14.25" r="372"/>
+    <row customHeight="1" ht="14.25" r="373"/>
+    <row customHeight="1" ht="14.25" r="374"/>
+    <row customHeight="1" ht="14.25" r="375"/>
+    <row customHeight="1" ht="14.25" r="376"/>
+    <row customHeight="1" ht="14.25" r="377"/>
+    <row customHeight="1" ht="14.25" r="378"/>
+    <row customHeight="1" ht="14.25" r="379"/>
+    <row customHeight="1" ht="14.25" r="380"/>
+    <row customHeight="1" ht="14.25" r="381"/>
+    <row customHeight="1" ht="14.25" r="382"/>
+    <row customHeight="1" ht="14.25" r="383"/>
+    <row customHeight="1" ht="14.25" r="384"/>
+    <row customHeight="1" ht="14.25" r="385"/>
+    <row customHeight="1" ht="14.25" r="386"/>
+    <row customHeight="1" ht="14.25" r="387"/>
+    <row customHeight="1" ht="14.25" r="388"/>
+    <row customHeight="1" ht="14.25" r="389"/>
+    <row customHeight="1" ht="14.25" r="390"/>
+    <row customHeight="1" ht="14.25" r="391"/>
+    <row customHeight="1" ht="14.25" r="392"/>
+    <row customHeight="1" ht="14.25" r="393"/>
+    <row customHeight="1" ht="14.25" r="394"/>
+    <row customHeight="1" ht="14.25" r="395"/>
+    <row customHeight="1" ht="14.25" r="396"/>
+    <row customHeight="1" ht="14.25" r="397"/>
+    <row customHeight="1" ht="14.25" r="398"/>
+    <row customHeight="1" ht="14.25" r="399"/>
+    <row customHeight="1" ht="14.25" r="400"/>
+    <row customHeight="1" ht="14.25" r="401"/>
+    <row customHeight="1" ht="14.25" r="402"/>
+    <row customHeight="1" ht="14.25" r="403"/>
+    <row customHeight="1" ht="14.25" r="404"/>
+    <row customHeight="1" ht="14.25" r="405"/>
+    <row customHeight="1" ht="14.25" r="406"/>
+    <row customHeight="1" ht="14.25" r="407"/>
+    <row customHeight="1" ht="14.25" r="408"/>
+    <row customHeight="1" ht="14.25" r="409"/>
+    <row customHeight="1" ht="14.25" r="410"/>
+    <row customHeight="1" ht="14.25" r="411"/>
+    <row customHeight="1" ht="14.25" r="412"/>
+    <row customHeight="1" ht="14.25" r="413"/>
+    <row customHeight="1" ht="14.25" r="414"/>
+    <row customHeight="1" ht="14.25" r="415"/>
+    <row customHeight="1" ht="14.25" r="416"/>
+    <row customHeight="1" ht="14.25" r="417"/>
+    <row customHeight="1" ht="14.25" r="418"/>
+    <row customHeight="1" ht="14.25" r="419"/>
+    <row customHeight="1" ht="14.25" r="420"/>
+    <row customHeight="1" ht="14.25" r="421"/>
+    <row customHeight="1" ht="14.25" r="422"/>
+    <row customHeight="1" ht="14.25" r="423"/>
+    <row customHeight="1" ht="14.25" r="424"/>
+    <row customHeight="1" ht="14.25" r="425"/>
+    <row customHeight="1" ht="14.25" r="426"/>
+    <row customHeight="1" ht="14.25" r="427"/>
+    <row customHeight="1" ht="14.25" r="428"/>
+    <row customHeight="1" ht="14.25" r="429"/>
+    <row customHeight="1" ht="14.25" r="430"/>
+    <row customHeight="1" ht="14.25" r="431"/>
+    <row customHeight="1" ht="14.25" r="432"/>
+    <row customHeight="1" ht="14.25" r="433"/>
+    <row customHeight="1" ht="14.25" r="434"/>
+    <row customHeight="1" ht="14.25" r="435"/>
+    <row customHeight="1" ht="14.25" r="436"/>
+    <row customHeight="1" ht="14.25" r="437"/>
+    <row customHeight="1" ht="14.25" r="438"/>
+    <row customHeight="1" ht="14.25" r="439"/>
+    <row customHeight="1" ht="14.25" r="440"/>
+    <row customHeight="1" ht="14.25" r="441"/>
+    <row customHeight="1" ht="14.25" r="442"/>
+    <row customHeight="1" ht="14.25" r="443"/>
+    <row customHeight="1" ht="14.25" r="444"/>
+    <row customHeight="1" ht="14.25" r="445"/>
+    <row customHeight="1" ht="14.25" r="446"/>
+    <row customHeight="1" ht="14.25" r="447"/>
+    <row customHeight="1" ht="14.25" r="448"/>
+    <row customHeight="1" ht="14.25" r="449"/>
+    <row customHeight="1" ht="14.25" r="450"/>
+    <row customHeight="1" ht="14.25" r="451"/>
+    <row customHeight="1" ht="14.25" r="452"/>
+    <row customHeight="1" ht="14.25" r="453"/>
+    <row customHeight="1" ht="14.25" r="454"/>
+    <row customHeight="1" ht="14.25" r="455"/>
+    <row customHeight="1" ht="14.25" r="456"/>
+    <row customHeight="1" ht="14.25" r="457"/>
+    <row customHeight="1" ht="14.25" r="458"/>
+    <row customHeight="1" ht="14.25" r="459"/>
+    <row customHeight="1" ht="14.25" r="460"/>
+    <row customHeight="1" ht="14.25" r="461"/>
+    <row customHeight="1" ht="14.25" r="462"/>
+    <row customHeight="1" ht="14.25" r="463"/>
+    <row customHeight="1" ht="14.25" r="464"/>
+    <row customHeight="1" ht="14.25" r="465"/>
+    <row customHeight="1" ht="14.25" r="466"/>
+    <row customHeight="1" ht="14.25" r="467"/>
+    <row customHeight="1" ht="14.25" r="468"/>
+    <row customHeight="1" ht="14.25" r="469"/>
+    <row customHeight="1" ht="14.25" r="470"/>
+    <row customHeight="1" ht="14.25" r="471"/>
+    <row customHeight="1" ht="14.25" r="472"/>
+    <row customHeight="1" ht="14.25" r="473"/>
+    <row customHeight="1" ht="14.25" r="474"/>
+    <row customHeight="1" ht="14.25" r="475"/>
+    <row customHeight="1" ht="14.25" r="476"/>
+    <row customHeight="1" ht="14.25" r="477"/>
+    <row customHeight="1" ht="14.25" r="478"/>
+    <row customHeight="1" ht="14.25" r="479"/>
+    <row customHeight="1" ht="14.25" r="480"/>
+    <row customHeight="1" ht="14.25" r="481"/>
+    <row customHeight="1" ht="14.25" r="482"/>
+    <row customHeight="1" ht="14.25" r="483"/>
+    <row customHeight="1" ht="14.25" r="484"/>
+    <row customHeight="1" ht="14.25" r="485"/>
+    <row customHeight="1" ht="14.25" r="486"/>
+    <row customHeight="1" ht="14.25" r="487"/>
+    <row customHeight="1" ht="14.25" r="488"/>
+    <row customHeight="1" ht="14.25" r="489"/>
+    <row customHeight="1" ht="14.25" r="490"/>
+    <row customHeight="1" ht="14.25" r="491"/>
+    <row customHeight="1" ht="14.25" r="492"/>
+    <row customHeight="1" ht="14.25" r="493"/>
+    <row customHeight="1" ht="14.25" r="494"/>
+    <row customHeight="1" ht="14.25" r="495"/>
+    <row customHeight="1" ht="14.25" r="496"/>
+    <row customHeight="1" ht="14.25" r="497"/>
+    <row customHeight="1" ht="14.25" r="498"/>
+    <row customHeight="1" ht="14.25" r="499"/>
+    <row customHeight="1" ht="14.25" r="500"/>
+    <row customHeight="1" ht="14.25" r="501"/>
+    <row customHeight="1" ht="14.25" r="502"/>
+    <row customHeight="1" ht="14.25" r="503"/>
+    <row customHeight="1" ht="14.25" r="504"/>
+    <row customHeight="1" ht="14.25" r="505"/>
+    <row customHeight="1" ht="14.25" r="506"/>
+    <row customHeight="1" ht="14.25" r="507"/>
+    <row customHeight="1" ht="14.25" r="508"/>
+    <row customHeight="1" ht="14.25" r="509"/>
+    <row customHeight="1" ht="14.25" r="510"/>
+    <row customHeight="1" ht="14.25" r="511"/>
+    <row customHeight="1" ht="14.25" r="512"/>
+    <row customHeight="1" ht="14.25" r="513"/>
+    <row customHeight="1" ht="14.25" r="514"/>
+    <row customHeight="1" ht="14.25" r="515"/>
+    <row customHeight="1" ht="14.25" r="516"/>
+    <row customHeight="1" ht="14.25" r="517"/>
+    <row customHeight="1" ht="14.25" r="518"/>
+    <row customHeight="1" ht="14.25" r="519"/>
+    <row customHeight="1" ht="14.25" r="520"/>
+    <row customHeight="1" ht="14.25" r="521"/>
+    <row customHeight="1" ht="14.25" r="522"/>
+    <row customHeight="1" ht="14.25" r="523"/>
+    <row customHeight="1" ht="14.25" r="524"/>
+    <row customHeight="1" ht="14.25" r="525"/>
+    <row customHeight="1" ht="14.25" r="526"/>
+    <row customHeight="1" ht="14.25" r="527"/>
+    <row customHeight="1" ht="14.25" r="528"/>
+    <row customHeight="1" ht="14.25" r="529"/>
+    <row customHeight="1" ht="14.25" r="530"/>
+    <row customHeight="1" ht="14.25" r="531"/>
+    <row customHeight="1" ht="14.25" r="532"/>
+    <row customHeight="1" ht="14.25" r="533"/>
+    <row customHeight="1" ht="14.25" r="534"/>
+    <row customHeight="1" ht="14.25" r="535"/>
+    <row customHeight="1" ht="14.25" r="536"/>
+    <row customHeight="1" ht="14.25" r="537"/>
+    <row customHeight="1" ht="14.25" r="538"/>
+    <row customHeight="1" ht="14.25" r="539"/>
+    <row customHeight="1" ht="14.25" r="540"/>
+    <row customHeight="1" ht="14.25" r="541"/>
+    <row customHeight="1" ht="14.25" r="542"/>
+    <row customHeight="1" ht="14.25" r="543"/>
+    <row customHeight="1" ht="14.25" r="544"/>
+    <row customHeight="1" ht="14.25" r="545"/>
+    <row customHeight="1" ht="14.25" r="546"/>
+    <row customHeight="1" ht="14.25" r="547"/>
+    <row customHeight="1" ht="14.25" r="548"/>
+    <row customHeight="1" ht="14.25" r="549"/>
+    <row customHeight="1" ht="14.25" r="550"/>
+    <row customHeight="1" ht="14.25" r="551"/>
+    <row customHeight="1" ht="14.25" r="552"/>
+    <row customHeight="1" ht="14.25" r="553"/>
+    <row customHeight="1" ht="14.25" r="554"/>
+    <row customHeight="1" ht="14.25" r="555"/>
+    <row customHeight="1" ht="14.25" r="556"/>
+    <row customHeight="1" ht="14.25" r="557"/>
+    <row customHeight="1" ht="14.25" r="558"/>
+    <row customHeight="1" ht="14.25" r="559"/>
+    <row customHeight="1" ht="14.25" r="560"/>
+    <row customHeight="1" ht="14.25" r="561"/>
+    <row customHeight="1" ht="14.25" r="562"/>
+    <row customHeight="1" ht="14.25" r="563"/>
+    <row customHeight="1" ht="14.25" r="564"/>
+    <row customHeight="1" ht="14.25" r="565"/>
+    <row customHeight="1" ht="14.25" r="566"/>
+    <row customHeight="1" ht="14.25" r="567"/>
+    <row customHeight="1" ht="14.25" r="568"/>
+    <row customHeight="1" ht="14.25" r="569"/>
+    <row customHeight="1" ht="14.25" r="570"/>
+    <row customHeight="1" ht="14.25" r="571"/>
+    <row customHeight="1" ht="14.25" r="572"/>
+    <row customHeight="1" ht="14.25" r="573"/>
+    <row customHeight="1" ht="14.25" r="574"/>
+    <row customHeight="1" ht="14.25" r="575"/>
+    <row customHeight="1" ht="14.25" r="576"/>
+    <row customHeight="1" ht="14.25" r="577"/>
+    <row customHeight="1" ht="14.25" r="578"/>
+    <row customHeight="1" ht="14.25" r="579"/>
+    <row customHeight="1" ht="14.25" r="580"/>
+    <row customHeight="1" ht="14.25" r="581"/>
+    <row customHeight="1" ht="14.25" r="582"/>
+    <row customHeight="1" ht="14.25" r="583"/>
+    <row customHeight="1" ht="14.25" r="584"/>
+    <row customHeight="1" ht="14.25" r="585"/>
+    <row customHeight="1" ht="14.25" r="586"/>
+    <row customHeight="1" ht="14.25" r="587"/>
+    <row customHeight="1" ht="14.25" r="588"/>
+    <row customHeight="1" ht="14.25" r="589"/>
+    <row customHeight="1" ht="14.25" r="590"/>
+    <row customHeight="1" ht="14.25" r="591"/>
+    <row customHeight="1" ht="14.25" r="592"/>
+    <row customHeight="1" ht="14.25" r="593"/>
+    <row customHeight="1" ht="14.25" r="594"/>
+    <row customHeight="1" ht="14.25" r="595"/>
+    <row customHeight="1" ht="14.25" r="596"/>
+    <row customHeight="1" ht="14.25" r="597"/>
+    <row customHeight="1" ht="14.25" r="598"/>
+    <row customHeight="1" ht="14.25" r="599"/>
+    <row customHeight="1" ht="14.25" r="600"/>
+    <row customHeight="1" ht="14.25" r="601"/>
+    <row customHeight="1" ht="14.25" r="602"/>
+    <row customHeight="1" ht="14.25" r="603"/>
+    <row customHeight="1" ht="14.25" r="604"/>
+    <row customHeight="1" ht="14.25" r="605"/>
+    <row customHeight="1" ht="14.25" r="606"/>
+    <row customHeight="1" ht="14.25" r="607"/>
+    <row customHeight="1" ht="14.25" r="608"/>
+    <row customHeight="1" ht="14.25" r="609"/>
+    <row customHeight="1" ht="14.25" r="610"/>
+    <row customHeight="1" ht="14.25" r="611"/>
+    <row customHeight="1" ht="14.25" r="612"/>
+    <row customHeight="1" ht="14.25" r="613"/>
+    <row customHeight="1" ht="14.25" r="614"/>
+    <row customHeight="1" ht="14.25" r="615"/>
+    <row customHeight="1" ht="14.25" r="616"/>
+    <row customHeight="1" ht="14.25" r="617"/>
+    <row customHeight="1" ht="14.25" r="618"/>
+    <row customHeight="1" ht="14.25" r="619"/>
+    <row customHeight="1" ht="14.25" r="620"/>
+    <row customHeight="1" ht="14.25" r="621"/>
+    <row customHeight="1" ht="14.25" r="622"/>
+    <row customHeight="1" ht="14.25" r="623"/>
+    <row customHeight="1" ht="14.25" r="624"/>
+    <row customHeight="1" ht="14.25" r="625"/>
+    <row customHeight="1" ht="14.25" r="626"/>
+    <row customHeight="1" ht="14.25" r="627"/>
+    <row customHeight="1" ht="14.25" r="628"/>
+    <row customHeight="1" ht="14.25" r="629"/>
+    <row customHeight="1" ht="14.25" r="630"/>
+    <row customHeight="1" ht="14.25" r="631"/>
+    <row customHeight="1" ht="14.25" r="632"/>
+    <row customHeight="1" ht="14.25" r="633"/>
+    <row customHeight="1" ht="14.25" r="634"/>
+    <row customHeight="1" ht="14.25" r="635"/>
+    <row customHeight="1" ht="14.25" r="636"/>
+    <row customHeight="1" ht="14.25" r="637"/>
+    <row customHeight="1" ht="14.25" r="638"/>
+    <row customHeight="1" ht="14.25" r="639"/>
+    <row customHeight="1" ht="14.25" r="640"/>
+    <row customHeight="1" ht="14.25" r="641"/>
+    <row customHeight="1" ht="14.25" r="642"/>
+    <row customHeight="1" ht="14.25" r="643"/>
+    <row customHeight="1" ht="14.25" r="644"/>
+    <row customHeight="1" ht="14.25" r="645"/>
+    <row customHeight="1" ht="14.25" r="646"/>
+    <row customHeight="1" ht="14.25" r="647"/>
+    <row customHeight="1" ht="14.25" r="648"/>
+    <row customHeight="1" ht="14.25" r="649"/>
+    <row customHeight="1" ht="14.25" r="650"/>
+    <row customHeight="1" ht="14.25" r="651"/>
+    <row customHeight="1" ht="14.25" r="652"/>
+    <row customHeight="1" ht="14.25" r="653"/>
+    <row customHeight="1" ht="14.25" r="654"/>
+    <row customHeight="1" ht="14.25" r="655"/>
+    <row customHeight="1" ht="14.25" r="656"/>
+    <row customHeight="1" ht="14.25" r="657"/>
+    <row customHeight="1" ht="14.25" r="658"/>
+    <row customHeight="1" ht="14.25" r="659"/>
+    <row customHeight="1" ht="14.25" r="660"/>
+    <row customHeight="1" ht="14.25" r="661"/>
+    <row customHeight="1" ht="14.25" r="662"/>
+    <row customHeight="1" ht="14.25" r="663"/>
+    <row customHeight="1" ht="14.25" r="664"/>
+    <row customHeight="1" ht="14.25" r="665"/>
+    <row customHeight="1" ht="14.25" r="666"/>
+    <row customHeight="1" ht="14.25" r="667"/>
+    <row customHeight="1" ht="14.25" r="668"/>
+    <row customHeight="1" ht="14.25" r="669"/>
+    <row customHeight="1" ht="14.25" r="670"/>
+    <row customHeight="1" ht="14.25" r="671"/>
+    <row customHeight="1" ht="14.25" r="672"/>
+    <row customHeight="1" ht="14.25" r="673"/>
+    <row customHeight="1" ht="14.25" r="674"/>
+    <row customHeight="1" ht="14.25" r="675"/>
+    <row customHeight="1" ht="14.25" r="676"/>
+    <row customHeight="1" ht="14.25" r="677"/>
+    <row customHeight="1" ht="14.25" r="678"/>
+    <row customHeight="1" ht="14.25" r="679"/>
+    <row customHeight="1" ht="14.25" r="680"/>
+    <row customHeight="1" ht="14.25" r="681"/>
+    <row customHeight="1" ht="14.25" r="682"/>
+    <row customHeight="1" ht="14.25" r="683"/>
+    <row customHeight="1" ht="14.25" r="684"/>
+    <row customHeight="1" ht="14.25" r="685"/>
+    <row customHeight="1" ht="14.25" r="686"/>
+    <row customHeight="1" ht="14.25" r="687"/>
+    <row customHeight="1" ht="14.25" r="688"/>
+    <row customHeight="1" ht="14.25" r="689"/>
+    <row customHeight="1" ht="14.25" r="690"/>
+    <row customHeight="1" ht="14.25" r="691"/>
+    <row customHeight="1" ht="14.25" r="692"/>
+    <row customHeight="1" ht="14.25" r="693"/>
+    <row customHeight="1" ht="14.25" r="694"/>
+    <row customHeight="1" ht="14.25" r="695"/>
+    <row customHeight="1" ht="14.25" r="696"/>
+    <row customHeight="1" ht="14.25" r="697"/>
+    <row customHeight="1" ht="14.25" r="698"/>
+    <row customHeight="1" ht="14.25" r="699"/>
+    <row customHeight="1" ht="14.25" r="700"/>
+    <row customHeight="1" ht="14.25" r="701"/>
+    <row customHeight="1" ht="14.25" r="702"/>
+    <row customHeight="1" ht="14.25" r="703"/>
+    <row customHeight="1" ht="14.25" r="704"/>
+    <row customHeight="1" ht="14.25" r="705"/>
+    <row customHeight="1" ht="14.25" r="706"/>
+    <row customHeight="1" ht="14.25" r="707"/>
+    <row customHeight="1" ht="14.25" r="708"/>
+    <row customHeight="1" ht="14.25" r="709"/>
+    <row customHeight="1" ht="14.25" r="710"/>
+    <row customHeight="1" ht="14.25" r="711"/>
+    <row customHeight="1" ht="14.25" r="712"/>
+    <row customHeight="1" ht="14.25" r="713"/>
+    <row customHeight="1" ht="14.25" r="714"/>
+    <row customHeight="1" ht="14.25" r="715"/>
+    <row customHeight="1" ht="14.25" r="716"/>
+    <row customHeight="1" ht="14.25" r="717"/>
+    <row customHeight="1" ht="14.25" r="718"/>
+    <row customHeight="1" ht="14.25" r="719"/>
+    <row customHeight="1" ht="14.25" r="720"/>
+    <row customHeight="1" ht="14.25" r="721"/>
+    <row customHeight="1" ht="14.25" r="722"/>
+    <row customHeight="1" ht="14.25" r="723"/>
+    <row customHeight="1" ht="14.25" r="724"/>
+    <row customHeight="1" ht="14.25" r="725"/>
+    <row customHeight="1" ht="14.25" r="726"/>
+    <row customHeight="1" ht="14.25" r="727"/>
+    <row customHeight="1" ht="14.25" r="728"/>
+    <row customHeight="1" ht="14.25" r="729"/>
+    <row customHeight="1" ht="14.25" r="730"/>
+    <row customHeight="1" ht="14.25" r="731"/>
+    <row customHeight="1" ht="14.25" r="732"/>
+    <row customHeight="1" ht="14.25" r="733"/>
+    <row customHeight="1" ht="14.25" r="734"/>
+    <row customHeight="1" ht="14.25" r="735"/>
+    <row customHeight="1" ht="14.25" r="736"/>
+    <row customHeight="1" ht="14.25" r="737"/>
+    <row customHeight="1" ht="14.25" r="738"/>
+    <row customHeight="1" ht="14.25" r="739"/>
+    <row customHeight="1" ht="14.25" r="740"/>
+    <row customHeight="1" ht="14.25" r="741"/>
+    <row customHeight="1" ht="14.25" r="742"/>
+    <row customHeight="1" ht="14.25" r="743"/>
+    <row customHeight="1" ht="14.25" r="744"/>
+    <row customHeight="1" ht="14.25" r="745"/>
+    <row customHeight="1" ht="14.25" r="746"/>
+    <row customHeight="1" ht="14.25" r="747"/>
+    <row customHeight="1" ht="14.25" r="748"/>
+    <row customHeight="1" ht="14.25" r="749"/>
+    <row customHeight="1" ht="14.25" r="750"/>
+    <row customHeight="1" ht="14.25" r="751"/>
+    <row customHeight="1" ht="14.25" r="752"/>
+    <row customHeight="1" ht="14.25" r="753"/>
+    <row customHeight="1" ht="14.25" r="754"/>
+    <row customHeight="1" ht="14.25" r="755"/>
+    <row customHeight="1" ht="14.25" r="756"/>
+    <row customHeight="1" ht="14.25" r="757"/>
+    <row customHeight="1" ht="14.25" r="758"/>
+    <row customHeight="1" ht="14.25" r="759"/>
+    <row customHeight="1" ht="14.25" r="760"/>
+    <row customHeight="1" ht="14.25" r="761"/>
+    <row customHeight="1" ht="14.25" r="762"/>
+    <row customHeight="1" ht="14.25" r="763"/>
+    <row customHeight="1" ht="14.25" r="764"/>
+    <row customHeight="1" ht="14.25" r="765"/>
+    <row customHeight="1" ht="14.25" r="766"/>
+    <row customHeight="1" ht="14.25" r="767"/>
+    <row customHeight="1" ht="14.25" r="768"/>
+    <row customHeight="1" ht="14.25" r="769"/>
+    <row customHeight="1" ht="14.25" r="770"/>
+    <row customHeight="1" ht="14.25" r="771"/>
+    <row customHeight="1" ht="14.25" r="772"/>
+    <row customHeight="1" ht="14.25" r="773"/>
+    <row customHeight="1" ht="14.25" r="774"/>
+    <row customHeight="1" ht="14.25" r="775"/>
+    <row customHeight="1" ht="14.25" r="776"/>
+    <row customHeight="1" ht="14.25" r="777"/>
+    <row customHeight="1" ht="14.25" r="778"/>
+    <row customHeight="1" ht="14.25" r="779"/>
+    <row customHeight="1" ht="14.25" r="780"/>
+    <row customHeight="1" ht="14.25" r="781"/>
+    <row customHeight="1" ht="14.25" r="782"/>
+    <row customHeight="1" ht="14.25" r="783"/>
+    <row customHeight="1" ht="14.25" r="784"/>
+    <row customHeight="1" ht="14.25" r="785"/>
+    <row customHeight="1" ht="14.25" r="786"/>
+    <row customHeight="1" ht="14.25" r="787"/>
+    <row customHeight="1" ht="14.25" r="788"/>
+    <row customHeight="1" ht="14.25" r="789"/>
+    <row customHeight="1" ht="14.25" r="790"/>
+    <row customHeight="1" ht="14.25" r="791"/>
+    <row customHeight="1" ht="14.25" r="792"/>
+    <row customHeight="1" ht="14.25" r="793"/>
+    <row customHeight="1" ht="14.25" r="794"/>
+    <row customHeight="1" ht="14.25" r="795"/>
+    <row customHeight="1" ht="14.25" r="796"/>
+    <row customHeight="1" ht="14.25" r="797"/>
+    <row customHeight="1" ht="14.25" r="798"/>
+    <row customHeight="1" ht="14.25" r="799"/>
+    <row customHeight="1" ht="14.25" r="800"/>
+    <row customHeight="1" ht="14.25" r="801"/>
+    <row customHeight="1" ht="14.25" r="802"/>
+    <row customHeight="1" ht="14.25" r="803"/>
+    <row customHeight="1" ht="14.25" r="804"/>
+    <row customHeight="1" ht="14.25" r="805"/>
+    <row customHeight="1" ht="14.25" r="806"/>
+    <row customHeight="1" ht="14.25" r="807"/>
+    <row customHeight="1" ht="14.25" r="808"/>
+    <row customHeight="1" ht="14.25" r="809"/>
+    <row customHeight="1" ht="14.25" r="810"/>
+    <row customHeight="1" ht="14.25" r="811"/>
+    <row customHeight="1" ht="14.25" r="812"/>
+    <row customHeight="1" ht="14.25" r="813"/>
+    <row customHeight="1" ht="14.25" r="814"/>
+    <row customHeight="1" ht="14.25" r="815"/>
+    <row customHeight="1" ht="14.25" r="816"/>
+    <row customHeight="1" ht="14.25" r="817"/>
+    <row customHeight="1" ht="14.25" r="818"/>
+    <row customHeight="1" ht="14.25" r="819"/>
+    <row customHeight="1" ht="14.25" r="820"/>
+    <row customHeight="1" ht="14.25" r="821"/>
+    <row customHeight="1" ht="14.25" r="822"/>
+    <row customHeight="1" ht="14.25" r="823"/>
+    <row customHeight="1" ht="14.25" r="824"/>
+    <row customHeight="1" ht="14.25" r="825"/>
+    <row customHeight="1" ht="14.25" r="826"/>
+    <row customHeight="1" ht="14.25" r="827"/>
+    <row customHeight="1" ht="14.25" r="828"/>
+    <row customHeight="1" ht="14.25" r="829"/>
+    <row customHeight="1" ht="14.25" r="830"/>
+    <row customHeight="1" ht="14.25" r="831"/>
+    <row customHeight="1" ht="14.25" r="832"/>
+    <row customHeight="1" ht="14.25" r="833"/>
+    <row customHeight="1" ht="14.25" r="834"/>
+    <row customHeight="1" ht="14.25" r="835"/>
+    <row customHeight="1" ht="14.25" r="836"/>
+    <row customHeight="1" ht="14.25" r="837"/>
+    <row customHeight="1" ht="14.25" r="838"/>
+    <row customHeight="1" ht="14.25" r="839"/>
+    <row customHeight="1" ht="14.25" r="840"/>
+    <row customHeight="1" ht="14.25" r="841"/>
+    <row customHeight="1" ht="14.25" r="842"/>
+    <row customHeight="1" ht="14.25" r="843"/>
+    <row customHeight="1" ht="14.25" r="844"/>
+    <row customHeight="1" ht="14.25" r="845"/>
+    <row customHeight="1" ht="14.25" r="846"/>
+    <row customHeight="1" ht="14.25" r="847"/>
+    <row customHeight="1" ht="14.25" r="848"/>
+    <row customHeight="1" ht="14.25" r="849"/>
+    <row customHeight="1" ht="14.25" r="850"/>
+    <row customHeight="1" ht="14.25" r="851"/>
+    <row customHeight="1" ht="14.25" r="852"/>
+    <row customHeight="1" ht="14.25" r="853"/>
+    <row customHeight="1" ht="14.25" r="854"/>
+    <row customHeight="1" ht="14.25" r="855"/>
+    <row customHeight="1" ht="14.25" r="856"/>
+    <row customHeight="1" ht="14.25" r="857"/>
+    <row customHeight="1" ht="14.25" r="858"/>
+    <row customHeight="1" ht="14.25" r="859"/>
+    <row customHeight="1" ht="14.25" r="860"/>
+    <row customHeight="1" ht="14.25" r="861"/>
+    <row customHeight="1" ht="14.25" r="862"/>
+    <row customHeight="1" ht="14.25" r="863"/>
+    <row customHeight="1" ht="14.25" r="864"/>
+    <row customHeight="1" ht="14.25" r="865"/>
+    <row customHeight="1" ht="14.25" r="866"/>
+    <row customHeight="1" ht="14.25" r="867"/>
+    <row customHeight="1" ht="14.25" r="868"/>
+    <row customHeight="1" ht="14.25" r="869"/>
+    <row customHeight="1" ht="14.25" r="870"/>
+    <row customHeight="1" ht="14.25" r="871"/>
+    <row customHeight="1" ht="14.25" r="872"/>
+    <row customHeight="1" ht="14.25" r="873"/>
+    <row customHeight="1" ht="14.25" r="874"/>
+    <row customHeight="1" ht="14.25" r="875"/>
+    <row customHeight="1" ht="14.25" r="876"/>
+    <row customHeight="1" ht="14.25" r="877"/>
+    <row customHeight="1" ht="14.25" r="878"/>
+    <row customHeight="1" ht="14.25" r="879"/>
+    <row customHeight="1" ht="14.25" r="880"/>
+    <row customHeight="1" ht="14.25" r="881"/>
+    <row customHeight="1" ht="14.25" r="882"/>
+    <row customHeight="1" ht="14.25" r="883"/>
+    <row customHeight="1" ht="14.25" r="884"/>
+    <row customHeight="1" ht="14.25" r="885"/>
+    <row customHeight="1" ht="14.25" r="886"/>
+    <row customHeight="1" ht="14.25" r="887"/>
+    <row customHeight="1" ht="14.25" r="888"/>
+    <row customHeight="1" ht="14.25" r="889"/>
+    <row customHeight="1" ht="14.25" r="890"/>
+    <row customHeight="1" ht="14.25" r="891"/>
+    <row customHeight="1" ht="14.25" r="892"/>
+    <row customHeight="1" ht="14.25" r="893"/>
+    <row customHeight="1" ht="14.25" r="894"/>
+    <row customHeight="1" ht="14.25" r="895"/>
+    <row customHeight="1" ht="14.25" r="896"/>
+    <row customHeight="1" ht="14.25" r="897"/>
+    <row customHeight="1" ht="14.25" r="898"/>
+    <row customHeight="1" ht="14.25" r="899"/>
+    <row customHeight="1" ht="14.25" r="900"/>
+    <row customHeight="1" ht="14.25" r="901"/>
+    <row customHeight="1" ht="14.25" r="902"/>
+    <row customHeight="1" ht="14.25" r="903"/>
+    <row customHeight="1" ht="14.25" r="904"/>
+    <row customHeight="1" ht="14.25" r="905"/>
+    <row customHeight="1" ht="14.25" r="906"/>
+    <row customHeight="1" ht="14.25" r="907"/>
+    <row customHeight="1" ht="14.25" r="908"/>
+    <row customHeight="1" ht="14.25" r="909"/>
+    <row customHeight="1" ht="14.25" r="910"/>
+    <row customHeight="1" ht="14.25" r="911"/>
+    <row customHeight="1" ht="14.25" r="912"/>
+    <row customHeight="1" ht="14.25" r="913"/>
+    <row customHeight="1" ht="14.25" r="914"/>
+    <row customHeight="1" ht="14.25" r="915"/>
+    <row customHeight="1" ht="14.25" r="916"/>
+    <row customHeight="1" ht="14.25" r="917"/>
+    <row customHeight="1" ht="14.25" r="918"/>
+    <row customHeight="1" ht="14.25" r="919"/>
+    <row customHeight="1" ht="14.25" r="920"/>
+    <row customHeight="1" ht="14.25" r="921"/>
+    <row customHeight="1" ht="14.25" r="922"/>
+    <row customHeight="1" ht="14.25" r="923"/>
+    <row customHeight="1" ht="14.25" r="924"/>
+    <row customHeight="1" ht="14.25" r="925"/>
+    <row customHeight="1" ht="14.25" r="926"/>
+    <row customHeight="1" ht="14.25" r="927"/>
+    <row customHeight="1" ht="14.25" r="928"/>
+    <row customHeight="1" ht="14.25" r="929"/>
+    <row customHeight="1" ht="14.25" r="930"/>
+    <row customHeight="1" ht="14.25" r="931"/>
+    <row customHeight="1" ht="14.25" r="932"/>
+    <row customHeight="1" ht="14.25" r="933"/>
+    <row customHeight="1" ht="14.25" r="934"/>
+    <row customHeight="1" ht="14.25" r="935"/>
+    <row customHeight="1" ht="14.25" r="936"/>
+    <row customHeight="1" ht="14.25" r="937"/>
+    <row customHeight="1" ht="14.25" r="938"/>
+    <row customHeight="1" ht="14.25" r="939"/>
+    <row customHeight="1" ht="14.25" r="940"/>
+    <row customHeight="1" ht="14.25" r="941"/>
+    <row customHeight="1" ht="14.25" r="942"/>
+    <row customHeight="1" ht="14.25" r="943"/>
+    <row customHeight="1" ht="14.25" r="944"/>
+    <row customHeight="1" ht="14.25" r="945"/>
+    <row customHeight="1" ht="14.25" r="946"/>
+    <row customHeight="1" ht="14.25" r="947"/>
+    <row customHeight="1" ht="14.25" r="948"/>
+    <row customHeight="1" ht="14.25" r="949"/>
+    <row customHeight="1" ht="14.25" r="950"/>
+    <row customHeight="1" ht="14.25" r="951"/>
+    <row customHeight="1" ht="14.25" r="952"/>
+    <row customHeight="1" ht="14.25" r="953"/>
+    <row customHeight="1" ht="14.25" r="954"/>
+    <row customHeight="1" ht="14.25" r="955"/>
+    <row customHeight="1" ht="14.25" r="956"/>
+    <row customHeight="1" ht="14.25" r="957"/>
+    <row customHeight="1" ht="14.25" r="958"/>
+    <row customHeight="1" ht="14.25" r="959"/>
+    <row customHeight="1" ht="14.25" r="960"/>
+    <row customHeight="1" ht="14.25" r="961"/>
+    <row customHeight="1" ht="14.25" r="962"/>
+    <row customHeight="1" ht="14.25" r="963"/>
+    <row customHeight="1" ht="14.25" r="964"/>
+    <row customHeight="1" ht="14.25" r="965"/>
+    <row customHeight="1" ht="14.25" r="966"/>
+    <row customHeight="1" ht="14.25" r="967"/>
+    <row customHeight="1" ht="14.25" r="968"/>
+    <row customHeight="1" ht="14.25" r="969"/>
+    <row customHeight="1" ht="14.25" r="970"/>
+    <row customHeight="1" ht="14.25" r="971"/>
+    <row customHeight="1" ht="14.25" r="972"/>
+    <row customHeight="1" ht="14.25" r="973"/>
+    <row customHeight="1" ht="14.25" r="974"/>
+    <row customHeight="1" ht="14.25" r="975"/>
+    <row customHeight="1" ht="14.25" r="976"/>
+    <row customHeight="1" ht="14.25" r="977"/>
+    <row customHeight="1" ht="14.25" r="978"/>
+    <row customHeight="1" ht="14.25" r="979"/>
+    <row customHeight="1" ht="14.25" r="980"/>
+    <row customHeight="1" ht="14.25" r="981"/>
+    <row customHeight="1" ht="14.25" r="982"/>
+    <row customHeight="1" ht="14.25" r="983"/>
+    <row customHeight="1" ht="14.25" r="984"/>
+    <row customHeight="1" ht="14.25" r="985"/>
+    <row customHeight="1" ht="14.25" r="986"/>
+    <row customHeight="1" ht="14.25" r="987"/>
+    <row customHeight="1" ht="14.25" r="988"/>
+    <row customHeight="1" ht="14.25" r="989"/>
+    <row customHeight="1" ht="14.25" r="990"/>
+    <row customHeight="1" ht="14.25" r="991"/>
+    <row customHeight="1" ht="14.25" r="992"/>
+    <row customHeight="1" ht="14.25" r="993"/>
+    <row customHeight="1" ht="14.25" r="994"/>
+    <row customHeight="1" ht="14.25" r="995"/>
+    <row customHeight="1" ht="14.25" r="996"/>
+    <row customHeight="1" ht="14.25" r="997"/>
+    <row customHeight="1" ht="14.25" r="998"/>
+    <row customHeight="1" ht="14.25" r="999"/>
+    <row customHeight="1" ht="14.25" r="1000"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="G4:H4"/>
@@ -5781,14 +5781,14 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -5796,11 +5796,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="20.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5940,7 +5940,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/Simulasi/Simulasi Tax Calculation.xlsx
+++ b/Simulasi/Simulasi Tax Calculation.xlsx
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>22955.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>53</v>

--- a/Simulasi/Simulasi Tax Calculation.xlsx
+++ b/Simulasi/Simulasi Tax Calculation.xlsx
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>53</v>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3" s="17"/>
     </row>
@@ -4118,7 +4118,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" s="17"/>
       <c r="G4" s="63"/>

--- a/Simulasi/Simulasi Tax Calculation.xlsx
+++ b/Simulasi/Simulasi Tax Calculation.xlsx
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3000.0</v>
+        <v>504183.7</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>53</v>

--- a/Simulasi/Simulasi Tax Calculation.xlsx
+++ b/Simulasi/Simulasi Tax Calculation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-Sprint17\Simulasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -514,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0"/>
@@ -622,7 +622,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="12" fillId="0" fontId="8" numFmtId="10" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="4" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1234,7 +1233,7 @@
   <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.625" defaultRowHeight="15"/>
@@ -1271,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="D2" s="17"/>
       <c r="G2" s="17"/>
@@ -1300,14 +1299,14 @@
       <c r="I5" s="17"/>
     </row>
     <row customHeight="1" ht="14.25" r="6" spans="1:17">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="60"/>
       <c r="G6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -4070,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E19" sqref="E19:F19"/>
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.625" defaultRowHeight="15"/>
@@ -4098,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>504183.7</v>
+        <v>21500.0</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>53</v>
@@ -4109,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" s="17"/>
     </row>
@@ -4118,13 +4117,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="64"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="63"/>
     </row>
     <row customHeight="1" ht="14.25" r="5" spans="1:18">
       <c r="D5" s="17">
@@ -4136,14 +4135,14 @@
       <c r="J5" s="1"/>
     </row>
     <row customHeight="1" ht="14.25" r="6" spans="1:18">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="60"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
